--- a/korea_articles.xlsx
+++ b/korea_articles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,3077 +453,2839 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Delays, disruptions as South Koreans surge to sign online petition to impeach president</t>
+          <t>After boosting ties, Japan, South Korea, US try to keep them going</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-07-01 13:12:00.934446</t>
+          <t>2024-07-03 15:27:46.171449</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihAFodHRwczovL3d3dy5yZXV0ZXJzLmNvbS93b3JsZC9hc2lhLXBhY2lmaWMvZGVsYXlzLWRpc3J1cHRpb25zLXNvdXRoLWtvcmVhbnMtc3VyZ2Utc2lnbi1vbmxpbmUtcGV0aXRpb24taW1wZWFjaC1wcmVzaWRlbnQtMjAyNC0wNy0wMS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2EvYWZ0ZXItYm9vc3RpbmctdGllcy1qYXBhbi1zLWtvcmVhLXVzLXRyeS10by1rZWVwLXRoZW0tZ29pbmcvNzY4MzY4Mi5odG1s0gFkaHR0cHM6Ly93d3cudm9hbmV3cy5jb20vYW1wL2FmdGVyLWJvb3N0aW5nLXRpZXMtamFwYW4tcy1rb3JlYS11cy10cnktdG8ta2VlcC10aGVtLWdvaW5nLzc2ODM2ODIuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>North Korea tests 2 missiles, 1 reportedly may have fallen on land</t>
+          <t>North Korea switches TV broadcasts from Chinese satellite to Russian</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-07-01 13:12:50.766894</t>
+          <t>2024-07-03 15:27:46.171449</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiaGh0dHBzOi8vYWJjbmV3cy5nby5jb20vSW50ZXJuYXRpb25hbC9ub3J0aC1rb3JlYS10ZXN0cy0yLW1pc3NpbGVzLTEtcmVwb3J0ZWRseS1mYWxsZW4vc3Rvcnk_aWQ9MTExNTY3ODcz0gFsaHR0cHM6Ly9hYmNuZXdzLmdvLmNvbS9hbXAvSW50ZXJuYXRpb25hbC9ub3J0aC1rb3JlYS10ZXN0cy0yLW1pc3NpbGVzLTEtcmVwb3J0ZWRseS1mYWxsZW4vc3Rvcnk_aWQ9MTExNTY3ODcz?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vdGhlcmVjb3JkLm1lZGlhL25vcnRoLWtvcmVhbi1zdGF0ZS10ZWxldmlzaW9uLXNhdGVsbGl0ZS1zd2l0Y2gtcnVzc2lhLWNoaW5h0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>South Korea’s Inflation Slows More Than Expected Toward BOK's 2% Target</t>
+          <t>Russian kid stayed at North Korean summer camp, had weird experiences</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-07-01 13:12:50.770844</t>
+          <t>2024-07-03 15:27:46.171449</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTAxL3NvdXRoLWtvcmVhLXMtaW5mbGF0aW9uLWNvb2xzLW1vcmUtdGhhbi1leHBlY3RlZC10b3dhcmQtdGFyZ2V00gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcnVzc2lhbi1raWQtc3RheWVkLW5vcnRoLWtvcmVhLXN1bW1lci1jYW1wLXNvbmdkb3dvbi10cmllZC1icmFpbndhc2gtMjAyNC030gFvaHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ydXNzaWFuLWtpZC1zdGF5ZWQtbm9ydGgta29yZWEtc3VtbWVyLWNhbXAtc29uZ2Rvd29uLXRyaWVkLWJyYWlud2FzaC0yMDI0LTc_YW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Renault Korea hit by misandry allegations over finger gesture in clip</t>
+          <t>BTS member Jin to participate as South Korea torchbearer in Paris 2024 Olympic torch relay</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-07-01 13:12:50.776651</t>
+          <t>2024-07-03 15:27:46.187815</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMikQFodHRwczovL3d3dy5zY21wLmNvbS93ZWVrLWFzaWEvbGlmZXN0eWxlLWN1bHR1cmUvYXJ0aWNsZS8zMjY4NzQyL3JlbmF1bHQta29yZWEtYmFja2xhc2gtY2FybWFrZXItZW1icm9pbGVkLW1pc2FuZHJ5LXJvdy1vdmVyLWZpbmdlci1nZXN0dXJlLXZpZGVv0gGRAWh0dHBzOi8vYW1wLnNjbXAuY29tL3dlZWstYXNpYS9saWZlc3R5bGUtY3VsdHVyZS9hcnRpY2xlLzMyNjg3NDIvcmVuYXVsdC1rb3JlYS1iYWNrbGFzaC1jYXJtYWtlci1lbWJyb2lsZWQtbWlzYW5kcnktcm93LW92ZXItZmluZ2VyLWdlc3R1cmUtdmlkZW8?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiW2h0dHBzOi8vd3d3LmNubi5jb20vMjAyNC8wNy8wMy9zcG9ydC9idHMtamluLXBhcmlzLW9seW1waWNzLXRvcmNoLXJlbGF5LXNwdC1pbnRsL2luZGV4Lmh0bWzSAVRodHRwczovL2FtcC5jbm4uY29tL2Nubi8yMDI0LzA3LzAzL3Nwb3J0L2J0cy1qaW4tcGFyaXMtb2x5bXBpY3MtdG9yY2gtcmVsYXktc3B0LWludGw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Garbage, Balloons, and Korean Unification Values</t>
+          <t>K-Pop and trash: Inside Korea’s balloon war</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.038280</t>
+          <t>2024-07-03 15:27:46.187815</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiTGh0dHBzOi8vd3d3LmNzaXMub3JnL2FuYWx5c2lzL2dhcmJhZ2UtYmFsbG9vbnMtYW5kLWtvcmVhbi11bmlmaWNhdGlvbi12YWx1ZXPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVWh0dHBzOi8vd3d3LmZyYW5jZTI0LmNvbS9lbi92aWRlby8yMDI0MDcwMy1rLXBvcC1hbmQtdHJhc2gtaW5zaWRlLWtvcmVhLXMtYmFsbG9vbi13YXLSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Petition to Impeach South Korea's President Crashes</t>
+          <t>North Korea and Russia to build road bridge over Tumen River</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.038280</t>
+          <t>2024-07-03 15:27:46.202827</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiSGh0dHBzOi8vdGltZS5jb20vNjk5NDE2NC9wZXRpdGlvbi1pbXBlYWNobWVudC1zb3V0aC1rb3JlYS15b29uLXN1ay15ZW9sL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LnJmYS5vcmcvZW5nbGlzaC9uZXdzL2tvcmVhL3J1c3NpYS1ub3J0aC1rb3JlYS1yb2FkLWJyaWRnZS10dW1lbi1yaXZlci0wNzAzMjAyNDE0NDU1Ni5odG1s0gFsaHR0cHM6Ly93d3cucmZhLm9yZy9lbmdsaXNoL25ld3Mva29yZWEvcnVzc2lhLW5vcnRoLWtvcmVhLXJvYWQtYnJpZGdlLXR1bWVuLXJpdmVyLTA3MDMyMDI0MTQ0NTU2Lmh0bWwvYW1wUkZB?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Young Men Are Swinging Hard Right in Korea. It Could Be a Preview for America.</t>
+          <t>Russia-North Korea Treaty Marks a Return to Normalcy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.038280</t>
+          <t>2024-07-03 15:27:46.202827</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXWh0dHBzOi8vd3d3LnBvbGl0aWNvLmNvbS9uZXdzL21hZ2F6aW5lLzIwMjQvMDcvMDEvc291dGgta29yZWEtZ2VuZGVyLWRpdmlkZS1mZW1pbmlzbS0wMDE1NTIwN9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVWh0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvcnVzc2lhLW5vcnRoLWtvcmVhLXRyZWF0eS1tYXJrcy1hLXJldHVybi10by1ub3JtYWxjeS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Royal Canadian Navy Frigate HMCS Montreal Visits South Korea</t>
+          <t>Korea slaps Credit Suisse with largest ever short-sale penalty</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.038280</t>
+          <t>2024-07-03 15:27:46.202827</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiamh0dHBzOi8vd3d3Lm5hdmFsbmV3cy5jb20vbmF2YWwtbmV3cy8yMDI0LzA3L3JveWFsLWNhbmFkaWFuLW5hdnktZnJpZ2F0ZS1obWNzLW1vbnRyZWFsLXZpc2l0cy1zb3V0aC1rb3JlYS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vc2hvcnQtc2VsbGluZy9uZXdzVmlldy9rZWQyMDI0MDcwMzAwMTfSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ICC signs Memorandum of Understanding with Korea University</t>
+          <t>South Korea Deals Credit Suisse a Record Short-Selling Fine</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.038280</t>
+          <t>2024-07-03 15:27:46.202827</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiUGh0dHBzOi8vd3d3LmljYy1jcGkuaW50L25ld3MvaWNjLXNpZ25zLW1lbW9yYW5kdW0tdW5kZXJzdGFuZGluZy1rb3JlYS11bml2ZXJzaXR50gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTAzL3NvdXRoLWtvcmVhLWRlYWxzLWNyZWRpdC1zdWlzc2UtYS1yZWNvcmQtc2hvcnQtc2VsbGluZy1maW5l0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lawsuit accuses Iran, Syria and North Korea of providing support for Hamas' Oct. 7 attack on Israel</t>
+          <t>Denmark’s Filmmaking Enfant Terrible, Lars von Trier, Earns Career Retrospective in Korea</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.047010</t>
+          <t>2024-07-03 15:27:46.219334</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL2lzcmFlbC1oYW1hcy1sYXdzdWl0LWlyYW4tc3lyaWEtbm9ydGgta29yZWEtODY0NjBjMjhiMGU3ZjhjNmM4Y2QxZmFkNmIxZjU5MjnSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWGh0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC9maWxtL25ld3MvbGFycy12b24tdHJpZXItY2FyZWVyLXJldHJvc3BlY3RpdmUta29yZWEtMTIzNjA1OTg1Ny_SAVxodHRwczovL3ZhcmlldHkuY29tLzIwMjQvZmlsbS9uZXdzL2xhcnMtdm9uLXRyaWVyLWNhcmVlci1yZXRyb3NwZWN0aXZlLWtvcmVhLTEyMzYwNTk4NTcvYW1wLw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Swelling deer herd hems in South Korean islanders</t>
+          <t>EDC and SK Group sign partnership to accelerate trade and investments between Canada and the Republic of Korea</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.047010</t>
+          <t>2024-07-03 15:27:46.219334</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiS2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL2ludmVzdGlnYXRlcy9zcGVjaWFsLXJlcG9ydC9zb3V0aGtvcmVhLWlzbGFuZC1kZWVyL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTmh0dHBzOi8vY2EuZmluYW5jZS55YWhvby5jb20vbmV3cy9lZGMtc2stZ3JvdXAtc2lnbi1wYXJ0bmVyc2hpcC0xMDAwMDA1NTcuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>North Korea switches TV transmission to Russia satellite from Chinese</t>
+          <t>Korean consul general in Utah: Bilateral ties with U.S. will remain strong post-election</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.047010</t>
+          <t>2024-07-03 15:27:46.219334</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMidGh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9ub3J0aC1rb3JlYS1zd2l0Y2hlcy10di10cmFuc21pc3Npb24tcnVzc2lhLXNhdGVsbGl0ZS1jaGluZXNlLTIwMjQtMDctMDEv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWGh0dHBzOi8vd3d3LmRlc2VyZXQuY29tL3V0YWgvMjAyNC8wNy8wMy9rb3JlYS11cy11dGFoLXJlbGF0aW9uc2hpcC1wcmVzaWRlbnRpYWwtZWxlY3Rvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>At least nine dead in South Korean capital Seoul as car ploughs into crowd</t>
+          <t>Can South Korea Be a Knight for the U.S. on the Chessboard of Latin America?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.047010</t>
+          <t>2024-07-03 15:27:46.219334</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiLmh0dHBzOi8vd3d3LmJiYy5jb20vbmV3cy9hcnRpY2xlcy9jbjA4bHFnMGpsem_SATJodHRwczovL3d3dy5iYmMuY29tL25ld3MvYXJ0aWNsZXMvY24wOGxxZzBqbHpvLmFtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiY2h0dHBzOi8vZ2xvYmFsYW1lcmljYW5zLm9yZy9jYW4tc291dGgta29yZWEtYmUtYS1rbmlnaHQtZm9yLXRoZS11LXMtb24tY2hlc3Nib2FyZC1vZi1sYXRpbi1hbWVyaWNhL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>South Korea inflation hits 11-month low as supply pressures ease</t>
+          <t>BTS’ Jin chosen as South Korea’s torchbearer at Paris Olympics 2024; ARMY reacts</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.047010</t>
+          <t>2024-07-03 15:27:46.235198</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZmh0dHBzOi8vd3d3LnJldXRlcnMuY29tL21hcmtldHMvYXNpYS9zb3V0aC1rb3JlYS1qdW5lLWluZmxhdGlvbi0yNC15eS13ZWFrZXItdGhhbi1mb3JlY2FzdC0yMDI0LTA3LTAxL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMigAFodHRwczovL2luZGlhbmV4cHJlc3MuY29tL2FydGljbGUvdHJlbmRpbmcvdHJlbmRpbmctZ2xvYmFsbHkvYnRzLWppbi1jaG9zZW4tc291dGgta29yZWEtdG9yY2hiZWFyZXItcGFyaXMtb2x5bXBpY3MtMjAyNC05NDMwNjcxL9IBhQFodHRwczovL2luZGlhbmV4cHJlc3MuY29tL2FydGljbGUvdHJlbmRpbmcvdHJlbmRpbmctZ2xvYmFsbHkvYnRzLWppbi1jaG9zZW4tc291dGgta29yZWEtdG9yY2hiZWFyZXItcGFyaXMtb2x5bXBpY3MtMjAyNC05NDMwNjcxL2xpdGUv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>North Koreans are seen wearing Kim Jong Un pins for the first time as his personality cult grows</t>
+          <t>Will South Korea Get the Bomb?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.052087</t>
+          <t>2024-07-04 15:27:46.171449</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYWh0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL25vcnRoLWtvcmVhLWtpbS1waW5zLXBlcnNvbmFsaXR5LWN1bHQtMjNhNDJiZDc1NzFjMjY0ODc5YWE0OTYwYTgxZTg0YjHSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiOWh0dHBzOi8vd3d3LmNhdG8ub3JnL2NvbW1lbnRhcnkvd2lsbC1zb3V0aC1rb3JlYS1nZXQtYm9tYtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>South Korea: Extend state benefits to same-sex partners, ILGA World and ILGA Asia tell the Supreme Court</t>
+          <t>North Korea recalls overseas students for ‘political indoctrination’</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.054846</t>
+          <t>2024-07-04 15:27:46.202827</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQ2h0dHBzOi8vaWxnYS5vcmcvbmV3cy9zb3V0aC1rb3JlYS1zYW1lLXNleC1wYXJ0bmVycy1zdGF0ZS1iZW5lZml0cy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3LnJmYS5vcmcvZW5nbGlzaC9uZXdzL2tvcmVhL3B5b25neWFuZy1zdHVkZW50LXJlY2FsbC0wNzA0MjAyNDAxMDgyOC5odG1s0gFaaHR0cHM6Ly93d3cucmZhLm9yZy9lbmdsaXNoL25ld3Mva29yZWEvcHlvbmd5YW5nLXN0dWRlbnQtcmVjYWxsLTA3MDQyMDI0MDEwODI4Lmh0bWwvYW1wUkZB?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Put North Korea's Human Rights Issues Front and Center</t>
+          <t>Exploring coexistence opportunities for offshore wind and fisheries in South Korea: Global overview and best practices for South Korea</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.058362</t>
+          <t>2024-07-04 15:27:46.202827</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiWWh0dHBzOi8vd3d3Lmhydy5vcmcvbmV3cy8yMDI0LzA3LzAyL3B1dC1ub3J0aC1rb3JlYXMtaHVtYW4tcmlnaHRzLWlzc3Vlcy1mcm9udC1hbmQtY2VudGVy0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMi1AFodHRwczovL3d3dy5jYXJib250cnVzdC5jb20vZW4tbGEvb3VyLXdvcmstYW5kLWltcGFjdC9ndWlkZXMtcmVwb3J0cy1hbmQtdG9vbHMvZXhwbG9yaW5nLWNvZXhpc3RlbmNlLW9wcG9ydHVuaXRpZXMtZm9yLW9mZnNob3JlLXdpbmQtYW5kLWZpc2hlcmllcy1pbi1zb3V0aC1rb3JlYS1nbG9iYWwtb3ZlcnZpZXctYW5kLWJlc3QtcHJhY3RpY2VzLWZvci1zb3V0aC1rb3JlYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Victims of Hamas Attack Sue Iran, Syria, North Korea in US Court</t>
+          <t>Man who stabbed South Korea opposition leader jailed for 15 years</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.058362</t>
+          <t>2024-07-04 15:27:46.202827</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiKGh0dHBzOi8vd3d3LmlyYW5pbnRsLmNvbS9lbi8yMDI0MDcwMTkwMjLSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LmphcGFudGltZXMuY28uanAvbmV3cy8yMDI0LzA3LzA1L2FzaWEtcGFjaWZpYy9jcmltZS1sZWdhbC9tYW4tc3RhYmJlZC1zb3V0aC1rb3JlYS1qYWlsZWQv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>North Korea says it tested ballistic missile capable of carrying super-large warhead</t>
+          <t>Amid worsening healthcare in S.Korea, advocacy groups call on doctors to end strike</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.058362</t>
+          <t>2024-07-04 15:27:46.202827</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMigAFodHRwczovL3d3dy5yZXV0ZXJzLmNvbS93b3JsZC9hc2lhLXBhY2lmaWMvbm9ydGgta29yZWEtc2F5cy1pdC10ZXN0ZWQtYmFsbGlzdGljLW1pc3NpbGUtY2FwYWJsZS1jYXJyeWluZy1zdXBlci1sYXJnZS0yMDI0LTA3LTAxL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3LmFhLmNvbS50ci9lbi9hc2lhLXBhY2lmaWMvYW1pZC13b3JzZW5pbmctaGVhbHRoY2FyZS1pbi1za29yZWEtYWR2b2NhY3ktZ3JvdXBzLWNhbGwtb24tZG9jdG9ycy10by1lbmQtc3RyaWtlLzMyNjYwNjTSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>This Song Is Catchy and Going Viral. It's Also North Korean Propaganda.</t>
+          <t>South Korean government unveils real-time monitoring for crypto fraud</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.058362</t>
+          <t>2024-07-04 15:27:46.202827</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVmh0dHBzOi8vd3d3Lndzai5jb20vbGlmZXN0eWxlL25vcnRoLWtvcmVhbi1wcm9wYWdhbmRhLXRpay10b2stZnJpZW5kbHktZmF0aGVyLTMzOWRkNzg00gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiaWh0dHBzOi8vd3d3LnRoZWJsb2NrLmNvL3Bvc3QvMzAzNTI0L3NvdXRoLWtvcmVhbi1nb3Zlcm5tZW50LXVudmVpbHMtcmVhbC10aW1lLW1vbml0b3JpbmctZm9yLWNyeXB0by1mcmF1ZNIBbWh0dHBzOi8vd3d3LnRoZWJsb2NrLmNvL2FtcC9wb3N0LzMwMzUyNC9zb3V0aC1rb3JlYW4tZ292ZXJubWVudC11bnZlaWxzLXJlYWwtdGltZS1tb25pdG9yaW5nLWZvci1jcnlwdG8tZnJhdWQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>South Korea’s Inflation Cools More Than Expected Toward Target</t>
+          <t>South Korea Hunts for Fraudulent Crypto Trading as Rules Tighten</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.058362</t>
+          <t>2024-07-04 15:27:46.202827</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZGh0dHBzOi8vd3d3LmJubmJsb29tYmVyZy5jYS9zb3V0aC1rb3JlYS1zLWluZmxhdGlvbi1jb29scy1tb3JlLXRoYW4tZXhwZWN0ZWQtdG93YXJkLXRhcmdldC0xLjIwOTE3NTTSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTA0L3NvdXRoLWtvcmVhLWh1bnRzLWZvci1mcmF1ZHVsZW50LWNyeXB0by10cmFkaW5nLWFzLXJ1bGVzLXRpZ2h0ZW7SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Deepening Russia-North Korea ties test US-South Korea deterrence strategy</t>
+          <t>Russia, North Korea have put South Korea in a predicament</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.058362</t>
+          <t>2024-07-04 15:27:46.219334</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2EvZGVlcGVuaW5nLXJ1c3NpYS1ub3J0aC1rb3JlYS10aWVzLXRlc3QtdXMtc291dGgta29yZWEtZGV0ZXJyZW5jZS1zdHJhdGVneS0vNzY4MTY5NS5odG1s0gFzaHR0cHM6Ly93d3cudm9hbmV3cy5jb20vYW1wL2RlZXBlbmluZy1ydXNzaWEtbm9ydGgta29yZWEtdGllcy10ZXN0LXVzLXNvdXRoLWtvcmVhLWRldGVycmVuY2Utc3RyYXRlZ3ktLzc2ODE2OTUuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiX2h0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcnVzc2lhLW5vcnRoLWtvcmVhLWhhdmUtcHV0LXNvdXRoLWtvcmVhLWluLWEtcHJlZGljYW1lbnQtMjAyNC030gFjaHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ydXNzaWEtbm9ydGgta29yZWEtaGF2ZS1wdXQtc291dGgta29yZWEtaW4tYS1wcmVkaWNhbWVudC0yMDI0LTc_YW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Leftover Ramen Broth Is Causing Problems on South Korea's Mount Halla</t>
+          <t>South Korea Current Account Hits 32-Month High on Global AI Boom</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.058362</t>
+          <t>2024-07-04 15:27:46.235198</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMieGh0dHBzOi8vd3d3LnNtaXRoc29uaWFubWFnLmNvbS9zbWFydC1uZXdzL2xlZnRvdmVyLXJhbWVuLWJyb3RoLWlzLWNhdXNpbmctcHJvYmxlbXMtb24tc291dGgta29yZWFzLW1vdW50LWhhbGwtMTgwOTg0NjMzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTA1L3NvdXRoLWtvcmVhLWN1cnJlbnQtYWNjb3VudC1oaXRzLTMyLW1vbnRoLWhpZ2gtb24tZ2xvYmFsLWFpLWJvb23SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Philippine Fried Chicken Giant Jollibee Buys South Korea’s Compose Coffee</t>
+          <t>Japan rally from 20-point deficit but fall to Korea</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.058362</t>
+          <t>2024-07-05 15:27:46.171449</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3LmJubmJsb29tYmVyZy5jYS9waGlsaXBwaW5lLWZyaWVkLWNoaWNrZW4tZ2lhbnQtam9sbGliZWUtYnV5cy1zb3V0aC1rb3JlYS1zLWNvbXBvc2UtY29mZmVlLTEuMjA5MTgzMNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMijAFodHRwczovL3d3dy5maWJhLmJhc2tldGJhbGwvZW4vZXZlbnRzL21lbnMtb2x5bXBpYy1iYXNrZXRiYWxsLXRvdXJuYW1lbnQtcGFyaXMtMjAyNC9uZXdzL2phcGFuLXJhbGx5LWZyb20tMjAtcG9pbnQtZGVmaWNpdC1idXQtZmFsbC10by1rb3JlYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Failed North Korean missile test may have fallen near capital Pyongyang, South Korea says</t>
+          <t>Man who stabbed South Korea opposition leader gets 15 years in jail</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.058362</t>
+          <t>2024-07-05 15:27:46.171449</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZmh0dHBzOi8vd3d3LmNubi5jb20vMjAyNC8wNy8wMS9hc2lhL25vcnRoLWtvcmVhLWZhaWxlZC1taXNzaWxlLXRlc3Qtc291dGgta29yZWEtaW50bC1obmstbWwvaW5kZXguaHRtbNIBX2h0dHBzOi8vYW1wLmNubi5jb20vY25uLzIwMjQvMDcvMDEvYXNpYS9ub3J0aC1rb3JlYS1mYWlsZWQtbWlzc2lsZS10ZXN0LXNvdXRoLWtvcmVhLWludGwtaG5rLW1s?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LmFsamF6ZWVyYS5jb20vbmV3cy8yMDI0LzcvNS9tYW4td2hvLXN0YWJiZWQtc291dGgta29yZWEtb3Bwb3NpdGlvbi1sZWFkZXItZ2V0cy0xNS15ZWFycy1pbi1qYWls0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Korea Box Office: ‘Inside Out 2’ Dominates on Third Weekend as ‘A Quiet Place’ Creeps Into Fourth Place</t>
+          <t>US refutes Russia's denial of violating North Korea sanctions</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.071525</t>
+          <t>2024-07-05 15:27:46.187815</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZGh0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC9maWxtL25ld3Mva29yZWEtYm94LW9mZmljZS1pbnNpZGUtb3V0LTItZG9taW5hdGVzLXRoaXJkLXdlZWtlbmQtMTIzNjA1Nzc5MC_SAWhodHRwczovL3ZhcmlldHkuY29tLzIwMjQvZmlsbS9uZXdzL2tvcmVhLWJveC1vZmZpY2UtaW5zaWRlLW91dC0yLWRvbWluYXRlcy10aGlyZC13ZWVrZW5kLTEyMzYwNTc3OTAvYW1wLw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2EvdXMtcmVmdXRlcy1ydXNzaWEtcy1kZW5pYWwtb2YtdmlvbGF0aW5nLW5vcnRoLWtvcmVhLXNhbmN0aW9ucy0vNzY4NzAxNC5odG1s0gFnaHR0cHM6Ly93d3cudm9hbmV3cy5jb20vYW1wL3VzLXJlZnV0ZXMtcnVzc2lhLXMtZGVuaWFsLW9mLXZpb2xhdGluZy1ub3J0aC1rb3JlYS1zYW5jdGlvbnMtLzc2ODcwMTQuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>North Korea ruling party continues plenary session for 3rd day</t>
+          <t>Watch Ryan Reynolds and Hugh Jackman Get Soaked Onstage at Waterbomb Festival in South Korea</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.076978</t>
+          <t>2024-07-05 15:27:46.187815</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibGh0dHBzOi8vd3d3LmFhLmNvbS50ci9lbi9hc2lhLXBhY2lmaWMvbm9ydGgta29yZWEtcnVsaW5nLXBhcnR5LWNvbnRpbnVlcy1wbGVuYXJ5LXNlc3Npb24tZm9yLTNyZC1kYXkvMzI2MjYwMtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVGh0dHBzOi8vcGVvcGxlLmNvbS9yeWFuLXJleW5vbGRzLWh1Z2gtamFja21hbi13YXRlcmJvbWItZmVzdGl2YWwtc291dGgta29yZWEtODY3NDE0MdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Wine set for growth in South Korea’s On Premise</t>
+          <t>In a first, robot dies of suicide in South Korea. What really happened?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.076978</t>
+          <t>2024-07-05 15:27:46.187815</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiR2h0dHBzOi8vY2dhc3RyYXRlZ3kuY29tL3dpbmUtc2V0LWZvci1ncm93dGgtaW4tc291dGgta29yZWFzLW9uLXByZW1pc2Uv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicmh0dHBzOi8vd3d3LmZpcnN0cG9zdC5jb20vZXhwbGFpbmVycy9maXJzdC1yb2JvdC1kaWVzLW9mLXN1aWNpZGUtaW4tc291dGgta29yZWEtd2hhdC1yZWFsbHktaGFwcGVuZWQtMTM3ODk2MjUuaHRtbNIBdmh0dHBzOi8vd3d3LmZpcnN0cG9zdC5jb20vZXhwbGFpbmVycy9maXJzdC1yb2JvdC1kaWVzLW9mLXN1aWNpZGUtaW4tc291dGgta29yZWEtd2hhdC1yZWFsbHktaGFwcGVuZWQtMTM3ODk2MjUuaHRtbC9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>European Union supporting future Korean Youth Climate Ambassadors in run-up to COP29</t>
+          <t>Did A Robot Really Die By 'Suicide' In South Korea? Experts Probe</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.076978</t>
+          <t>2024-07-05 15:27:46.202827</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihwFodHRwczovL3d3dy5lZWFzLmV1cm9wYS5ldS9kZWxlZ2F0aW9ucy9zb3V0aC1rb3JlYS9ldXJvcGVhbi11bmlvbi1zdXBwb3J0aW5nLWZ1dHVyZS1rb3JlYW4teW91dGgtY2xpbWF0ZS1hbWJhc3NhZG9ycy1ydW4tY29wMjlfZW4_cz0xNznSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiY2h0dHBzOi8vd3d3Lm5kdHYuY29tL3dvcmxkLW5ld3Mvcm9ib3RzLWJhZmZsaW5nLXN1aWNpZGUtaW4tc291dGgta29yZWEtc3BhcmtzLWludmVzdGlnYXRpb24tNjA0MTA4OdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>US victims of October 7 attacks sue Iran, Syria and North Korea over alleged Hamas support</t>
+          <t>South Korea will withdraw plan to suspend licenses of striking doctors to resolve medical impasse</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.081989</t>
+          <t>2024-07-05 15:27:46.202827</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXGh0dHBzOi8vd3d3LmNubi5jb20vMjAyNC8wNy8wMS93b3JsZC91cy12aWN0aW1zLWlyYW4tc3lyaWEtbm9ydGgta29yZWEtaGFtYXMtaW50bC9pbmRleC5odG1s0gFVaHR0cHM6Ly9hbXAuY25uLmNvbS9jbm4vMjAyNC8wNy8wMS93b3JsZC91cy12aWN0aW1zLWlyYW4tc3lyaWEtbm9ydGgta29yZWEtaGFtYXMtaW50bA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMib2h0dHBzOi8vYWJjbmV3cy5nby5jb20vQnVzaW5lc3Mvd2lyZVN0b3J5L3NvdXRoLWtvcmVhLXdpdGhkcmF3LXBsYW4tc3VzcGVuZC1saWNlbnNlcy1zdHJpa2luZy1kb2N0b3JzLTExMTczNjgyMtIBc2h0dHBzOi8vYWJjbmV3cy5nby5jb20vYW1wL0J1c2luZXNzL3dpcmVTdG9yeS9zb3V0aC1rb3JlYS13aXRoZHJhdy1wbGFuLXN1c3BlbmQtbGljZW5zZXMtc3RyaWtpbmctZG9jdG9ycy0xMTE3MzY4MjI?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ramboll to Design Foundations for 532 MW South Korean Offshore Wind Project | Offshore Wind</t>
+          <t>Hydrogen fuel consumption rises almost 50% in South Korea amid H2 bus boom</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.083063</t>
+          <t>2024-07-05 15:27:46.219334</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMidGh0dHBzOi8vd3d3Lm9mZnNob3Jld2luZC5iaXovMjAyNC8wNy8wMS9yYW1ib2xsLXRvLWRlc2lnbi1mb3VuZGF0aW9ucy1mb3ItNTMyLW13LXNvdXRoLWtvcmVhbi1vZmZzaG9yZS13aW5kLXByb2plY3Qv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3Lmh5ZHJvZ2VuaW5zaWdodC5jb20vdHJhbnNwb3J0L2h5ZHJvZ2VuLWZ1ZWwtY29uc3VtcHRpb24tcmlzZXMtYWxtb3N0LTUwLWluLXNvdXRoLWtvcmVhLWFtaWQtaDItYnVzLWJvb20vMi0xLTE2NzM0MDjSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>North Korea says tests involved new ballistic missile with 'super-large warhead'</t>
+          <t>How long do the memories of a generation last?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.087126</t>
+          <t>2024-07-05 15:27:46.219334</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicGh0dHBzOi8vdG9yb250b3N1bi5jb20vbmV3cy93b3JsZC9ub3J0aC1rb3JlYS1zYXlzLXRlc3RzLWludm9sdmVkLW5ldy1iYWxsaXN0aWMtbWlzc2lsZS13aXRoLXN1cGVyLWxhcmdlLXdhcmhlYWTSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYWh0dHBzOi8vd3d3LmphcGFudGltZXMuY28uanAvY29tbWVudGFyeS8yMDI0LzA3LzA1L2phcGFuL2phcGFuLXNvdXRoLWtvcmVhLXJlbGF0aW9ucy1nZW5lcmF0aW9ucy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>South Korea: internet usage of young children 2022</t>
+          <t>Geely Plans to Introduce Zeekr EV Brand in Korea by Early 2026</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.090418</t>
+          <t>2024-07-05 15:27:46.219334</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZmh0dHBzOi8vd3d3LnN0YXRpc3RhLmNvbS9zdGF0aXN0aWNzLzIyNjczMC9pbnRlcm5ldC11c2FnZS1vZi15b3VuZy1jaGlsZHJlbi1pbi1zb3V0aC1rb3JlYS1zaW5jZS0yMDA2L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTA1L2dlZWx5LXBsYW5zLXRvLWludHJvZHVjZS16ZWVrci1ldi1icmFuZC1pbi1rb3JlYS1ieS1lYXJseS0yMDI20gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nine Killed in Central Seoul After Car Plows Into Pedestrians</t>
+          <t>South Korea designates targets involved in DPRK-Russia arms &amp; petroleum trade</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13:03.090418</t>
+          <t>2024-07-05 15:27:46.219334</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiR2h0dHBzOi8vd3d3Lm55dGltZXMuY29tLzIwMjQvMDcvMDEvd29ybGQvYXNpYS9zZW91bC1rb3JlYS1hY2NpZGVudC5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicmh0dHBzOi8vZ2xvYmFsc2FuY3Rpb25zLmNvLnVrLzIwMjQvMDcvc291dGgta29yZWEtZGVzaWduYXRlcy10YXJnZXRzLWludm9sdmVkLWluLWRwcmstcnVzc2lhLWFybXMtcGV0cm9sZXVtLXRyYWRlL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>What Are ‘Dumping Tours’ and Why Is South Korea Cracking Down on Them?</t>
+          <t>Robot suicide? Troubled android throws itself down the stairs in South Korea; here’s what happened</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.038280</t>
+          <t>2024-07-05 15:27:46.219334</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYWh0dHBzOi8vc2tpZnQuY29tLzIwMjQvMDcvMDIvd2hhdC1hcmUtZHVtcGluZy10b3Vycy1hbmQtd2h5LWlzLXNvdXRoLWtvcmVhLWNyYWNraW5nLWRvd24tb24tdGhlbS_SAWVodHRwczovL3NraWZ0LmNvbS8yMDI0LzA3LzAyL3doYXQtYXJlLWR1bXBpbmctdG91cnMtYW5kLXdoeS1pcy1zb3V0aC1rb3JlYS1jcmFja2luZy1kb3duLW9uLXRoZW0vYW1wLw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMimwFodHRwczovL3d3dy5idXNpbmVzc3RvZGF5LmluL3RlY2hub2xvZ3kvbmV3cy9zdG9yeS9yb2JvdC1zdWljaWRlLWFuZHJvaWQtdGhyb3dzLWl0c2VsZi1kb3duLXRoZS1zdGFpcnMtaW4tc291dGgta29yZWEtaGVyZXMtd2hhdC1oYXBwZW5lZC00MzYwNjctMjAyNC0wNy0wNdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Driver whose car struck pedestrians in South Korea will face accidental homicide investigation</t>
+          <t>Man who stabbed South Korea’s opposition leader sentenced to 15 years in prison</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.038280</t>
+          <t>2024-07-05 15:27:46.219334</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVGh0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL3NvdXRoLWtvcmVhLWNhci1hY2NpZGVudC04OGQ2NjU0OGIzZWUxNzdmOWZkOGFlNzQ1NGI5MDljYtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMib2h0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL3NvdXRoLWtvcmVhLW9wcG9zaXRpb24tbGVhZGVyLWF0dGFjay1rbmlmZS1zZW50ZW5jZS02MzEwNWIwMTRjNmQ0ZTcxZDg3YTExNDNlN2NhYzFjNtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>North Korea claims ballistic missile test with ‘superlarge warhead’</t>
+          <t>South Korea: Kimchi blamed for mass norovirus sickness</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.038280</t>
+          <t>2024-07-06 15:27:46.171449</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiaWh0dHBzOi8vd3d3LmFsamF6ZWVyYS5jb20vbmV3cy8yMDI0LzcvMi9ub3J0aC1rb3JlYS1jbGFpbXMtYmFsbGlzdGljLW1pc3NpbGUtdGVzdC13aXRoLXN1cGVybGFyZ2Utd2FyaGVhZNIBbWh0dHBzOi8vd3d3LmFsamF6ZWVyYS5jb20vYW1wL25ld3MvMjAyNC83LzIvbm9ydGgta29yZWEtY2xhaW1zLWJhbGxpc3RpYy1taXNzaWxlLXRlc3Qtd2l0aC1zdXBlcmxhcmdlLXdhcmhlYWQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiLmh0dHBzOi8vd3d3LmJiYy5jb20vbmV3cy9hcnRpY2xlcy9jZTU4bTIybGpycm_SATJodHRwczovL3d3dy5iYmMuY29tL25ld3MvYXJ0aWNsZXMvY2U1OG0yMmxqcnJvLmFtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jollibee Foods to take control of S.Korea's Compose Coffee in $340 mln deal</t>
+          <t>With South Korean Rockets, Ukraine Could Wipe Out Russian Warplanes At Their Bases</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.052087</t>
+          <t>2024-07-06 15:27:46.171449</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LnJldXRlcnMuY29tL21hcmtldHMvZGVhbHMvam9sbGliZWUtZm9vZHMtdGFrZS1jb250cm9sLXNrb3JlYXMtY29tcG9zZS1jb2ZmZWUtMzQwLW1sbi1kZWFsLTIwMjQtMDctMDIv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiggFodHRwczovL3d3dy5mb3JiZXMuY29tL3NpdGVzL2RhdmlkYXhlLzIwMjQvMDcvMDYvd2l0aC1zb3V0aC1rb3JlYS1yb2NrZXRzLXVrcmFpbmUtY291bGQtd2lwZS1vdXQtcnVzc2lhbi13YXJwbGFuZXMtYXQtdGhlaXItYmFzZXMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>South Korean president announces tax breaks for companies that raise shareholder returns</t>
+          <t>Photos: Inside North Korea summer camp where Russian kids are heading</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.055858</t>
+          <t>2024-07-06 15:27:46.202827</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibWh0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjQvMDcvMDMvc291dGgta29yZWEtcmV2ZWFscy10YXgtY3V0cy1mb3ItY29tcGFuaWVzLXN1cHBvcnQtZm9yLXNtYWxsLWJ1c2luZXNzZXMtLmh0bWzSAXFodHRwczovL3d3dy5jbmJjLmNvbS9hbXAvMjAyNC8wNy8wMy9zb3V0aC1rb3JlYS1yZXZlYWxzLXRheC1jdXRzLWZvci1jb21wYW5pZXMtc3VwcG9ydC1mb3Itc21hbGwtYnVzaW5lc3Nlcy0uaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiaWh0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcGhvdG9zLWluc2lkZS1ub3J0aC1rb3JlYS1zdW1tZXItY2FtcC1zb25nZG93b24tcnVzc2lhLXNjaG9vbC1raWRzLTIwMjQtN9IBbWh0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcGhvdG9zLWluc2lkZS1ub3J0aC1rb3JlYS1zdW1tZXItY2FtcC1zb25nZG93b24tcnVzc2lhLXNjaG9vbC1raWRzLTIwMjQtNz9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>North Korea says it has tested new ballistic missile capable of carrying ‘super-large warhead'</t>
+          <t>NATO to discuss Russia-North Korea military cooperation</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.058362</t>
+          <t>2024-07-07 15:27:46.171449</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMigwFodHRwczovL3d3dy52b2FuZXdzLmNvbS9hL25vcnRoLWtvcmVhLXNheXMtaXQtaGFzLXRlc3RlZC1uZXctYmFsbGlzdGljLW1pc3NpbGUtY2FwYWJsZS1vZi1jYXJyeWluZy1zdXBlci1sYXJnZS13YXJoZWFkLzc2ODE4MzcuaHRtbNIBhQFodHRwczovL3d3dy52b2FuZXdzLmNvbS9hbXAvbm9ydGgta29yZWEtc2F5cy1pdC1oYXMtdGVzdGVkLW5ldy1iYWxsaXN0aWMtbWlzc2lsZS1jYXBhYmxlLW9mLWNhcnJ5aW5nLXN1cGVyLWxhcmdlLXdhcmhlYWQvNzY4MTgzNy5odG1s?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2EvbmF0by10by1kaXNjdXNzLXJ1c3NpYS1ub3J0aC1rb3JlYS1taWxpdGFyeS1jb29wZXJhdGlvbi83Njg1NjE2Lmh0bWzSAWBodHRwczovL3d3dy52b2FuZXdzLmNvbS9hbXAvbmF0by10by1kaXNjdXNzLXJ1c3NpYS1ub3J0aC1rb3JlYS1taWxpdGFyeS1jb29wZXJhdGlvbi83Njg1NjE2Lmh0bWw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>North Korea claims test of ballistic missile capable of carrying a huge warhead</t>
+          <t>North Korea's Kim Yo Jong accuses S.Korean leader of using tensions as political distraction</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.058362</t>
+          <t>2024-07-07 15:27:46.171449</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiWGh0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL25vcnRoLWtvcmVhLW5ldy1taXNzaWxlLXRlc3QtMzQ0NDZkN2Y2OWQ0M2Y1ODg4YzBmYzYxMWJhZTA0OGXSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9ub3J0aC1rb3JlYXMta2ltLXlvLWpvbmctY2FsbHMtc291dGgta29yZWFuLWRyaWxscy1wcm92b2NhdGlvbi1rY25hLXNheXMtMjAyNC0wNy0wNy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Plant Protection Today: South Korea Grants Market Access to Texas Grapefruit | Animal and Plant Health Inspection ...</t>
+          <t>Samsung workers' union in South Korea kicks off three-day strike</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.058362</t>
+          <t>2024-07-07 15:27:46.187135</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMid2h0dHBzOi8vd3d3LmFwaGlzLnVzZGEuZ292L25ld3MvcHJvZ3JhbS11cGRhdGUvcGxhbnQtcHJvdGVjdGlvbi10b2RheS1zb3V0aC1rb3JlYS1ncmFudHMtbWFya2V0LWFjY2Vzcy10ZXhhcy1ncmFwZWZydWl00gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2Evc2Ftc3VuZy13b3JrZXJzLXVuaW9uLWluLXNvdXRoLWtvcmVhLWtpY2tzLW9mZi10aHJlZS1kYXktc3RyaWtlLS83Njg4OTMyLmh0bWzSAWlodHRwczovL3d3dy52b2FuZXdzLmNvbS9hbXAvc2Ftc3VuZy13b3JrZXJzLXVuaW9uLWluLXNvdXRoLWtvcmVhLWtpY2tzLW9mZi10aHJlZS1kYXktc3RyaWtlLS83Njg4OTMyLmh0bWw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>South Korea Climate Action: A Moment for Elevated Ambition</t>
+          <t>'Suicidal Hysteria': Kim Jong Un's sister hits out at South Korea's live-fire drills</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.058362</t>
+          <t>2024-07-07 15:27:46.187815</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiY2h0dHBzOi8vd3d3LmFtZXJpY2FucHJvZ3Jlc3Mub3JnL2FydGljbGUvc291dGgta29yZWEtY2xpbWF0ZS1hY3Rpb24tYS1tb21lbnQtZm9yLWVsZXZhdGVkLWFtYml0aW9uL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYGh0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL25vcnRoLWtvcmVhLWtpbS1zaXN0ZXItZmlyaW5nLWRyaWxscy1mN2EzMGMzNGY4MTIyOWQ0MTI2MTkwMDIzZDYyMjYwYtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ukraine War: North Korea Boosts China Russia Iran Axis</t>
+          <t>‘Selfish’? South Korean YouTuber promotes single, childless life</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.066939</t>
+          <t>2024-07-07 15:27:46.202827</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vb3Bpbmlvbi9hcnRpY2xlcy8yMDI0LTA3LTAyL3VrcmFpbmUtd2FyLW5vcnRoLWtvcmVhLWJvb3N0cy1jaGluYS1ydXNzaWEtaXJhbi1heGlz0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMimQFodHRwczovL3d3dy5zY21wLmNvbS9saWZlc3R5bGUvZmFtaWx5LXJlbGF0aW9uc2hpcHMvYXJ0aWNsZS8zMjY5MTM1L3NlbGZpc2gtc291dGgta29yZWFuLXdvbWFuLXdoby1wcm9tb3Rlcy11bm1hcnJpZWQtY2hpbGRsZXNzLWxpZmUtYmVjb21lcy15b3V0dWJlLXN0YXLSAZkBaHR0cHM6Ly9hbXAuc2NtcC5jb20vbGlmZXN0eWxlL2ZhbWlseS1yZWxhdGlvbnNoaXBzL2FydGljbGUvMzI2OTEzNS9zZWxmaXNoLXNvdXRoLWtvcmVhbi13b21hbi13aG8tcHJvbW90ZXMtdW5tYXJyaWVkLWNoaWxkbGVzcy1saWZlLWJlY29tZXMteW91dHViZS1zdGFy?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Philippines' Jollibee to buy South Korea's Compose Coffee for $238m</t>
+          <t>Korea Box Office: ‘Inside Out 2’ Reaches $48 Million After Strong Fourth Weekend</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.073906</t>
+          <t>2024-07-07 15:27:46.202827</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicWh0dHBzOi8vYXNpYS5uaWtrZWkuY29tL0J1c2luZXNzL0J1c2luZXNzLWRlYWxzL1BoaWxpcHBpbmVzLUpvbGxpYmVlLXRvLWJ1eS1Tb3V0aC1Lb3JlYS1zLUNvbXBvc2UtQ29mZmVlLWZvci0yMzht0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYmh0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC9maWxtL25ld3Mva29yZWEtYm94LW9mZmljZS13ZWVrbmQtaW5zaWRlLW91dC0yLWZvdXJ0aC13ZWVrZW5kLTEyMzYwNjIwNTkv0gFmaHR0cHM6Ly92YXJpZXR5LmNvbS8yMDI0L2ZpbG0vbmV3cy9rb3JlYS1ib3gtb2ZmaWNlLXdlZWtuZC1pbnNpZGUtb3V0LTItZm91cnRoLXdlZWtlbmQtMTIzNjA2MjA1OS9hbXAv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Russia kids will go to North Korea summer camps this year, closer ties</t>
+          <t>"Suicidal Hysteria": Kim Jong Un's Sister Hits Out At South Korea Military Drills</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.073906</t>
+          <t>2024-07-07 15:27:46.202827</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcnVzc2lhLXNjaG9vbC1raWRzLWdvLW5vcnRoLWtvcmVhLXN1bW1lci1jYW1wLXB1dGluLWtpbS0yMDI0LTfSAWJodHRwczovL3d3dy5idXNpbmVzc2luc2lkZXIuY29tL3J1c3NpYS1zY2hvb2wta2lkcy1nby1ub3J0aC1rb3JlYS1zdW1tZXItY2FtcC1wdXRpbi1raW0tMjAyNC03P2FtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMidWh0dHBzOi8vd3d3Lm5kdHYuY29tL3dvcmxkLW5ld3Mvc3VpY2lkYWwtaHlzdGVyaWEta2ltLWpvbmctdW5zLXNpc3Rlci1oaXRzLW91dC1hdC1zb3V0aC1rb3JlYS1taWxpdGFyeS1kcmlsbHMtNjA1NzA1M9IBe2h0dHBzOi8vd3d3Lm5kdHYuY29tL3dvcmxkLW5ld3Mvc3VpY2lkYWwtaHlzdGVyaWEta2ltLWpvbmctdW5zLXNpc3Rlci1oaXRzLW91dC1hdC1zb3V0aC1rb3JlYS1taWxpdGFyeS1kcmlsbHMtNjA1NzA1My9hbXAvMQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S.Korea sees stronger growth, vows to support sectors hit by high interest rates</t>
+          <t>If North Korea troops sent to aid Russia in Ukraine, not due to skills: experts</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.076919</t>
+          <t>2024-07-07 15:27:46.202827</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicmh0dHBzOi8vd3d3LnJldXRlcnMuY29tL21hcmtldHMvYXNpYS9zb3V0aC1rb3JlYS1wcmVzaWRlbnQteW9vbi1zYXlzLWhlYWRsaW5lLWluZmxhdGlvbi1pcy1zdGFiaWxpc2luZy0yMDI0LTA3LTAzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiamh0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vbm9ydGgta29yZWEtdHJvb3BzLXJ1c3NpYS11a3JhaW5lLW51bWJlcnMtbm90LWVmZmVjdGl2ZW5lc3MtZXhwZXJ0cy0yMDI0LTbSAW5odHRwczovL3d3dy5idXNpbmVzc2luc2lkZXIuY29tL25vcnRoLWtvcmVhLXRyb29wcy1ydXNzaWEtdWtyYWluZS1udW1iZXJzLW5vdC1lZmZlY3RpdmVuZXNzLWV4cGVydHMtMjAyNC02P2FtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>North Korea Reveals a Multiple-warhead Payload in Probable Failed Test</t>
+          <t>South Korea appoints Hong Myung-bo as national soccer team's head coach for second time</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.076978</t>
+          <t>2024-07-07 15:27:46.219334</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LjM4bm9ydGgub3JnLzIwMjQvMDcvbm9ydGgta29yZWEtcmV2ZWFscy1hLW11bHRpcGxlLXdhcmhlYWQtcGF5bG9hZC1pbi1wcm9iYWJsZS1mYWlsZWQtdGVzdC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZGh0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL3NvdXRoLWtvcmVhLWNvYWNoLWhvbmctbXl1bmdiby1rbGluc21hbm4tYmI5MTI5ZjM2MTUzNzgwMmFmZDJjYThmN2MxZDc5YzXSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>South Korea: primary energy consumption by fuel 2023</t>
+          <t>Global powers clash at United Nations over North Korea</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.076978</t>
+          <t>2024-07-07 15:27:46.219334</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXWh0dHBzOi8vd3d3LnN0YXRpc3RhLmNvbS9zdGF0aXN0aWNzLzI2NTYxNy9wcmltYXJ5LWVuZXJneS1jb25zdW1wdGlvbi1pbi1zb3V0aC1rb3JlYS1ieS1mdWVsL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQ2h0dHBzOi8vY2EubmV3cy55YWhvby5jb20vdXMtY29uZnJvbnQtcnVzc2lhLXVuLW92ZXItMDQxMjUxNjk3Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>What the North Korea-Russia Rapprochement Means for Mongolia's Transit and Transport Network</t>
+          <t>China’s big mistake: underestimating North Korea’s nuclear ambitions</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.087126</t>
+          <t>2024-07-07 15:27:46.235198</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMifGh0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvd2hhdC10aGUtbm9ydGgta29yZWEtcnVzc2lhLXJhcHByb2NoZW1lbnQtbWVhbnMtZm9yLW1vbmdvbGlhcy10cmFuc2l0LWFuZC10cmFuc3BvcnQtbmV0d29yay_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LnNjbXAuY29tL29waW5pb24vYXNpYS1vcGluaW9uL2FydGljbGUvMzI2OTIxOS9ydXNzaWEtbm9ydGgta29yZWEtcGFjdC1wcmljZS1jaGluYXMtc3RyYXRlZ2ljLXBhdGllbmNl0gFxaHR0cHM6Ly9hbXAuc2NtcC5jb20vb3Bpbmlvbi9hc2lhLW9waW5pb24vYXJ0aWNsZS8zMjY5MjE5L3J1c3NpYS1ub3J0aC1rb3JlYS1wYWN0LXByaWNlLWNoaW5hcy1zdHJhdGVnaWMtcGF0aWVuY2U?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>North Korea's New Must-Have Accessory: The Kim Jong-un Pin</t>
+          <t>Samsung Electronics workers strike as union voice grows in South Korea</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.089297</t>
+          <t>2024-07-08 15:27:46.171449</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiTmh0dHBzOi8vd3d3Lm55dGltZXMuY29tLzIwMjQvMDcvMDIvd29ybGQvYXNpYS9ub3J0aC1rb3JlYS1raW0tam9uZy11bi1waW4uaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3RlY2hub2xvZ3kvc2Ftc3VuZy13b3JrZXJzLXVuaW9uLXNvdXRoLWtvcmVhLWtpY2tzLW9mZi10aHJlZS1kYXktc3RyaWtlLTIwMjQtMDctMDgv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>South Korea: unemployment rate by age 2023</t>
+          <t>North Korea Freedom Week</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.090418</t>
+          <t>2024-07-08 15:27:46.171449</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiUWh0dHBzOi8vd3d3LnN0YXRpc3RhLmNvbS9zdGF0aXN0aWNzLzk0OTA2Ni9zb3V0aC1rb3JlYS11bmVtcGxveW1lbnQtYnktYWdlLWdyb3VwL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiL2h0dHBzOi8vd3d3LnN0YXRlLmdvdi9ub3J0aC1rb3JlYS1mcmVlZG9tLXdlZWsv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>North Korea tests 'new type of ballistic missile' capable of carrying 4.5-ton class warhead</t>
+          <t>What’s Behind South Korea’s New Defectors’ Day Holiday?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.090418</t>
+          <t>2024-07-08 15:27:46.171449</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihgFodHRwczovL3d3dy5hYS5jb20udHIvZW4vYXNpYS1wYWNpZmljL25vcnRoLWtvcmVhLXRlc3RzLW5ldy10eXBlLW9mLWJhbGxpc3RpYy1taXNzaWxlLWNhcGFibGUtb2YtY2FycnlpbmctNDUtdG9uLWNsYXNzLXdhcmhlYWQvMzI2NDA5MNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vY2FybmVnaWVlbmRvd21lbnQub3JnL2VtaXNzYXJ5LzIwMjQvMDcvZGVmZWN0b3JzLWRheS1zb3V0aC1rb3JlYS1ob2xpZGF5LW5vcnRoLWtvcmVhLXJlZnVnZWVz0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>North Korea's Kim talks up economy amid closer Russia ties</t>
+          <t>The Fallout of Russia’s Veto and Putin’s North Korea Visit</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024-07-02 13:13:03.090418</t>
+          <t>2024-07-08 15:27:46.187815</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiWmh0dHBzOi8vYXNpYS5uaWtrZWkuY29tL0Vjb25vbXkvTm9ydGgtS29yZWEtcy1LaW0tdGFsa3MtdXAtZWNvbm9teS1hbWlkLWNsb3Nlci1SdXNzaWEtdGllc9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWWh0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvdGhlLWZhbGxvdXQtb2YtcnVzc2lhcy12ZXRvLWFuZC1wdXRpbnMtbm9ydGgta29yZWEtdmlzaXQv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Russian kid stayed at North Korean summer camp, had weird experiences</t>
+          <t>Triangular Tensions: US, China, and the Emerging Russia-North Korea Alliance</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024-07-03 13:13:03.038280</t>
+          <t>2024-07-08 15:27:46.187815</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcnVzc2lhbi1raWQtc3RheWVkLW5vcnRoLWtvcmVhLXN1bW1lci1jYW1wLXNvbmdkb3dvbi10cmllZC1icmFpbndhc2gtMjAyNC030gFvaHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ydXNzaWFuLWtpZC1zdGF5ZWQtbm9ydGgta29yZWEtc3VtbWVyLWNhbXAtc29uZ2Rvd29uLXRyaWVkLWJyYWlud2FzaC0yMDI0LTc_YW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiaGh0dHBzOi8vYXJtc2NvbnRyb2xjZW50ZXIub3JnL3RyaWFuZ3VsYXItdGVuc2lvbnMtdXMtY2hpbmEtYW5kLXRoZS1lbWVyZ2luZy1ydXNzaWEtbm9ydGgta29yZWEtYWxsaWFuY2Uv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>North Korea switches TV broadcasts from Chinese satellite to Russian</t>
+          <t>Hyundai Motor, South Korea union reach tentative wage deal, says union</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024-07-03 13:13:03.038280</t>
+          <t>2024-07-08 15:27:46.187815</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiU2h0dHBzOi8vdGhlcmVjb3JkLm1lZGlhL25vcnRoLWtvcmVhbi1zdGF0ZS10ZWxldmlzaW9uLXNhdGVsbGl0ZS1zd2l0Y2gtcnVzc2lhLWNoaW5h0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihgFodHRwczovL3d3dy5yZXV0ZXJzLmNvbS9idXNpbmVzcy9hdXRvcy10cmFuc3BvcnRhdGlvbi9oeXVuZGFpLW1vdG9yLXNvdXRoLWtvcmVhLXVuaW9uLXJlYWNoLXRlbnRhdGl2ZS13YWdlLWRlYWwtc2F5cy11bmlvbi0yMDI0LTA3LTA4L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>After boosting ties, Japan, South Korea, US try to keep them going</t>
+          <t>South Korea says it’ll withdraw its plan to suspend licenses of striking doctors to resolve the long medical impasse</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-07-03 13:13:03.038280</t>
+          <t>2024-07-08 15:27:46.187815</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2EvYWZ0ZXItYm9vc3RpbmctdGllcy1qYXBhbi1zLWtvcmVhLXVzLXRyeS10by1rZWVwLXRoZW0tZ29pbmcvNzY4MzY4Mi5odG1s0gFkaHR0cHM6Ly93d3cudm9hbmV3cy5jb20vYW1wL2FmdGVyLWJvb3N0aW5nLXRpZXMtamFwYW4tcy1rb3JlYS11cy10cnktdG8ta2VlcC10aGVtLWdvaW5nLzc2ODM2ODIuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZmh0dHBzOi8vYWJjbmV3cy5nby5jb20vVVMvd2lyZVN0b3J5L3NvdXRoLWtvcmVhLWl0bGwtd2l0aGRyYXctcGxhbi1zdXNwZW5kLWxpY2Vuc2VzLXN0cmlraW5nLTExMTczNjgxNtIBamh0dHBzOi8vYWJjbmV3cy5nby5jb20vYW1wL1VTL3dpcmVTdG9yeS9zb3V0aC1rb3JlYS1pdGxsLXdpdGhkcmF3LXBsYW4tc3VzcGVuZC1saWNlbnNlcy1zdHJpa2luZy0xMTE3MzY4MTY?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>South Korea fines Credit Suisse for illegal stock short selling</t>
+          <t>North Korea: Kim Jong Un's sister condemns South's drills</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-07-03 13:13:03.055858</t>
+          <t>2024-07-08 15:27:46.187815</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3N1c3RhaW5hYmlsaXR5L3NvdXRoLWtvcmVhLWZpbmVzLWNyZWRpdC1zdWlzc2UtaWxsZWdhbC1zdG9jay1zaG9ydC1zZWxsaW5nLTIwMjQtMDctMDMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiaGh0dHBzOi8vd3d3LmR3LmNvbS9lbi9ub3J0aC1rb3JlYS1raW1zLXNpc3Rlci1jYWxscy1zb3V0aHMtbGl2ZS1maXJlLWRyaWxscy1zdWljaWRhbC1oeXN0ZXJpYS9hLTY5NTkwMTg20gFoaHR0cHM6Ly9hbXAuZHcuY29tL2VuL25vcnRoLWtvcmVhLWtpbXMtc2lzdGVyLWNhbGxzLXNvdXRocy1saXZlLWZpcmUtZHJpbGxzLXN1aWNpZGFsLWh5c3RlcmlhL2EtNjk1OTAxODY?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>North Korea and Russia to build road bridge over Tumen River</t>
+          <t>Why Korean sunscreens are better than American sunscreens</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024-07-03 13:13:03.058362</t>
+          <t>2024-07-08 15:27:46.187815</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LnJmYS5vcmcvZW5nbGlzaC9uZXdzL2tvcmVhL3J1c3NpYS1ub3J0aC1rb3JlYS1yb2FkLWJyaWRnZS10dW1lbi1yaXZlci0wNzAzMjAyNDE0NDU1Ni5odG1s0gFsaHR0cHM6Ly93d3cucmZhLm9yZy9lbmdsaXNoL25ld3Mva29yZWEvcnVzc2lhLW5vcnRoLWtvcmVhLXJvYWQtYnJpZGdlLXR1bWVuLXJpdmVyLTA3MDMyMDI0MTQ0NTU2Lmh0bWwvYW1wUkZB?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQ2h0dHBzOi8vd3d3Lm1hcmtldHBsYWNlLm9yZy8yMDI0LzA3LzA4L2tvcmVhbi1zdW5zY3JlZW4tcG9wdWxhcml0eS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>South Korea: actual number of inbound medical tourists 2023</t>
+          <t>Why North Korea matters for the 2024 US election</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024-07-03 13:13:03.066939</t>
+          <t>2024-07-08 15:27:46.187815</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3LnN0YXRpc3RhLmNvbS9zdGF0aXN0aWNzLzExMDEzNDUvc291dGgta29yZWEtYWN0dWFsLW51bWJlci1vZi1pbmJvdW5kLW1lZGljYWwtdG91cmlzdHMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVGh0dHBzOi8vd3d3LmJyb29raW5ncy5lZHUvYXJ0aWNsZXMvd2h5LW5vcnRoLWtvcmVhLW1hdHRlcnMtZm9yLXRoZS0yMDI0LXVzLWVsZWN0aW9uL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Is your research a trade secret? South Korean data-sharing case is a wake-up call</t>
+          <t>KRW/USD: Korean Won Liquidity Drops for Late Trades as Korea Debuts New Regime</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024-07-03 13:13:03.066939</t>
+          <t>2024-07-08 15:27:46.202827</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvZDQxNTg2LTAyNC0wMjE4Mi0y0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTA4L3dvbi1saXF1aWRpdHktZHJvcHMtZm9yLWxhdGUtdHJhZGVzLWFzLWtvcmVhLWRlYnV0cy1uZXctcmVnaW1l0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Russia-North Korea Treaty Marks a Return to Normalcy</t>
+          <t>CDMO Lotte breaks ground on $3.3B production plant in Korea, touts growth goals</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024-07-03 13:13:03.073906</t>
+          <t>2024-07-08 15:27:46.202827</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVWh0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvcnVzc2lhLW5vcnRoLWtvcmVhLXRyZWF0eS1tYXJrcy1hLXJldHVybi10by1ub3JtYWxjeS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3LmZpZXJjZXBoYXJtYS5jb20vcGhhcm1hL2NkbW8tbG90dGUtc2tldGNoZXMtb3V0LWRldGFpbHMtaXQtYnJlYWtzLWdyb3VuZC0zM2ItcHJvZHVjdGlvbi1wbGFudC1rb3JlYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Korea slaps Credit Suisse with largest ever short-sale penalty</t>
+          <t>South Koreans say Chinese word for food threatens their ‘cultural identity’</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024-07-03 13:13:03.083063</t>
+          <t>2024-07-08 15:27:46.202827</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vc2hvcnQtc2VsbGluZy9uZXdzVmlldy9rZWQyMDI0MDcwMzAwMTfSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMinAFodHRwczovL3d3dy5zY21wLmNvbS9uZXdzL3Blb3BsZS1jdWx0dXJlL3RyZW5kaW5nLWNoaW5hL2FydGljbGUvMzI2OTY3Ny9raW1jaGktZ2F0ZS1jaGluYS1zb3V0aC1rb3JlYS1jdWxpbmFyeS1yb3ctYnJlYWtzLW91dC1vdmVyLXdoYXQtY2FsbC1zcGljeS1zaWRlLWRpc2jSAZwBaHR0cHM6Ly9hbXAuc2NtcC5jb20vbmV3cy9wZW9wbGUtY3VsdHVyZS90cmVuZGluZy1jaGluYS9hcnRpY2xlLzMyNjk2Nzcva2ltY2hpLWdhdGUtY2hpbmEtc291dGgta29yZWEtY3VsaW5hcnktcm93LWJyZWFrcy1vdXQtb3Zlci13aGF0LWNhbGwtc3BpY3ktc2lkZS1kaXNo?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BTS member Jin to participate as South Korea torchbearer in Paris 2024 Olympic torch relay</t>
+          <t>Ye &amp; Ty Dolla $ign Are Bringing the ‘Vultures’ Listening Experience to Korea</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024-07-03 13:13:03.090249</t>
+          <t>2024-07-08 15:27:46.218515</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiW2h0dHBzOi8vd3d3LmNubi5jb20vMjAyNC8wNy8wMy9zcG9ydC9idHMtamluLXBhcmlzLW9seW1waWNzLXRvcmNoLXJlbGF5LXNwdC1pbnRsL2luZGV4Lmh0bWzSAVRodHRwczovL2FtcC5jbm4uY29tL2Nubi8yMDI0LzA3LzAzL3Nwb3J0L2J0cy1qaW4tcGFyaXMtb2x5bXBpY3MtdG9yY2gtcmVsYXktc3B0LWludGw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3LmJpbGxib2FyZC5jb20vbXVzaWMvcmItaGlwLWhvcC9rYW55ZS13ZXN0LXR5LWRvbGxhLXNpZ24tdnVsdHVyZXMtbGlzdGVuaW5nLWV2ZW50LWtvcmVhLTEyMzU3MjYyMzQv0gFyaHR0cHM6Ly93d3cuYmlsbGJvYXJkLmNvbS9tdXNpYy9yYi1oaXAtaG9wL2thbnllLXdlc3QtdHktZG9sbGEtc2lnbi12dWx0dXJlcy1saXN0ZW5pbmctZXZlbnQta29yZWEtMTIzNTcyNjIzNC9hbXAv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Can South Korea Be a Knight for the U.S. on the Chessboard of Latin America?</t>
+          <t>The Republic of Korea and UNICEF work together for the education and protection of Ukrainian children living in Romania</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024-07-03 13:13:03.090418</t>
+          <t>2024-07-08 15:27:46.219334</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiY2h0dHBzOi8vZ2xvYmFsYW1lcmljYW5zLm9yZy9jYW4tc291dGgta29yZWEtYmUtYS1rbmlnaHQtZm9yLXRoZS11LXMtb24tY2hlc3Nib2FyZC1vZi1sYXRpbi1hbWVyaWNhL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMigQFodHRwczovL3d3dy51bmljZWYub3JnL3JvbWFuaWEvcHJlc3MtcmVsZWFzZXMvcmVwdWJsaWMta29yZWEtYW5kLXVuaWNlZi13b3JrLXRvZ2V0aGVyLWVkdWNhdGlvbi1hbmQtcHJvdGVjdGlvbi11a3JhaW5pYW4tY2hpbGRyZW7SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>North Korea — Radio Free Asia</t>
+          <t>North Korea Neighbor Calls for Nuclear Weapons</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024-07-04 13:12:00.934446</t>
+          <t>2024-07-08 15:27:46.219334</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiJmh0dHBzOi8vd3d3LnJmYS5vcmcvZW5nbGlzaC9uZXdzL2tvcmVh0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTmh0dHBzOi8vd3d3Lm5ld3N3ZWVrLmNvbS9zb3V0aC1rb3JlYW4tcG9saXRpY2lhbi1jYWxscy1udWNsZWFyLXdlYXBvbnMtMTkyMjIwNNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>South Korea: plastic surgery foreign patients 2023</t>
+          <t>Russia-North Korea sign a new treaty</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-07-04 13:13:03.056852</t>
+          <t>2024-07-08 15:27:46.219334</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3LnN0YXRpc3RhLmNvbS9zdGF0aXN0aWNzLzgwNDI3My9zb3V0aC1rb3JlYS1mb3JlaWduLXBsYXN0aWMtc3VyZ2VyeS1wYXRpZW50LW51bWJlci_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiS2h0dHBzOi8vd3d3Lm9yZm9ubGluZS5vcmcvZXhwZXJ0LXNwZWFrL3J1c3NpYS1ub3J0aC1rb3JlYS1zaWduLWEtbmV3LXRyZWF0edIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Amid worsening healthcare in S.Korea, advocacy groups call on doctors to end strike</t>
+          <t>North Korea’s shifting satellite allegiance signals China’s waning influence</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024-07-04 13:13:03.058362</t>
+          <t>2024-07-08 15:27:46.219334</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3LmFhLmNvbS50ci9lbi9hc2lhLXBhY2lmaWMvYW1pZC13b3JzZW5pbmctaGVhbHRoY2FyZS1pbi1za29yZWEtYWR2b2NhY3ktZ3JvdXBzLWNhbGwtb24tZG9jdG9ycy10by1lbmQtc3RyaWtlLzMyNjYwNjTSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiigFodHRwczovL3d3dy5zY21wLmNvbS9uZXdzL2NoaW5hL21pbGl0YXJ5L2FydGljbGUvMzI2OTU4NS9ub3J0aC1rb3JlYXMtc2hpZnRpbmctc2F0ZWxsaXRlLWFsbGVnaWFuY2UtcnVzc2lhLXNpZ25hbHMtY2hpbmFzLXdhbmluZy1pbmZsdWVuY2XSAYoBaHR0cHM6Ly9hbXAuc2NtcC5jb20vbmV3cy9jaGluYS9taWxpdGFyeS9hcnRpY2xlLzMyNjk1ODUvbm9ydGgta29yZWFzLXNoaWZ0aW5nLXNhdGVsbGl0ZS1hbGxlZ2lhbmNlLXJ1c3NpYS1zaWduYWxzLWNoaW5hcy13YW5pbmctaW5mbHVlbmNl?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Debris flow hazards in urban environments in South Korea</t>
+          <t>Greg Abbott’s South Korea trade talks veer into Trump, security, visas</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024-07-04 13:13:03.066939</t>
+          <t>2024-07-08 15:27:46.219334</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiLmh0dHBzOi8vZW9zLm9yZy90aGVsYW5kc2xpZGVibG9nL3NvdXRoLWtvcmVhLTHSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMijQFodHRwczovL3d3dy5kYWxsYXNuZXdzLmNvbS9idXNpbmVzcy9lY29ub215LzIwMjQvMDcvMDgvZ292LWdyZWctYWJib3R0cy1zb3V0aC1rb3JlYS10cmFkZS1kaXNjdXNzaW9uLXZlZXJzLWludG8tdGFsay1vZi10cnVtcC1zZWN1cml0eS12aXNhcy_SAZwBaHR0cHM6Ly93d3cuZGFsbGFzbmV3cy5jb20vYnVzaW5lc3MvZWNvbm9teS8yMDI0LzA3LzA4L2dvdi1ncmVnLWFiYm90dHMtc291dGgta29yZWEtdHJhZGUtZGlzY3Vzc2lvbi12ZWVycy1pbnRvLXRhbGstb2YtdHJ1bXAtc2VjdXJpdHktdmlzYXMvP291dHB1dFR5cGU9YW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>North Korea recalls overseas students for ‘political indoctrination’</t>
+          <t>South Korea's Yoon again vetoes probe bill into marine's death</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024-07-04 13:13:03.071525</t>
+          <t>2024-07-08 15:27:46.235198</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3LnJmYS5vcmcvZW5nbGlzaC9uZXdzL2tvcmVhL3B5b25neWFuZy1zdHVkZW50LXJlY2FsbC0wNzA0MjAyNDAxMDgyOC5odG1s0gFaaHR0cHM6Ly93d3cucmZhLm9yZy9lbmdsaXNoL25ld3Mva29yZWEvcHlvbmd5YW5nLXN0dWRlbnQtcmVjYWxsLTA3MDQyMDI0MDEwODI4Lmh0bWwvYW1wUkZB?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9zb3V0aC1rb3JlYXMteW9vbi1hZ2Fpbi12ZXRvZXMtcHJvYmUtYmlsbC1pbnRvLW1hcmluZXMtZGVhdGgtMjAyNC0wNy0wOS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>South Korea Hunts for Fraudulent Crypto Trading as Rules Tighten</t>
+          <t>BTS member Jin expected to take part in Paris Olympics as a torchbearer from South Korea</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024-07-04 13:13:03.073906</t>
+          <t>2024-07-09 15:27:35.184889</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTA0L3NvdXRoLWtvcmVhLWh1bnRzLWZvci1mcmF1ZHVsZW50LWNyeXB0by10cmFkaW5nLWFzLXJ1bGVzLXRpZ2h0ZW7SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicGh0dHBzOi8vYWJjbmV3cy5nby5jb20vRW50ZXJ0YWlubWVudC93aXJlU3RvcnkvYnRzLW1lbWJlci1qaW4tZXhwZWN0ZWQtcGFydC1wYXJpcy1vbHltcGljcy10b3JjaGJlYXJlci0xMTE2Mjk1NTDSAXRodHRwczovL2FiY25ld3MuZ28uY29tL2FtcC9FbnRlcnRhaW5tZW50L3dpcmVTdG9yeS9idHMtbWVtYmVyLWppbi1leHBlY3RlZC1wYXJ0LXBhcmlzLW9seW1waWNzLXRvcmNoYmVhcmVyLTExMTYyOTU1MA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>South Korea: national debt in relation to GDP 1997-2027</t>
+          <t>Video: South Korea to warn NATO of Moscow-Pyongyang threat</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024-07-04 13:13:03.083063</t>
+          <t>2024-07-09 15:27:35.199419</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiSGh0dHBzOi8vd3d3LnN0YXRpc3RhLmNvbS9zdGF0aXN0aWNzLzYzMTU0My9zb3V0aC1rb3JlYS1uYXRpb25hbC1kZWJ0Z2RwL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYGh0dHBzOi8vd3d3LnRoZWdsb2JlYW5kbWFpbC5jb20vd29ybGQvdmlkZW8tc291dGgta29yZWEtdG8td2Fybi1uYXRvLW9mLW1vc2Nvdy1weW9uZ3lhbmctdGhyZWF0L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>South Korea - age distribution 2012-2022</t>
+          <t>SMR ship research institute opened in South Korea</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024-07-04 13:13:03.083063</t>
+          <t>2024-07-09 15:27:35.201557</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiS2h0dHBzOi8vd3d3LnN0YXRpc3RhLmNvbS9zdGF0aXN0aWNzLzI0MjU1OC9hZ2UtZGlzdHJpYnV0aW9uLWluLXNvdXRoLWtvcmVhL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3Lm5laW1hZ2F6aW5lLmNvbS9uZXdzL3Ntci1zaGlwLXJlc2VhcmNoLWluc3RpdHV0ZS1vcGVuZWQtaW4tc291dGgta29yZWEv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Exploring coexistence opportunities for offshore wind and fisheries in South Korea: Global overview and best practices ...</t>
+          <t>22nd Century to Re-Launch and Expand VLN(R) Presence in South Korea</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024-07-04 13:13:03.083063</t>
+          <t>2024-07-09 15:27:35.217320</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMizgFodHRwczovL3d3dy5jYXJib250cnVzdC5jb20vb3VyLXdvcmstYW5kLWltcGFjdC9ndWlkZXMtcmVwb3J0cy1hbmQtdG9vbHMvZXhwbG9yaW5nLWNvZXhpc3RlbmNlLW9wcG9ydHVuaXRpZXMtZm9yLW9mZnNob3JlLXdpbmQtYW5kLWZpc2hlcmllcy1pbi1zb3V0aC1rb3JlYS1nbG9iYWwtb3ZlcnZpZXctYW5kLWJlc3QtcHJhY3RpY2VzLWZvci1zb3V0aC1rb3JlYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTGh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vbmV3cy8yMm5kLWNlbnR1cnktbGF1bmNoLWV4cGFuZC12bG4tMTIzMDAwOTI2Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Russia, North Korea have put South Korea in a predicament</t>
+          <t>To counter China, NATO and its Asian partners are moving closer under US leadership</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024-07-04 13:13:03.090418</t>
+          <t>2024-07-09 15:27:35.218311</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiX2h0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcnVzc2lhLW5vcnRoLWtvcmVhLWhhdmUtcHV0LXNvdXRoLWtvcmVhLWluLWEtcHJlZGljYW1lbnQtMjAyNC030gFjaHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ydXNzaWEtbm9ydGgta29yZWEtaGF2ZS1wdXQtc291dGgta29yZWEtaW4tYS1wcmVkaWNhbWVudC0yMDI0LTc_YW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiaGh0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL25hdG8tamFwYW4tc291dGgta29yZWEtYXVzdHJhbGlhLW5ldy16ZWFsYW5kLTZjM2Q5YWE2ZmNjYzEyNTNjYTk5ZWUxNDAwNzNmOTVj0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Topic: Relations with the Republic of Korea</t>
+          <t>Na Joins South Korea’s Presidential Committee on Mental Health Policy Innovation</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-07-05 13:13:03.037092</t>
+          <t>2024-07-09 15:27:35.222331</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiM2h0dHBzOi8vd3d3Lm5hdG8uaW50L2Nwcy9lbi9uYXRvaHEvdG9waWNzXzUwMDk4Lmh0bdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihQFodHRwczovL21lZGljaW5lLnlhbGUuZWR1L2xhYi9nZWxlcm50ZXIvbmV3cy1hcnRpY2xlL25hLWpvaW5zLXNvdXRoLWtvcmVhcy1wcmVzaWRlbnRpYWwtY29tbWl0dGVlLW9uLW1lbnRhbC1oZWFsdGgtcG9saWN5LWlubm92YXRpb24v0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Man who stabbed South Korea opposition leader gets 15 years in jail</t>
+          <t>South Korea, Thailand launch first round of talks for trade deal</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024-07-05 13:13:03.047010</t>
+          <t>2024-07-09 15:27:35.223335</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LmFsamF6ZWVyYS5jb20vbmV3cy8yMDI0LzcvNS9tYW4td2hvLXN0YWJiZWQtc291dGgta29yZWEtb3Bwb3NpdGlvbi1sZWFkZXItZ2V0cy0xNS15ZWFycy1pbi1qYWls0gFvaHR0cHM6Ly93d3cuYWxqYXplZXJhLmNvbS9hbXAvbmV3cy8yMDI0LzcvNS9tYW4td2hvLXN0YWJiZWQtc291dGgta29yZWEtb3Bwb3NpdGlvbi1sZWFkZXItZ2V0cy0xNS15ZWFycy1pbi1qYWls?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiOGh0dHBzOi8vd3d3Lm5hdGlvbnRoYWlsYW5kLmNvbS9ibG9ncy9uZXdzL3dvcmxkLzQwMDM5NTQx0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In a first, robot dies of suicide in South Korea. What really happened?</t>
+          <t>South Korea sends athletes for joint training at North Korean ski resort</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-07-05 13:13:03.057357</t>
+          <t>2024-07-09 15:27:35.224779</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicmh0dHBzOi8vd3d3LmZpcnN0cG9zdC5jb20vZXhwbGFpbmVycy9maXJzdC1yb2JvdC1kaWVzLW9mLXN1aWNpZGUtaW4tc291dGgta29yZWEtd2hhdC1yZWFsbHktaGFwcGVuZWQtMTM3ODk2MjUuaHRtbNIBdmh0dHBzOi8vd3d3LmZpcnN0cG9zdC5jb20vZXhwbGFpbmVycy9maXJzdC1yb2JvdC1kaWVzLW9mLXN1aWNpZGUtaW4tc291dGgta29yZWEtd2hhdC1yZWFsbHktaGFwcGVuZWQtMTM3ODk2MjUuaHRtbC9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vY2Euc3R5bGUueWFob28uY29tL3N0eWxlL3NvdXRoLWtvcmVhLXNheXMtYmVnaW4tam9pbnQtdHJhaW5pbmctbm9ydGgta29yZWFuLTAwMDk0MDA2MC0tb2x5Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ryan Reynolds and Hugh Jackman Get Soaked Onstage in South Korea</t>
+          <t>High-profile sex offender Jung Joon-young spotted in France</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-07-05 13:13:03.058362</t>
+          <t>2024-07-09 15:27:35.224779</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVGh0dHBzOi8vcGVvcGxlLmNvbS9yeWFuLXJleW5vbGRzLWh1Z2gtamFja21hbi13YXRlcmJvbWItZmVzdGl2YWwtc291dGgta29yZWEtODY3NDE0MdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgzMjAuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODMyMA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>US refutes Russia's denial of violating North Korea sanctions</t>
+          <t>Seoul Warns of Threat From Russia and North Korea</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024-07-05 13:13:03.058362</t>
+          <t>2024-07-09 15:27:35.224779</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2EvdXMtcmVmdXRlcy1ydXNzaWEtcy1kZW5pYWwtb2YtdmlvbGF0aW5nLW5vcnRoLWtvcmVhLXNhbmN0aW9ucy0vNzY4NzAxNC5odG1s0gFnaHR0cHM6Ly93d3cudm9hbmV3cy5jb20vYW1wL3VzLXJlZnV0ZXMtcnVzc2lhLXMtZGVuaWFsLW9mLXZpb2xhdGluZy1ub3J0aC1rb3JlYS1zYW5jdGlvbnMtLzc2ODcwMTQuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiRmh0dHBzOi8vd3d3Lm5ld3N3ZWVrLmNvbS9zZW91bC13YXJucy10aHJlYXQtcnVzc2lhLW5vcnRoLWtvcmVhLTE5MjI4NDnSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Japan rally from 20-point deficit but fall to Korea</t>
+          <t>Becoming in Korea</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024-07-05 13:13:03.066939</t>
+          <t>2024-07-09 15:27:35.232763</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMijAFodHRwczovL3d3dy5maWJhLmJhc2tldGJhbGwvZW4vZXZlbnRzL21lbnMtb2x5bXBpYy1iYXNrZXRiYWxsLXRvdXJuYW1lbnQtcGFyaXMtMjAyNC9uZXdzL2phcGFuLXJhbGx5LWZyb20tMjAtcG9pbnQtZGVmaWNpdC1idXQtZmFsbC10by1rb3JlYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiNWh0dHBzOi8vb3Bpbmlvbi5pbnF1aXJlci5uZXQvMTc1MDU4L2JlY29taW5nLWluLWtvcmVh0gE5aHR0cHM6Ly9vcGluaW9uLmlucXVpcmVyLm5ldC8xNzUwNTgvYmVjb21pbmctaW4ta29yZWEvYW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Did A Robot Really Die By 'Suicide' In South Korea? Experts Probe</t>
+          <t>North Korean Soldiers Head to Russia for Training</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-07-05 13:13:03.076978</t>
+          <t>2024-07-09 15:27:35.233772</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiY2h0dHBzOi8vd3d3Lm5kdHYuY29tL3dvcmxkLW5ld3Mvcm9ib3RzLWJhZmZsaW5nLXN1aWNpZGUtaW4tc291dGgta29yZWEtc3BhcmtzLWludmVzdGlnYXRpb24tNjA0MTA4OdIBaWh0dHBzOi8vd3d3Lm5kdHYuY29tL3dvcmxkLW5ld3Mvcm9ib3RzLWJhZmZsaW5nLXN1aWNpZGUtaW4tc291dGgta29yZWEtc3BhcmtzLWludmVzdGlnYXRpb24tNjA0MTA4OS9hbXAvMQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiS2h0dHBzOi8vd3d3Lm5ld3N3ZWVrLmNvbS9ub3J0aC1rb3JlYW4tc29sZGllcnMtaGVhZC1ydXNzaWEtdHJhaW5pbmctMTkyMjg2ONIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>South Korea sees its first 'robot suicide': Here's what caused it</t>
+          <t>South Korea plagued by high rates of teacher suicide driven by pressure and a lack of support</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024-07-05 13:13:03.083063</t>
+          <t>2024-07-09 15:27:35.234771</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMijwFodHRwczovL3RpbWVzb2ZpbmRpYS5pbmRpYXRpbWVzLmNvbS90ZWNobm9sb2d5L3RlY2gtbmV3cy9zb3V0aC1rb3JlYS1zZWVzLWl0cy1maXJzdC1yb2JvdC1zdWNpZGUtaGVyZXMtd2hhdC1jYXVzZWQtaXQvYXJ0aWNsZXNob3cvMTExNTE3MzkxLmNtc9IBkwFodHRwczovL3RpbWVzb2ZpbmRpYS5pbmRpYXRpbWVzLmNvbS90ZWNobm9sb2d5L3RlY2gtbmV3cy9zb3V0aC1rb3JlYS1zZWVzLWl0cy1maXJzdC1yb2JvdC1zdWNpZGUtaGVyZXMtd2hhdC1jYXVzZWQtaXQvYW1wX2FydGljbGVzaG93LzExMTUxNzM5MS5jbXM?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3LmFiYy5uZXQuYXUvbmV3cy8yMDI0LTA3LTEwL3NvdXRoLWtvcmVhLXNlb3VsLXRlYWNoZXItc3VpY2lkZS1zY2hvb2wtcHJlc3N1cmUvMTA0MDQ3Mzg20gEoaHR0cHM6Ly9hbXAuYWJjLm5ldC5hdS9hcnRpY2xlLzEwNDA0NzM4Ng?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Governor Abbott to lead economic development mission to Taiwan, South Korea, Japan</t>
+          <t>Evalend pens orders for MR1 tankers in South Korea</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-07-05 13:13:03.088234</t>
+          <t>2024-07-09 15:27:35.235772</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVmh0dHBzOi8vd3d3Lm5iY2Rmdy5jb20vbmV3cy9sb2NhbC90ZXhhcy1uZXdzL2dvdi1hYmJvdHQtbGVhZC1lY29ub21pYy1taXNzaW9uLzM1ODQ4NDAv0gFcaHR0cHM6Ly93d3cubmJjZGZ3LmNvbS9uZXdzL2xvY2FsL3RleGFzLW5ld3MvZ292LWFiYm90dC1sZWFkLWVjb25vbWljLW1pc3Npb24vMzU4NDg0MC8_YW1wPTE?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiSWh0dHBzOi8vc3BsYXNoMjQ3LmNvbS9ldmFsZW5kLXBlbnMtb3JkZXJzLWZvci1tcjEtdGFua2Vycy1pbi1zb3V0aC1rb3JlYS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Robot suicide? Troubled android throws itself down the stairs in South Korea; here's what happened</t>
+          <t>What South Korea Can Accomplish at NATO To Help End the War in Ukraine</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-07-05 13:13:03.090418</t>
+          <t>2024-07-09 15:27:46.171449</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMimwFodHRwczovL3d3dy5idXNpbmVzc3RvZGF5LmluL3RlY2hub2xvZ3kvbmV3cy9zdG9yeS9yb2JvdC1zdWljaWRlLWFuZHJvaWQtdGhyb3dzLWl0c2VsZi1kb3duLXRoZS1zdGFpcnMtaW4tc291dGgta29yZWEtaGVyZXMtd2hhdC1oYXBwZW5lZC00MzYwNjctMjAyNC0wNy0wNdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvd2hhdC1zb3V0aC1rb3JlYS1jYW4tYWNjb21wbGlzaC1hdC1uYXRvLXRvLWhlbHAtZW5kLXRoZS13YXItaW4tdWtyYWluZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>South Korea: Kimchi blamed for mass norovirus sickness</t>
+          <t>Driver whose car struck pedestrians in South Korea will face accidental homicide investigation</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024-07-06 13:13:03.038280</t>
+          <t>2024-07-09 15:27:46.171449</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiLmh0dHBzOi8vd3d3LmJiYy5jb20vbmV3cy9hcnRpY2xlcy9jZTU4bTIybGpycm_SATJodHRwczovL3d3dy5iYmMuY29tL25ld3MvYXJ0aWNsZXMvY2U1OG0yMmxqcnJvLmFtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vYWJjbmV3cy5nby5jb20vSW50ZXJuYXRpb25hbC93aXJlU3RvcnkvZHJpdmVyLWludm9sdmVkLWJpZy1kZWFkbHktY2FyLWFjY2lkZW50LXNlb3VsLWZhY2UtMTExNjAwOTEw0gFvaHR0cHM6Ly9hYmNuZXdzLmdvLmNvbS9hbXAvSW50ZXJuYXRpb25hbC93aXJlU3RvcnkvZHJpdmVyLWludm9sdmVkLWJpZy1kZWFkbHktY2FyLWFjY2lkZW50LXNlb3VsLWZhY2UtMTExNjAwOTEw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>With South Korean Rockets, Ukraine Could Wipe Out Russian Warplanes At Their Bases</t>
+          <t>Suspected North Korean hypersonic missile exploded in flight, South Korea says</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-07-06 13:13:03.052087</t>
+          <t>2024-07-09 15:27:46.171449</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiggFodHRwczovL3d3dy5mb3JiZXMuY29tL3NpdGVzL2RhdmlkYXhlLzIwMjQvMDcvMDYvd2l0aC1zb3V0aC1rb3JlYS1yb2NrZXRzLXVrcmFpbmUtY291bGQtd2lwZS1vdXQtcnVzc2lhbi13YXJwbGFuZXMtYXQtdGhlaXItYmFzZXMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibGh0dHBzOi8vYWJjbmV3cy5nby5jb20vSW50ZXJuYXRpb25hbC93aXJlU3Rvcnkvbm9ydGgta29yZWEtZmlyZXMtYmFsbGlzdGljLW1pc3NpbGUtc2VhLXNvdXRoLWtvcmVhLTExMTQyMTAxMtIBcGh0dHBzOi8vYWJjbmV3cy5nby5jb20vYW1wL0ludGVybmF0aW9uYWwvd2lyZVN0b3J5L25vcnRoLWtvcmVhLWZpcmVzLWJhbGxpc3RpYy1taXNzaWxlLXNlYS1zb3V0aC1rb3JlYS0xMTE0MjEwMTI?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Battery maker SK On declares 'emergency' as EV sales disappoint</t>
+          <t>No rift over cost of U.S. troops in South Korea if Trump elected, says former Trump adviser</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-07-06 13:13:03.072534</t>
+          <t>2024-07-09 15:27:46.187815</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmZ0LmNvbS9jb250ZW50LzVhZmZlZGU2LTFmMWQtNDU4ZS1iNGQwLWUyZTdlOTAyZGNjYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMidGh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL25vLXJpZnQtb3Zlci1jb3N0LXVzLXRyb29wcy1zb3V0aC1rb3JlYS1pZi10cnVtcC1lbGVjdGVkLXNheXMtZm9ybWVyLXRydW1wLTIwMjQtMDctMDkv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Stoltenberg: NATO summit will discuss cooperation between Ukraine, South Korea</t>
+          <t>OECD Employment Outlook 2024 - Country Notes: Korea</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-07-06 13:13:03.090418</t>
+          <t>2024-07-09 15:27:46.187815</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZmh0dHBzOi8va3lpdmluZGVwZW5kZW50LmNvbS9uYXRvLXN1bW1pdC13aWxsLWRpc2N1c3Mtc291dGgta29yZWEtdWtyYWluZS1jb29wZXJhdGlvbi1zdG9sdGVuYmVyZy1zYXlzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicmh0dHBzOi8vd3d3Lm9lY2Qub3JnL2VuL3B1YmxpY2F0aW9ucy9vZWNkLWVtcGxveW1lbnQtb3V0bG9vay0yMDI0LWNvdW50cnktbm90ZXNfZDZjODQ0NzUtZW4va29yZWFfNjM2ZTRjN2EtZW4uaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>NATO to discuss Russia-North Korea military cooperation</t>
+          <t>Exclusive: South Korea's Yoon to discuss Pyongyang's 'distinct threat' to Europe at NATO</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-07-07 13:18:12.453339</t>
+          <t>2024-07-09 15:27:46.187815</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2EvbmF0by10by1kaXNjdXNzLXJ1c3NpYS1ub3J0aC1rb3JlYS1taWxpdGFyeS1jb29wZXJhdGlvbi83Njg1NjE2Lmh0bWzSAWBodHRwczovL3d3dy52b2FuZXdzLmNvbS9hbXAvbmF0by10by1kaXNjdXNzLXJ1c3NpYS1ub3J0aC1rb3JlYS1taWxpdGFyeS1jb29wZXJhdGlvbi83Njg1NjE2Lmh0bWw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMid2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9zb3V0aC1rb3JlYXMteW9vbi1kaXNjdXNzLXB5b25neWFuZ3MtZGlzdGluY3QtdGhyZWF0LWV1cm9wZS1uYXRvLTIwMjQtMDctMDgv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>I moved to a US military base in South Korea with a month's notice. I love it so much I'm dreading going back to America.</t>
+          <t>South Korea abandons plan to suspend licenses of striking doctors to resolve medical impasse</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-07-07 13:18:12.479339</t>
+          <t>2024-07-09 15:27:46.187815</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiR2h0dHBzOi8vY2Euc3R5bGUueWFob28uY29tL21vdmVkLXVzLW1pbGl0YXJ5LXNvdXRoLWtvcmVhLTE3MTAwMjk0Mi5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibWh0dHBzOi8vYWJjbmV3cy5nby5jb20vSGVhbHRoL3dpcmVTdG9yeS9zb3V0aC1rb3JlYS13aXRoZHJhdy1wbGFuLXN1c3BlbmQtbGljZW5zZXMtc3RyaWtpbmctZG9jdG9ycy0xMTE3MzY4MjHSAXFodHRwczovL2FiY25ld3MuZ28uY29tL2FtcC9IZWFsdGgvd2lyZVN0b3J5L3NvdXRoLWtvcmVhLXdpdGhkcmF3LXBsYW4tc3VzcGVuZC1saWNlbnNlcy1zdHJpa2luZy1kb2N0b3JzLTExMTczNjgyMQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>If North Korea troops sent to aid Russia in Ukraine, not due to skills: experts</t>
+          <t>When I Visited South Korea Last Year, My Blended Identity Complicated Everything</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024-07-07 13:18:12.483081</t>
+          <t>2024-07-09 15:27:46.187815</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiamh0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vbm9ydGgta29yZWEtdHJvb3BzLXJ1c3NpYS11a3JhaW5lLW51bWJlcnMtbm90LWVmZmVjdGl2ZW5lc3MtZXhwZXJ0cy0yMDI0LTbSAW5odHRwczovL3d3dy5idXNpbmVzc2luc2lkZXIuY29tL25vcnRoLWtvcmVhLXRyb29wcy1ydXNzaWEtdWtyYWluZS1udW1iZXJzLW5vdC1lZmZlY3RpdmVuZXNzLWV4cGVydHMtMjAyNC02P2FtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3Lmh1ZmZwb3N0LmNvbS9lbnRyeS92aXNpdC1zb3V0aC1rb3JlYS1hcy1rb3JlYW4tYW1lcmljYW5fbl82NjhjMzA2YWU0YjA5MDAzMjg5YjQ2MmbSAWJodHRwczovL3d3dy5odWZmcG9zdC5jb20vZW50cnkvdmlzaXQtc291dGgta29yZWEtYXMta29yZWFuLWFtZXJpY2FuX25fNjY4YzMwNmFlNGIwOTAwMzI4OWI0NjJmL2FtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Carmaker's video showing controversial hand sign sparks outrage in S. Korea</t>
+          <t>Gender is reshaping South Korea’s electoral landscape</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024-07-07 13:18:12.512788</t>
+          <t>2024-07-09 15:27:46.202827</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMid2h0dHBzOi8vd3d3LnN0cmFpdHN0aW1lcy5jb20vYXNpYS9lYXN0LWFzaWEvY2FyLW1ha2VyLXMtdmlkZW8tc2hvd2luZy1jb250cm92ZXJzaWFsLWhhbmQtc2lnbi1zcGFya3Mtb3V0cmFnZS1pbi1zLWtvcmVh0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWmh0dHBzOi8vZWFzdGFzaWFmb3J1bS5vcmcvMjAyNC8wNy8wOS9nZW5kZXItaXMtcmVzaGFwaW5nLXNvdXRoLWtvcmVhcy1lbGVjdG9yYWwtbGFuZHNjYXBlL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>This catchy North Korean propaganda song is going viral on TikTok</t>
+          <t>Historic Parallel: Why Russia Is Likely to Abandon Its Korean Equidistance Strategy</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-07-07 17:18:12.483081</t>
+          <t>2024-07-09 15:27:46.202827</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiUWh0dHBzOi8vd3d3Lm5ld3NuYXRpb25ub3cuY29tL2J1c2luZXNzL3RlY2gvbm9ydGgta29yZWFuLXByb3BhZ2FuZGEtc29uZy10aWstdG9rL9IBVWh0dHBzOi8vd3d3Lm5ld3NuYXRpb25ub3cuY29tL2J1c2luZXNzL3RlY2gvbm9ydGgta29yZWFuLXByb3BhZ2FuZGEtc29uZy10aWstdG9rL2FtcC8?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LjM4bm9ydGgub3JnLzIwMjQvMDcvaGlzdG9yaWMtcGFyYWxsZWwtd2h5LXJ1c3NpYS1pcy1saWtlbHktdG8tYWJhbmRvbi1pdHMta29yZWFuLWVxdWlkaXN0YW5jZS1zdHJhdGVneS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>North Korea's Kim Yo Jong Calls South Korean Drills a Provocation</t>
+          <t>South Korea sees its first 'robot suicide': Here's what caused it</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024-07-07 17:18:12.483081</t>
+          <t>2024-07-09 15:27:46.219334</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMigwFodHRwczovL2VuZ2xpc2guYWF3c2F0LmNvbS93b3JsZC81MDM4MDE1LW5vcnRoLWtvcmVhcy1raW0teW8tam9uZy1jYWxscy1zb3V0aC1rb3JlYW4tZHJpbGxzLXByb3ZvY2F0aW9uP193cmFwcGVyX2Zvcm1hdD1odG1sJnBhZ2U9NNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMijwFodHRwczovL3RpbWVzb2ZpbmRpYS5pbmRpYXRpbWVzLmNvbS90ZWNobm9sb2d5L3RlY2gtbmV3cy9zb3V0aC1rb3JlYS1zZWVzLWl0cy1maXJzdC1yb2JvdC1zdWNpZGUtaGVyZXMtd2hhdC1jYXVzZWQtaXQvYXJ0aWNsZXNob3cvMTExNTE3MzkxLmNtc9IBkwFodHRwczovL3RpbWVzb2ZpbmRpYS5pbmRpYXRpbWVzLmNvbS90ZWNobm9sb2d5L3RlY2gtbmV3cy9zb3V0aC1rb3JlYS1zZWVzLWl0cy1maXJzdC1yb2JvdC1zdWNpZGUtaGVyZXMtd2hhdC1jYXVzZWQtaXQvYW1wX2FydGljbGVzaG93LzExMTUxNzM5MS5jbXM?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>North Korea's Kim Yo Jong accuses South's leader of using tensions as political distraction</t>
+          <t>The Russia-North Korea Military Alliance: Reducing Its Negative Fallout</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024-07-07 18:12:50.756423</t>
+          <t>2024-07-09 15:27:46.219334</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2Evbm9ydGgta29yZWEta2ltLXlvLWpvbmctY2FsbHMtc291dGgta29yZWFuLWRyaWxscy1wcm92b2NhdGlvbi1rY25hLXNheXMvNzY4ODU1NS5odG1s0gFwaHR0cHM6Ly93d3cudm9hbmV3cy5jb20vYW1wL25vcnRoLWtvcmVhLWtpbS15by1qb25nLWNhbGxzLXNvdXRoLWtvcmVhbi1kcmlsbHMtcHJvdm9jYXRpb24ta2NuYS1zYXlzLzc2ODg1NTUuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvdGhlLXJ1c3NpYS1ub3J0aC1rb3JlYS1taWxpdGFyeS1hbGxpYW5jZS1yZWR1Y2luZy1pdHMtbmVnYXRpdmUtZmFsbG91dC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Korea Box Office: ‘Inside Out 2’ Reaches $48 Million After Strong Fourth Weekend</t>
+          <t>Korea’s Byeong Hun An ready to put pedal to metal at Genesis Scottish Open</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024-07-07 18:18:12.453339</t>
+          <t>2024-07-09 15:27:46.219334</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYmh0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC9maWxtL25ld3Mva29yZWEtYm94LW9mZmljZS13ZWVrbmQtaW5zaWRlLW91dC0yLWZvdXJ0aC13ZWVrZW5kLTEyMzYwNjIwNTkv0gFmaHR0cHM6Ly92YXJpZXR5LmNvbS8yMDI0L2ZpbG0vbmV3cy9rb3JlYS1ib3gtb2ZmaWNlLXdlZWtuZC1pbnNpZGUtb3V0LTItZm91cnRoLXdlZWtlbmQtMTIzNjA2MjA1OS9hbXAv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMijwFodHRwczovL3d3dy5wZ2F0b3VyLmNvbS9hcnRpY2xlL25ld3MvbGF0ZXN0LzIwMjQvMDcvMDkva29yZWEtcy1ieWVvbmctaHVuLWFuLXJlYWR5LXRvLXB1dC1wZWRhbC10by10aGUtbWV0YWwtYXQtZ2VuZXNpcy1zY290dGlzaC1vcGVuP3dlYnZpZXc9MdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>‘Selfish’? South Korean YouTuber promotes single, childless life</t>
+          <t>North Korea stokes rift with Seoul, emboldened by Russian support</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024-07-07 18:18:12.473274</t>
+          <t>2024-07-09 15:27:46.234345</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMimQFodHRwczovL3d3dy5zY21wLmNvbS9saWZlc3R5bGUvZmFtaWx5LXJlbGF0aW9uc2hpcHMvYXJ0aWNsZS8zMjY5MTM1L3NlbGZpc2gtc291dGgta29yZWFuLXdvbWFuLXdoby1wcm9tb3Rlcy11bm1hcnJpZWQtY2hpbGRsZXNzLWxpZmUtYmVjb21lcy15b3V0dWJlLXN0YXLSAZkBaHR0cHM6Ly9hbXAuc2NtcC5jb20vbGlmZXN0eWxlL2ZhbWlseS1yZWxhdGlvbnNoaXBzL2FydGljbGUvMzI2OTEzNS9zZWxmaXNoLXNvdXRoLWtvcmVhbi13b21hbi13aG8tcHJvbW90ZXMtdW5tYXJyaWVkLWNoaWxkbGVzcy1saWZlLWJlY29tZXMteW91dHViZS1zdGFy?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMid2h0dHBzOi8vYXNpYS5uaWtrZWkuY29tL1Nwb3RsaWdodC9Ob3J0aC1Lb3JlYS10ZW5zaW9ucy9Ob3J0aC1Lb3JlYS1zdG9rZXMtcmlmdC13aXRoLVNlb3VsLWVtYm9sZGVuZWQtYnktUnVzc2lhbi1zdXBwb3J00gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Korea's Jeju Air open to M&amp;A opportunities - CEO</t>
+          <t>North Korea, Russia Strengthen Military Ties</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024-07-07 18:18:12.495260</t>
+          <t>2024-07-09 16:27:35.216239</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVGh0dHBzOi8vd3d3LmNoLWF2aWF0aW9uLmNvbS9uZXdzLzE0MjI2Mi1rb3JlYXMtamVqdS1haXItb3Blbi10by1tYS1vcHBvcnR1bml0aWVzLWNlb9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWGh0dHBzOi8vd3d3LmFybXNjb250cm9sLm9yZy9hY3QvMjAyNC0wNy9uZXdzL25vcnRoLWtvcmVhLXJ1c3NpYS1zdHJlbmd0aGVuLW1pbGl0YXJ5LXRpZXPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NK leader's sister slams S. Korea's resumption of live-fire drills as 'suicidal hysteria'</t>
+          <t>South Korea politician blames women for rising male suicides</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024-07-07 18:18:12.495260</t>
+          <t>2024-07-09 16:27:35.224779</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzEwM18zNzgxNzYuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODE3Ng?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTGh0dHBzOi8vY2EubmV3cy55YWhvby5jb20vc291dGgta29yZWEtcG9saXRpY2lhbi1ibGFtZXMtd29tZW4tMjExMjI4MjI1Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Tesla regains top spot as Koreans' favorite foreign stock</t>
+          <t>VietJet expands routes to China, South Korea</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024-07-07 18:18:12.523012</t>
+          <t>2024-07-09 18:27:35.233772</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiPGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L2Jpei8yMDI0LzA3LzYwMl8zNzgxNTkuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODE1OQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiRmh0dHBzOi8vYXNpYW5hdmlhdGlvbi5jb20vdmlldGpldC1leHBhbmRzLXJvdXRlcy10by1jaGluYS1zb3V0aC1rb3JlYS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>South Korea appoints Hong Myung-bo as national soccer team's head coach for second time</t>
+          <t>Ex-Morgan Stanley Banker’s Fund Raises $3.4 Billion, Beating Asia Rivals</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024-07-07 19:18:12.453339</t>
+          <t>2024-07-09 19:27:35.200722</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMigwFodHRwczovL3d3dy50aW1lc2NvbG9uaXN0LmNvbS9zb2NjZXIvc291dGgta29yZWEtYXBwb2ludHMtaG9uZy1teXVuZy1iby1hcy1uYXRpb25hbC1zb2NjZXItdGVhbXMtaGVhZC1jb2FjaC1mb3Itc2Vjb25kLXRpbWUtOTE4Njk3NtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihwFodHRwczovL3d3dy5ibG9vbWJlcmcuY29tL25ld3MvYXJ0aWNsZXMvMjAyNC0wNy0xMC9rb3JlYS1zLXRvcC1wZS1maXJtLXJhaXNlcy0zLTQtYmlsbGlvbi1iZWF0aW5nLWFzaWEtcml2YWxzP3NybmQ9aG9tZXBhZ2UtbWlkZGxlLWVhc3TSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>South Korea: Yoon leaves for Washington ahead of the NATO summit</t>
+          <t>Putin Is Meeting a Lot of World Leaders for a Global ‘Outcast’</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024-07-07 19:18:12.495260</t>
+          <t>2024-07-09 19:27:35.201557</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZGh0dHBzOi8vd3d3LmFnZW56aWFub3ZhLmNvbS9lbi9uZXdzL1NvdXRoLUtvcmVhLVlvb24tbGVhdmVzLWZvci1XYXNoaW5ndG9uLWFoZWFkLW9mLXRoZS1OQVRPLXN1bW1pdC_SAWhodHRwczovL3d3dy5hZ2Vuemlhbm92YS5jb20vZW4vbmV3cy9Tb3V0aC1Lb3JlYS1Zb29uLWxlYXZlcy1mb3ItV2FzaGluZ3Rvbi1haGVhZC1vZi10aGUtTkFUTy1zdW1taXQvYW1wLw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTEwL3B1dGluLWlzLW1lZXRpbmctYS1sb3Qtb2Ytd29ybGQtbGVhZGVycy1mb3ItYS1nbG9iYWwtb3V0Y2FzdNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Asia markets mostly slip as Japan real wages fall for 26th straight month; China stocks drop for fifth day</t>
+          <t>Flying aboard the Ghostrider, a deadly aircraft carrying America’s biggest gun in the sky</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024-07-07 19:18:12.502998</t>
+          <t>2024-07-09 19:27:35.201557</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiMWh0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjQvMDcvMDgvYXNpYS1tYXJrZXRzLmh0bWzSATVodHRwczovL3d3dy5jbmJjLmNvbS9hbXAvMjAyNC8wNy8wOC9hc2lhLW1hcmtldHMuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiX2h0dHBzOi8vYW1wLmNubi5jb20vY25uLzIwMjQvMDcvMDkvYXNpYS9rb3JlYS1hYzEzMGotZ2hvc3RyaWRlci1ndW5zaGlwLWJpZ2dlc3QtZ3VuLWludGwtaG5rLW1s0gFfaHR0cHM6Ly9hbXAuY25uLmNvbS9jbm4vMjAyNC8wNy8wOS9hc2lhL2tvcmVhLWFjMTMwai1naG9zdHJpZGVyLWd1bnNoaXAtYmlnZ2VzdC1ndW4taW50bC1obmstbWw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sister of North Korean leader Kim calls South Korea's live-fire drills 'suicidal hysteria' – KION546</t>
+          <t>North Korea-Russia arms trade a global threat, says South Korea President Yoon</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024-07-07 19:18:12.523012</t>
+          <t>2024-07-09 19:27:46.202827</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMifGh0dHBzOi8va2lvbjU0Ni5jb20vbmV3cy8yMDI0LzA3LzA3L3Npc3Rlci1vZi1ub3J0aC1rb3JlYW4tbGVhZGVyLWtpbS1jYWxscy1zb3V0aC1rb3JlYXMtbGl2ZS1maXJlLWRyaWxscy1zdWljaWRhbC1oeXN0ZXJpYS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMidWh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL25vcnRoLWtvcmVhLXJ1c3NpYS1hcm1zLXRyYWRlLWdsb2JhbC10aHJlYXQtc2F5cy1zb3V0aC1rb3JlYS1wcmVzaWRlbnQteW9vbi0yMDI0LTA3LTA5L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Hong returns for second spell as South Korea head coach</t>
+          <t>South Korea Samsung Union Declares 'Indefinite General Strike'</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024-07-07 20:18:12.453339</t>
+          <t>2024-07-09 20:27:35.201557</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3Nwb3J0cy9zb2NjZXIvaG9uZy1yZXR1cm5zLXNlY29uZC1zcGVsbC1zb3V0aC1rb3JlYS1oZWFkLWNvYWNoLTIwMjQtMDctMDgv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL25ld3Mvc291dGgta29yZWEtc2Ftc3VuZy11bmlvbi1kZWNsYXJlcy1pbmRlZmluaXRlLWdlbmVyYWwtc3RyaWtlLTQxNGM3ZTk20gFmaHR0cHM6Ly93d3cuYmFycm9ucy5jb20vYW1wL25ld3Mvc291dGgta29yZWEtc2Ftc3VuZy11bmlvbi1kZWNsYXJlcy1pbmRlZmluaXRlLWdlbmVyYWwtc3RyaWtlLTQxNGM3ZTk2?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>South Korea Samsung Workers Start Strike: Union Chief</t>
+          <t>Korea’s CJ ENM Pumps $82 Million Into Alliance With KT’s Studio Genie</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024-07-07 20:18:12.473274</t>
+          <t>2024-07-09 20:27:35.201557</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL25ld3Mvc291dGgta29yZWEtc2Ftc3VuZy13b3JrZXJzLXN0YXJ0LXN0cmlrZS11bmlvbi1jaGllZi0wNGE5NjY3Yj9yZWZzZWM9dG9waWNzX2FmcC1uZXdz0gFeaHR0cHM6Ly93d3cuYmFycm9ucy5jb20vYW1wL25ld3Mvc291dGgta29yZWEtc2Ftc3VuZy13b3JrZXJzLXN0YXJ0LXN0cmlrZS11bmlvbi1jaGllZi0wNGE5NjY3Yg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiwwJodHRwczovL2NhLm1vdmllcy55YWhvby5jb20vbmV3cy9rb3JlYS1jai1lbm0tcHVtcHMtODItMTAzMzA3OTQ5Lmh0bWw_Z3VjY291bnRlcj0xJmd1Y2VfcmVmZXJyZXI9YUhSMGNITTZMeTkzZDNjdVoyOXZaMnhsTG1OdmJTOCZndWNlX3JlZmVycmVyX3NpZz1BUUFBQUl5MEl4NGxDVi13YTh2WjN5WThOODNwUURoQWVPWWNZdGlEZ0lJaHp0STE0WWxzVmF1QmVJU0IxYlh0MUw5bmFVczhYYW9tSExZTTFDUmtFZkwtc285U2NxSkdHN1dYaG9LbjJwdElOVnJ4Vld0LXpKd3Q4eTFOZG1uYnU5eVZSeUpuQXdoMlN2SG93Q0ZMZDVDdVVna2VhcVE2eFZLVzVyb1FJU2NTaDEwT9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Samsung Electronics workers strike as union's voice grows in South Korea</t>
+          <t>N. Korea slams Japan's additional release of treated radioactive water from Fukushima power plant</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024-07-07 20:18:12.502998</t>
+          <t>2024-07-09 20:27:35.224779</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LnN0cmFpdHN0aW1lcy5jb20vYXNpYS9lYXN0LWFzaWEvc2Ftc3VuZy13b3JrZXJzLXVuaW9uLWluLXNvdXRoLWtvcmVhLWtpY2tzLW9mZi10aHJlZS1kYXktc3RyaWtl0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzEwM18zNzgzNTIuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM1Mg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>9 out of 10 top 500 firms plan to maintain, increase investments in H2: poll</t>
+          <t>South Korea's Hanwha Aerospace wins $1 bln order from Romania for self-propelled howitzers</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024-07-07 20:18:12.502998</t>
+          <t>2024-07-09 20:27:46.187815</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiOGh0dHBzOi8va29yZWF0aW1lcy5jby5rci93d3cvYml6LzIwMjQvMDcvMTc1XzM3ODE3OS5odG1s0gE_aHR0cHM6Ly9tLmtvcmVhdGltZXMuY28ua3IvcGFnZXMvYXJ0aWNsZS5hbXAuYXNwP25ld3NJZHg9Mzc4MTc5?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiggFodHRwczovL3d3dy5yZXV0ZXJzLmNvbS9idXNpbmVzcy9hZXJvc3BhY2UtZGVmZW5zZS9zb3V0aC1rb3JlYXMtaGFud2hhLWFlcm9zcGFjZS13aW5zLTEtYmxuLW9yZGVyLXJvbWFuaWEtazktaG93aXR6ZXJzLTIwMjQtMDctMDkv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>India looking at strategic oil reserves abroad; eyes capacity in Japan, South Korea, Singapore | Mint</t>
+          <t>Rains Pound South Korea Causing Landslides, Bullet Trains Slowed</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024-07-07 20:18:12.517866</t>
+          <t>2024-07-09 21:27:35.175855</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMikQFodHRwczovL3d3dy5saXZlbWludC5jb20vaW5kdXN0cnkvaW5kaWEtbG9va2luZy1hdC1zdHJhdGVnaWMtb2lsLXJlc2VydmVzLWFicm9hZC1leWVzLWNhcGFjaXR5LWluLWphcGFuLXNvdXRoLWtvcmVhLXNpbmdhcG9yZS0xMTcyMDM0MjAzMjk3Mi5odG1s0gGVAWh0dHBzOi8vd3d3LmxpdmVtaW50LmNvbS9pbmR1c3RyeS9pbmRpYS1sb29raW5nLWF0LXN0cmF0ZWdpYy1vaWwtcmVzZXJ2ZXMtYWJyb2FkLWV5ZXMtY2FwYWNpdHktaW4tamFwYW4tc291dGgta29yZWEtc2luZ2Fwb3JlL2FtcC0xMTcyMDM0MjAzMjk3Mi5odG1s?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMidWh0dHBzOi8vd3d3LnVzbmV3cy5jb20vbmV3cy93b3JsZC9hcnRpY2xlcy8yMDI0LTA3LTA5L3JhaW5zLXBvdW5kLXNvdXRoLWtvcmVhLWNhdXNpbmctbGFuZHNsaWRlcy1idWxsZXQtdHJhaW5zLXNsb3dlZNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Hong Myung-bo returns to lead South Korea's national soccer team</t>
+          <t>South Korea Samsung Union Declares 'Indefinite' Strike</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024-07-07 20:18:12.523012</t>
+          <t>2024-07-09 21:27:35.192206</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiT2h0dHBzOi8vd3d3LmNob3N1bi5jb20vZW5nbGlzaC9wZW9wbGUtZW4vMjAyNC8wNy8wOC9DTDNJM1VTT1ZaRzdEREg1UjNVSk80V1Y2NC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL2FtcC9uZXdzL3NvdXRoLWtvcmVhLXNhbXN1bmctdW5pb24tZGVjbGFyZXMtaW5kZWZpbml0ZS1zdHJpa2UtNmYyZjg5NWHSAV5odHRwczovL3d3dy5iYXJyb25zLmNvbS9hbXAvbmV3cy9zb3V0aC1rb3JlYS1zYW1zdW5nLXVuaW9uLWRlY2xhcmVzLWluZGVmaW5pdGUtc3RyaWtlLTZmMmY4OTVh?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Samsung workers' union in South Korea kicks off three-day strike</t>
+          <t>SBI Digital Markets accelerates Korea growth strategy with appointment of Jai Yung Byun</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024-07-07 21:18:12.448091</t>
+          <t>2024-07-09 21:27:35.193457</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2Evc2Ftc3VuZy13b3JrZXJzLXVuaW9uLWluLXNvdXRoLWtvcmVhLWtpY2tzLW9mZi10aHJlZS1kYXktc3RyaWtlLS83Njg4OTMyLmh0bWzSAWlodHRwczovL3d3dy52b2FuZXdzLmNvbS9hbXAvc2Ftc3VuZy13b3JrZXJzLXVuaW9uLWluLXNvdXRoLWtvcmVhLWtpY2tzLW9mZi10aHJlZS1kYXktc3RyaWtlLS83Njg4OTMyLmh0bWw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihQFodHRwczovL25vcmJlcnRnZWhya2UubWVkaXVtLmNvbS9zYmktZGlnaXRhbC1tYXJrZXRzLWFjY2VsZXJhdGVzLWtvcmVhLWdyb3d0aC1zdHJhdGVneS13aXRoLWFwcG9pbnRtZW50LW9mLWphaS15dW5nLWJ5dW4tZGI2OGFhZDE0NDcx0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>North Korea's Kim Yo Jong accuses S.Korean leader of using tensions as political distraction</t>
+          <t>Japan, South Korea top omega-3 index, while China, Australia lower than average – 2024 data</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024-07-07 21:18:12.448091</t>
+          <t>2024-07-09 21:27:35.216239</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9ub3J0aC1rb3JlYXMta2ltLXlvLWpvbmctY2FsbHMtc291dGgta29yZWFuLWRyaWxscy1wcm92b2NhdGlvbi1rY25hLXNheXMtMjAyNC0wNy0wNy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihQFodHRwczovL3d3dy5udXRyYWluZ3JlZGllbnRzLWFzaWEuY29tL0FydGljbGUvMjAyNC8wNy8xMC9KYXBhbi1Tb3V0aC1Lb3JlYS10b3Atb21lZ2EtMy1pbmRleC13aGlsZS1DaGluYS1BdXN0cmFsaWEtbG93ZXItdGhhbi1hdmVyYWdl0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>China’s big mistake: underestimating North Korea’s nuclear ambitions</t>
+          <t>Unionized workers at Samsung Electronics declare 'indefinite' strike</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024-07-07 21:18:12.453339</t>
+          <t>2024-07-09 21:27:35.224779</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LnNjbXAuY29tL29waW5pb24vYXNpYS1vcGluaW9uL2FydGljbGUvMzI2OTIxOS9ydXNzaWEtbm9ydGgta29yZWEtcGFjdC1wcmljZS1jaGluYXMtc3RyYXRlZ2ljLXBhdGllbmNl0gFxaHR0cHM6Ly9hbXAuc2NtcC5jb20vb3Bpbmlvbi9hc2lhLW9waW5pb24vYXJ0aWNsZS8zMjY5MjE5L3J1c3NpYS1ub3J0aC1rb3JlYS1wYWN0LXByaWNlLWNoaW5hcy1zdHJhdGVnaWMtcGF0aWVuY2U?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiPWh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L3RlY2gvMjAyNC8wNy8xMjlfMzc4MzU4Lmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgzNTg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ruling party asks Yoon to veto special probe bill on Marine's death</t>
+          <t>South Korea Samsung union declares 'indefinite' strike</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024-07-07 21:18:12.523012</t>
+          <t>2024-07-09 21:27:35.224779</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgxOTAuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODE5MA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LmhpbmR1c3RhbnRpbWVzLmNvbS93b3JsZC1uZXdzL3NvdXRoLWtvcmVhLXNhbXN1bmctdW5pb24tZGVjbGFyZXMtaW5kZWZpbml0ZS1zdHJpa2UtMTAxNzIwNTc1ODE5ODc5Lmh0bWzSAXdodHRwczovL3d3dy5oaW5kdXN0YW50aW1lcy5jb20vd29ybGQtbmV3cy9zb3V0aC1rb3JlYS1zYW1zdW5nLXVuaW9uLWRlY2xhcmVzLWluZGVmaW5pdGUtc3RyaWtlLTEwMTcyMDU3NTgxOTg3OS1hbXAuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>(LEAD) N.K. leader's sister slams S. Korea's resumption of live-fire drills as 'suicidal hysteria'</t>
+          <t>South Korea will not suspend licences for striking trainee doctors</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024-07-07 22:11:49.403721</t>
+          <t>2024-07-09 22:27:35.175855</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiLmh0dHBzOi8vZW4ueW5hLmNvLmtyL3ZpZXcvQUVOMjAyNDA3MDgwMDAzNTEzMTXSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3Lmp1cmlzdC5vcmcvbmV3cy8yMDI0LzA3L3NvdXRoLWtvcmVhLXdpbGwtbm90LXN1c3BlbmQtbGljZW5jZXMtZm9yLXN0cmlraW5nLXRyYWluZWUtZG9jdG9ycy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>"Suicidal Hysteria": Kim Jong Un's Sister Hits Out At South Korea Military Drills</t>
+          <t>It may look like pink Jello but scientists hope this new invention could revolutionize meat</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024-07-07 22:18:12.453339</t>
+          <t>2024-07-09 22:27:35.198323</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMidWh0dHBzOi8vd3d3Lm5kdHYuY29tL3dvcmxkLW5ld3Mvc3VpY2lkYWwtaHlzdGVyaWEta2ltLWpvbmctdW5zLXNpc3Rlci1oaXRzLW91dC1hdC1zb3V0aC1rb3JlYS1taWxpdGFyeS1kcmlsbHMtNjA1NzA1M9IBe2h0dHBzOi8vd3d3Lm5kdHYuY29tL3dvcmxkLW5ld3Mvc3VpY2lkYWwtaHlzdGVyaWEta2ltLWpvbmctdW5zLXNpc3Rlci1oaXRzLW91dC1hdC1zb3V0aC1rb3JlYS1taWxpdGFyeS1kcmlsbHMtNjA1NzA1My9hbXAvMQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiUWh0dHBzOi8vd3d3LmNubi5jb20vMjAyNC8wNy8wOS9jbGltYXRlL2xhYi1ncm93bi1tZWF0LWhuay1jbGltYXRlLWludGwvaW5kZXguaHRtbNIBSmh0dHBzOi8vYW1wLmNubi5jb20vY25uLzIwMjQvMDcvMDkvY2xpbWF0ZS9sYWItZ3Jvd24tbWVhdC1obmstY2xpbWF0ZS1pbnRs?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sister of North Korean leader Kim calls South Korea's live-fire drills 'suicidal hysteria'</t>
+          <t>Koreans face growing challenges over disposal of dead pets</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024-07-07 22:18:12.483081</t>
+          <t>2024-07-09 22:27:35.201557</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiSGh0dHBzOi8vd3d3LnlhaG9vLmNvbS9uZXdzL3Npc3Rlci1ub3J0aC1rb3JlYW4tbGVhZGVyLWtpbS0wMDA3MDQyOTcuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgzNjAuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM2MA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>The larger intention behind Cellini's grand debut in South Korea</t>
+          <t>Five-term lawmaker named president of South Korea-China Parliamentarians' Union</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024-07-07 22:18:12.483081</t>
+          <t>2024-07-09 22:27:35.219316</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZWh0dHBzOi8vaW5zaWRlcmV0YWlsLmFzaWEvMjAyNC8wNy8wOC90aGUtbGFyZ2VyLWludGVudGlvbi1iZWhpbmQtY2VsbGluaXMtZ3JhbmQtZGVidXQtaW4tc291dGgta29yZWEv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgzNjQuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM2NA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Kim Jong-un's sister slams South Korea's resumption of live-fire drills as 'suicidal hysteria'</t>
+          <t>"US troops will not leave South Korea even if Trump is re-elected," says Trump ally</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024-07-07 22:18:12.502998</t>
+          <t>2024-07-09 22:27:35.234771</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiiQFodHRwczovL3d3dy50cmlidW5laW5kaWEuY29tL25ld3Mvd29ybGQva2ltLWpvbmctdW5zLXNpc3Rlci1zbGFtcy1zb3V0aC1rb3JlYXMtcmVzdW1wdGlvbi1vZi1saXZlLWZpcmUtZHJpbGxzLWFzLXN1aWNpZGFsLWh5c3RlcmlhLTYzNzg5OdIBhwFodHRwczovL20udHJpYnVuZWluZGlhLmNvbS9uZXdzL3dvcmxkL2tpbS1qb25nLXVucy1zaXN0ZXItc2xhbXMtc291dGgta29yZWFzLXJlc3VtcHRpb24tb2YtbGl2ZS1maXJlLWRyaWxscy1hcy1zdWljaWRhbC1oeXN0ZXJpYS02Mzc4OTk?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiT2h0dHBzOi8vd3d3LmNob3N1bi5jb20vZW5nbGlzaC9wZW9wbGUtZW4vMjAyNC8wNy8xMC8zREdWWjVUVTVORUtIRFJZVVZPUUI2Tk9JRS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>North Korea: Kim Jong Un's sister condemns South's drills</t>
+          <t>Samsung Electronics' main South Korea union to go on indefinite strike</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024-07-07 23:18:12.448091</t>
+          <t>2024-07-09 22:27:46.187815</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiaGh0dHBzOi8vd3d3LmR3LmNvbS9lbi9ub3J0aC1rb3JlYS1raW1zLXNpc3Rlci1jYWxscy1zb3V0aHMtbGl2ZS1maXJlLWRyaWxscy1zdWljaWRhbC1oeXN0ZXJpYS9hLTY5NTkwMTg20gFoaHR0cHM6Ly9hbXAuZHcuY29tL2VuL25vcnRoLWtvcmVhLWtpbXMtc2lzdGVyLWNhbGxzLXNvdXRocy1saXZlLWZpcmUtZHJpbGxzLXN1aWNpZGFsLWh5c3RlcmlhL2EtNjk1OTAxODY?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibGh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3RlY2hub2xvZ3kvc2Ftc3VuZy1lbGVjdHJvbmljcy11bmlvbi1zb3V0aC1rb3JlYS1kZWNsYXJlcy1hbm90aGVyLXN0cmlrZS0yMDI0LTA3LTEwL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Therme creating 'natural-healing urban oasis' in South Korea, eyes further locations in Asia and US | spabusiness.com ...</t>
+          <t>China's outgoing ambassador to South Korea leaves sour legacy</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024-07-07 23:18:12.463268</t>
+          <t>2024-07-09 22:27:46.219334</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMikQFodHRwczovL3d3dy5zcGFidXNpbmVzcy5jb20vd2VsbG5lc3MtbmV3cy9UaGVybWUtY3JlYXRpbmctbmF0dXJhbC1oZWFsaW5nLXVyYmFuLW9hc2lzLWluLVNvdXRoLUtvcmVhLWV5ZXMtZnVydGhlci1sb2NhdGlvbnMtaW4tQXNpYS1hbmQtVVMvMzUzNTQ20gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMidmh0dHBzOi8vYXNpYS5uaWtrZWkuY29tL1BvbGl0aWNzL0ludGVybmF0aW9uYWwtcmVsYXRpb25zL0NoaW5hLXMtb3V0Z29pbmctYW1iYXNzYWRvci10by1Tb3V0aC1Lb3JlYS1sZWF2ZXMtc291ci1sZWdhY3nSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Messika opens first store in South Korea</t>
+          <t>South Korea's Largest Companies</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024-07-07 23:18:12.479339</t>
+          <t>2024-07-09 23:27:35.182832</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiTmh0dHBzOi8vaW5zaWRlcmV0YWlsLmFzaWEvMjAyNC8wNy8wOC9tZXNzaWthLW9wZW5zLWZpcnN0LXN0b3JlLWluLXNvdXRoLWtvcmVhL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiRWh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL25ld3Mvc291dGgta29yZWEtcy1sYXJnZXN0LWNvbXBhbmllcy0wMjNkMjZmMtIBSWh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL2FtcC9uZXdzL3NvdXRoLWtvcmVhLXMtbGFyZ2VzdC1jb21wYW5pZXMtMDIzZDI2ZjI?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>'Forces will carry out its mission': Kim Jong Un's sister threatens action over South Korea's live-fire d</t>
+          <t>Korea to boost affordability of EVs with new battery recycling scheme</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024-07-07 23:18:12.479339</t>
+          <t>2024-07-09 23:27:35.201557</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiuwFodHRwczovL3RpbWVzb2ZpbmRpYS5pbmRpYXRpbWVzLmNvbS93b3JsZC9yZXN0LW9mLXdvcmxkL2ZvcmNlcy13aWxsLWNhcnJ5LW91dC1pdHMtbWlzc2lvbi1raW0tam9uZy11bnMtc2lzdGVyLXRocmVhdGVucy1hY3Rpb24tb3Zlci1zb3V0aC1rb3JlYXMtbGl2ZS1maXJlLWRyaWxscy9hcnRpY2xlc2hvdy8xMTE1NjQzMDMuY21z0gG_AWh0dHBzOi8vdGltZXNvZmluZGlhLmluZGlhdGltZXMuY29tL3dvcmxkL3Jlc3Qtb2Ytd29ybGQvZm9yY2VzLXdpbGwtY2Fycnktb3V0LWl0cy1taXNzaW9uLWtpbS1qb25nLXVucy1zaXN0ZXItdGhyZWF0ZW5zLWFjdGlvbi1vdmVyLXNvdXRoLWtvcmVhcy1saXZlLWZpcmUtZHJpbGxzL2FtcF9hcnRpY2xlc2hvdy8xMTE1NjQzMDMuY21z?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiNmh0dHBzOi8vd3d3LmtvcmVhaGVyYWxkLmNvbS92aWV3LnBocD91ZD0yMDI0MDcxMDA1MDUzN9IBOGh0dHBzOi8vbS5rb3JlYWhlcmFsZC5jb20vYW1wL3ZpZXcucGhwP3VkPTIwMjQwNzEwMDUwNTM3?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>North Korea's Kim Yo Jong calls South Korean drills a provocation, KCNA says</t>
+          <t>Samsung union in South Korea says will strike indefinitely</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024-07-07 23:18:12.512788</t>
+          <t>2024-07-09 23:27:35.201557</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMidWh0dHBzOi8vd3d3LmRlY2NhbmhlcmFsZC5jb20vd29ybGQvbm9ydGgta29yZWFzLWtpbS15by1qb25nLWNhbGxzLXNvdXRoLWtvcmVhbi1kcmlsbHMtYS1wcm92b2NhdGlvbi1rY25hLXNheXMtMzA5NjM0OdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMie2h0dHBzOi8vd3d3LnRoZWhpbmR1LmNvbS9zY2ktdGVjaC90ZWNobm9sb2d5L3NhbXN1bmctdW5pb24taW4tc291dGgta29yZWEtc2F5cy13aWxsLXN0cmlrZS1pbmRlZmluaXRlbHkvYXJ0aWNsZTY4Mzg3NzE1LmVjZdIBgAFodHRwczovL3d3dy50aGVoaW5kdS5jb20vc2NpLXRlY2gvdGVjaG5vbG9neS9zYW1zdW5nLXVuaW9uLWluLXNvdXRoLWtvcmVhLXNheXMtd2lsbC1zdHJpa2UtaW5kZWZpbml0ZWx5L2FydGljbGU2ODM4NzcxNS5lY2UvYW1wLw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>South Korea abandons plan to suspend licenses of striking doctors to resolve medical impasse</t>
+          <t>'Don't get tired': Samsung Electronics workers extend strike indefinitely, say chip production disrupted</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024-07-07 23:18:12.512788</t>
+          <t>2024-07-09 23:27:46.187815</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihwFodHRwczovL3d3dy5rYWFsdHYuY29tL25ld3MvYnVzaW5lc3MtbmV3cy9zb3V0aC1rb3JlYS1hYmFuZG9ucy1wbGFuLXRvLXN1c3BlbmQtbGljZW5zZXMtb2Ytc3RyaWtpbmctZG9jdG9ycy10by1yZXNvbHZlLW1lZGljYWwtaW1wYXNzZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjQvMDcvMTAvc2Ftc3VuZy1lbGVjdHJvbmljcy13b3JrZXJzLWRlY2xhcmUtYS1zZWNvbmQtc3RyaWtlLWluLXNvdXRoLWtvcmVhLmh0bWzSAWtodHRwczovL3d3dy5jbmJjLmNvbS9hbXAvMjAyNC8wNy8xMC9zYW1zdW5nLWVsZWN0cm9uaWNzLXdvcmtlcnMtZGVjbGFyZS1hLXNlY29uZC1zdHJpa2UtaW4tc291dGgta29yZWEuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>North Korea Russia | World | reflector.com</t>
+          <t>Samsung union in South Korea declares indefinite strike</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024-07-07 23:18:12.512788</t>
+          <t>2024-07-09 23:27:46.219334</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LnJlZmxlY3Rvci5jb20vbmV3cy93b3JsZC9ub3J0aC1rb3JlYS1ydXNzaWEvaW1hZ2VfYWI5MTk5YzItNjE0Mi01OGIwLWEyMWUtZjU3MzkwZTllZWJiLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWGh0dHBzOi8vd3d3LmR3LmNvbS9lbi9zYW1zdW5nLXVuaW9uLWluLXNvdXRoLWtvcmVhLWRlY2xhcmVzLWluZGVmaW5pdGUtc3RyaWtlL2EtNjk2MTE3ODXSAVhodHRwczovL2FtcC5kdy5jb20vZW4vc2Ftc3VuZy11bmlvbi1pbi1zb3V0aC1rb3JlYS1kZWNsYXJlcy1pbmRlZmluaXRlLXN0cmlrZS9hLTY5NjExNzg1?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>NATO summit to address escalating North Korea-Russia military ties</t>
+          <t>Korean Vengeance Miniseries ‘The Tyrant’ Launching on Disney+</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024-07-07 23:18:12.517866</t>
+          <t>2024-07-10 00:27:35.193457</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicWh0dHBzOi8vb3JnYW5pc2VyLm9yZy8yMDI0LzA3LzA4LzI0NjI0MS93b3JsZC9uYXRvLXN1bW1pdC10by1hZGRyZXNzLWVzY2FsYXRpbmctbm9ydGgta29yZWEtcnVzc2lhLW1pbGl0YXJ5LXRpZXMv0gF1aHR0cHM6Ly9vcmdhbmlzZXIub3JnLzIwMjQvMDcvMDgvMjQ2MjQxL3dvcmxkL25hdG8tc3VtbWl0LXRvLWFkZHJlc3MtZXNjYWxhdGluZy1ub3J0aC1rb3JlYS1ydXNzaWEtbWlsaXRhcnktdGllcy9hbXAv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiS2h0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC90di9uZXdzL2tvcmVhLW1pbmlzZXJpZXMtdHlyYW50LWRpc25leS0xMjM2MDY0NTMwL9IBT2h0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC90di9uZXdzL2tvcmVhLW1pbmlzZXJpZXMtdHlyYW50LWRpc25leS0xMjM2MDY0NTMwL2FtcC8?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>South Korea Targets 6GW Annual Solar Power Distribution in Industrial Areas</t>
+          <t>AI and Cybersecurity in Digital Warfare on the Korean Peninsula</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024-07-07 23:18:12.517866</t>
+          <t>2024-07-10 00:27:35.193457</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMigAFodHRwczovL3d3dy5jZW9pbnNpZ2h0c2FzaWEuY29tL25ld3Mvc291dGgta29yZWEtdGFyZ2V0cy02Z3ctYW5udWFsLXNvbGFyLXBvd2VyLWRpc3RyaWJ1dGlvbi1pbi1pbmR1c3RyaWFsLWFyZWFzLW53aWQtMTIyNjguaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vZ2ppYS5nZW9yZ2V0b3duLmVkdS8yMDI0LzA3LzEwL2FpLWFuZC1jeWJlcnNlY3VyaXR5LWluLWRpZ2l0YWwtd2FyZmFyZS1vbi10aGUta29yZWFuLXBlbmluc3VsYS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2024 Seoul Summer Beach to open to public in Gwanghwamun Square later this month</t>
+          <t>Four Dead In Record Torrential Rains In South Korea: Agency, Yonhap</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024-07-07 23:18:12.517866</t>
+          <t>2024-07-10 00:27:35.193457</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L2N1bHR1cmUvMjAyNC8wNy8xMzVfMzc4MTk5Lmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgxOTk?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LmJhcnJvbnMuY29tL25ld3MvZm91ci1kZWFkLWluLXJlY29yZC10b3JyZW50aWFsLXJhaW5zLWluLXNvdXRoLWtvcmVhLWFnZW5jeS15b25oYXAtZDQ5ODdjNjDSAWtodHRwczovL3d3dy5iYXJyb25zLmNvbS9hbXAvbmV3cy9mb3VyLWRlYWQtaW4tcmVjb3JkLXRvcnJlbnRpYWwtcmFpbnMtaW4tc291dGgta29yZWEtYWdlbmN5LXlvbmhhcC1kNDk4N2M2MA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>South Korea not to revoke striking doctors' licences for breakthrough - PUNE.NEWS</t>
+          <t>Don’t dwell on Korea discount; light up visibility on global stage</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024-07-07 23:18:12.517866</t>
+          <t>2024-07-10 00:27:35.200141</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZWh0dHBzOi8vcHVuZS5uZXdzL2hlYWx0aC9zb3V0aC1rb3JlYS1ub3QtdG8tcmV2b2tlLXN0cmlraW5nLWRvY3RvcnMtbGljZW5jZXMtZm9yLWJyZWFrdGhyb3VnaC0xOTgwMTgv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vdGhlLWtlZC12aWV3L25ld3NWaWV3L2tlZDIwMjQwNzEwMDAwNdIBMWh0dHBzOi8vYW1wLmtlZGdsb2JhbC5jb20vbmV3c0FtcC9rZWQyMDI0MDcxMDAwMDU?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>South Korea says it'll withdraw its plan to suspend licenses of striking doctors to resolve the long medical impasse</t>
+          <t>Four Dead In Record Torrential Rains In South Korea</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024-07-07 23:18:12.523012</t>
+          <t>2024-07-10 00:27:35.200722</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMingFodHRwczovL3d3dy5rYWFsdHYuY29tL25ld3MvYnVzaW5lc3MtbmV3cy9zb3V0aC1rb3JlYS1zYXlzLWl0bGwtd2l0aGRyYXctaXRzLXBsYW4tdG8tc3VzcGVuZC1saWNlbnNlcy1vZi1zdHJpa2luZy1kb2N0b3JzLXRvLXJlc29sdmUtdGhlLWxvbmctbWVkaWNhbC1pbXBhc3NlL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXWh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL2FydGljbGVzL2ZvdXItZGVhZC1pbi1yZWNvcmQtdG9ycmVudGlhbC1yYWlucy1pbi1zb3V0aC1rb3JlYS1jOTAzMjZiOdIBXWh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL2FtcC9uZXdzL2ZvdXItZGVhZC1pbi1yZWNvcmQtdG9ycmVudGlhbC1yYWlucy1pbi1zb3V0aC1rb3JlYS1jOTAzMjZiOQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Hotels in South Korea are banning kids</t>
+          <t>South Korea Samsung union declares ‘indefinite general strike’</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024-07-07 23:18:12.527030</t>
+          <t>2024-07-10 00:27:35.201557</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiX2h0dHBzOi8vd3d3LnRyYXZlbHdlZWtseS1hc2lhLmNvbS9UcmF2ZWwtTmV3cy9Ib3RlbC1OZXdzL0hvdGVscy1pbi1Tb3V0aC1Lb3JlYS1hcmUtYmFubmluZy1raWRz0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LnBsYXRhZm9ybWFtZWRpYS5jb20vZW4vMjAyNC8wNy8xMC9zb3V0aC1rb3JlYS1zYW1zdW5nLXVuaW9uLWRlY2xhcmVzLWluZGVmaW5pdGUtZ2VuZXJhbC1zdHJpa2Uv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>North Korean leader’s sister denounces South’s border drills</t>
+          <t>`Female-dominant society behind male suicides`, says South Korean Councillor</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024-07-08 00:18:12.453339</t>
+          <t>2024-07-10 00:27:35.201557</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXGh0dHBzOi8vd3d3LnJmYS5vcmcvZW5nbGlzaC9uZXdzL2tvcmVhL25vcnRoLWtvcmVhLWRlbm91Y2VzLXNvdXRoLWRyaWxscy0wNzA4MjAyNDAwMzcxNi5odG1s0gFjaHR0cHM6Ly93d3cucmZhLm9yZy9lbmdsaXNoL25ld3Mva29yZWEvbm9ydGgta29yZWEtZGVub3VjZXMtc291dGgtZHJpbGxzLTA3MDgyMDI0MDAzNzE2Lmh0bWwvYW1wUkZB?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihwFodHRwczovL3d3dy53aW9uZXdzLmNvbS93b3JsZC9mZW1hbGUtZG9taW5hbnQtc29jaWV0eS1iZWhpbmQtbWFsZS1zdWljaWRlcy1zb3V0aC1rb3JlYW4tY291bmNpbGxvci1ibGFtZXMtd29tZW4tZm9yLW1lbi1zdWljaWRlcy03Mzk0NjbSAYsBaHR0cHM6Ly93d3cud2lvbmV3cy5jb20vd29ybGQvZmVtYWxlLWRvbWluYW50LXNvY2lldHktYmVoaW5kLW1hbGUtc3VpY2lkZXMtc291dGgta29yZWFuLWNvdW5jaWxsb3ItYmxhbWVzLXdvbWVuLWZvci1tZW4tc3VpY2lkZXMtNzM5NDY2L2FtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>N. Korea inspects electronic payment system to boost safety, efficiency - Daily NK English</t>
+          <t>Fed's Powell defends central bank independence as challenges loom</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024-07-08 00:18:12.473274</t>
+          <t>2024-07-10 00:27:35.201557</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZmh0dHBzOi8vd3d3LmRhaWx5bmsuY29tL2VuZ2xpc2gvbi1rb3JlYS1pbnNwZWN0cy1lbGVjdHJvbmljLXBheW1lbnQtc3lzdGVtLXRvLWJvb3N0LXNhZmV0eS1lZmZpY2llbmN5L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiPmh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L3dvcmxkLzIwMjQvMDcvNTAxXzM3ODM3NC5odG1s0gE_aHR0cHM6Ly9tLmtvcmVhdGltZXMuY28ua3IvcGFnZXMvYXJ0aWNsZS5hbXAuYXNwP25ld3NJZHg9Mzc4Mzc0?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>North Korea: Kim Jong-un's sister denounces Seoul's exercises on the border</t>
+          <t>South Korean politician under fire for blaming women for rising male suicides</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024-07-08 00:18:12.479339</t>
+          <t>2024-07-10 00:27:35.201557</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3LmFnZW56aWFub3ZhLmNvbS9lbi9uZXdzL05vcnRoLUtvcmVhJTJDLUtpbS1Kb25nLVVuJTI3cy1zaXN0ZXItZGVub3VuY2VzLVNlb3VsJTI3cy1ib3JkZXItZXhlcmNpc2VzL9IBc2h0dHBzOi8vd3d3LmFnZW56aWFub3ZhLmNvbS9lbi9uZXdzL05vcnRoLUtvcmVhJTJDLUtpbS1Kb25nLVVuJTI3cy1zaXN0ZXItZGVub3VuY2VzLVNlb3VsJTI3cy1ib3JkZXItZXhlcmNpc2VzL2FtcC8?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LmluZGVwZW5kZW50LmNvLnVrL2FzaWEvZWFzdC1hc2lhL3NvdXRoLWtvcmVhLXBvbGl0aWNpYW4tbWFsZS1zdWljaWRlLXNleGlzbS1iMjU3NzA4OC5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>South Korean groups invited to expand further in Vietnam</t>
+          <t>SBI Digital Markets appoints former Bank of Korea official to expand in South Korea</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024-07-08 00:18:12.483081</t>
+          <t>2024-07-10 00:27:35.220322</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiV2h0dHBzOi8vdmlyLmNvbS52bi9zb3V0aC1rb3JlYW4tZ3JvdXBzLWludml0ZWQtdG8tZXhwYW5kLWZ1cnRoZXItaW4tdmlldG5hbS0xMTI0NTkuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMie2h0dHBzOi8vd3d3LnRoZWJsb2NrLmNvL2FtcC9wb3N0LzMwNDQwMy9zYmktZGlnaXRhbC1tYXJrZXRzLWFwcG9pbnRzLWZvcm1lci1iYW5rLW9mLWtvcmVhLW9mZmljaWFsLXRvLWV4cGFuZC1pbi1zb3V0aC1rb3JlYdIBe2h0dHBzOi8vd3d3LnRoZWJsb2NrLmNvL2FtcC9wb3N0LzMwNDQwMy9zYmktZGlnaXRhbC1tYXJrZXRzLWFwcG9pbnRzLWZvcm1lci1iYW5rLW9mLWtvcmVhLW9mZmljaWFsLXRvLWV4cGFuZC1pbi1zb3V0aC1rb3JlYQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Korea’s Conflict Dynamics</t>
+          <t>MegazoneCloud confident in IPO after picking big name lead managers</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024-07-08 00:18:12.483081</t>
+          <t>2024-07-10 00:27:35.220322</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiMGh0dHBzOi8vc2xndWFyZGlhbi5vcmcva29yZWFzLWNvbmZsaWN0LWR5bmFtaWNzL9IBNGh0dHBzOi8vc2xndWFyZGlhbi5vcmcva29yZWFzLWNvbmZsaWN0LWR5bmFtaWNzL2FtcC8?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiPWh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L3RlY2gvMjAyNC8wNy8xMjlfMzc4Mzc2Lmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgzNzY?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>The birthday gift of democracy</t>
+          <t>Korea Approves New Disclosure Rule for Insider Transactions</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024-07-08 00:18:12.483081</t>
+          <t>2024-07-10 00:27:35.224779</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L29waW5pb24vMjAyNC8wNy8xMzdfMzc3OTcwLmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzc5NzA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiW2h0dHBzOi8vd3d3LnJlZ3VsYXRpb25hc2lhLmNvbS9rb3JlYS1hcHByb3Zlcy1uZXctZGlzY2xvc3VyZS1ydWxlLWZvci1pbnNpZGVyLXRyYW5zYWN0aW9ucy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>South Korea to withdraw plan to suspend licenses of doctors on strike</t>
+          <t>Suspect in murder of Korean tourist found in plastic barrel extradited to Korea</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024-07-08 00:18:12.493209</t>
+          <t>2024-07-10 00:27:35.224779</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiSmh0dHBzOi8vdWsubmV3cy55YWhvby5jb20vc291dGgta29yZWEtd2l0aGRyYXctcGxhbi1zdXNwZW5kLTA4MDc1OTM0Ny5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiowFodHRwczovL2tvcmVham9vbmdhbmdkYWlseS5qb2lucy5jb20vbmV3cy8yMDI0LTA3LTEwL25hdGlvbmFsL3NvY2lhbEFmZmFpcnMvU3VzcGVjdC1pbi1tdXJkZXItb2YtS29yZWFuLXRvdXJpc3QtZm91bmQtaW4tcGxhc3RpYy1iYXJyZWwtZXh0cmFkaXRlZC10by1Lb3JlYS8yMDg3MTYx0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Kanye West to perform in Korea for first time in 14 years</t>
+          <t>South Korea: Samsung union declares indefinite strike</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024-07-08 00:18:12.495260</t>
+          <t>2024-07-10 00:27:35.233772</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMilQFodHRwczovL2tvcmVham9vbmdhbmdkYWlseS5qb2lucy5jb20vbmV3cy8yMDI0LTA3LTA4L2VudGVydGFpbm1lbnQvbXVzaWNQZXJmb3JtYW5jZS9LYW55ZS1XZXN0LXRvLXBlcmZvcm0taW4tS29yZWEtZm9yLWZpcnN0LXRpbWUtaW4tMTQteWVhcnMvMjA4NTE1ONIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3Lm1zbi5jb20vZW4teGwvbmV3cy9vdGhlci9zb3V0aC1rb3JlYS1zYW1zdW5nLXVuaW9uLWRlY2xhcmVzLWluZGVmaW5pdGUtc3RyaWtlL2FyLUJCMXBJZ05v0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>'Seoul Must Be Suicidal': North Korea's Kim Yo Jong Hits Out At South Korea Over Military Drills</t>
+          <t>North Korea balloons, GPS interference raise safety risks for airlines</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024-07-08 00:18:12.502998</t>
+          <t>2024-07-10 00:27:46.171449</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihwFodHRwczovL3d3dy5vdXRsb29raW5kaWEuY29tL2ludGVybmF0aW9uYWwvc2VvdWwtbXVzdC1iZS1zdWljaWRhbC1ub3J0aC1rb3JlYXMta2ltLXlvLWpvbmctaGl0cy1vdXQtYXQtc291dGgta29yZWEtb3Zlci1taWxpdGFyeS1kcmlsbHPSAZEBaHR0cHM6Ly93d3cub3V0bG9va2luZGlhLmNvbS9hbXAvc3RvcnkvaW50ZXJuYXRpb25hbC9zZW91bC1tdXN0LWJlLXN1aWNpZGFsLW5vcnRoLWtvcmVhcy1raW0teW8tam9uZy1oaXRzLW91dC1hdC1zb3V0aC1rb3JlYS1vdmVyLW1pbGl0YXJ5LWRyaWxscw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMieGh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9ub3J0aC1rb3JlYS1iYWxsb29ucy1ncHMtaW50ZXJmZXJlbmNlLXJhaXNlLXNhZmV0eS1yaXNrcy1haXJsaW5lcy0yMDI0LTA3LTEwL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Foreign tourists' unapproved drone flights cause problems for police</t>
+          <t>Samsung Electronics union goes on indefinite strike</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024-07-08 00:18:12.502998</t>
+          <t>2024-07-10 00:27:46.187815</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgxOTUuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODE5NQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiLmh0dHBzOi8vd3d3LmJiYy5jb20vbmV3cy9hcnRpY2xlcy9jNTF5ZWx2NGU3Mm_SATJodHRwczovL3d3dy5iYmMuY29tL25ld3MvYXJ0aWNsZXMvYzUxeWVsdjRlNzJvLmFtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Tactical style, leadership make Hong Myung-bo perfect fit as nat'l football team head coach: KFA</t>
+          <t>South Korea’s Ability to Arm Ukraine Elevates Its Role at NATO Summit</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024-07-08 00:18:12.502998</t>
+          <t>2024-07-10 00:27:46.187815</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L3Nwb3J0cy8yMDI0LzA3LzYwMF8zNzgyMDEuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODIwMQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMieGh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTEwL3NvdXRoLWtvcmVhLXMtYWJpbGl0eS10by1hcm0tdWtyYWluZS1lbGV2YXRlcy1pdHMtcm9sZS1hdC1uYXRvLXN1bW1pdNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Korea, US to hold meetings on environmental cooperation</t>
+          <t>Blackpink's Jennie 'regrets' vaping indoors</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024-07-08 00:18:12.512788</t>
+          <t>2024-07-10 01:27:35.184889</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgyMDUuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODIwNQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiLmh0dHBzOi8vd3d3LmJiYy5jb20vbmV3cy9hcnRpY2xlcy9jdjJndnpxd2d2cW_SATJodHRwczovL3d3dy5iYmMuY29tL25ld3MvYXJ0aWNsZXMvY3YyZ3Z6cXdndnFvLmFtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Exclusive-South Korea’s Yoon to discuss Pyongyang’s ‘distinct threat’ to Europe at NATO</t>
+          <t>Why did Denmark ban these spicy noodles from South Korea? Explained</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024-07-08 00:18:12.522882</t>
+          <t>2024-07-10 01:27:35.191140</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMidmh0dHBzOi8vdGhlcHJpbnQuaW4vd29ybGQvZXhjbHVzaXZlLXNvdXRoLWtvcmVhcy15b29uLXRvLWRpc2N1c3MtcHlvbmd5YW5ncy1kaXN0aW5jdC10aHJlYXQtdG8tZXVyb3BlLWF0LW5hdG8vMjE2NDg2NC_SAXpodHRwczovL3RoZXByaW50LmluL3dvcmxkL2V4Y2x1c2l2ZS1zb3V0aC1rb3JlYXMteW9vbi10by1kaXNjdXNzLXB5b25neWFuZ3MtZGlzdGluY3QtdGhyZWF0LXRvLWV1cm9wZS1hdC1uYXRvLzIxNjQ4NjQvP2FtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMigwFodHRwczovL3d3dy5idXNpbmVzcy1zdGFuZGFyZC5jb20vd29ybGQtbmV3cy93aHktZGlkLWRlbm1hcmstYmFuLXRoZXNlLXNwaWN5LW5vb2RsZXMtZnJvbS1zb3V0aC1rb3JlYS1leHBsYWluZWQtMTI0MDcxMDAwMzA3XzEuaHRtbNIBhwFodHRwczovL3d3dy5idXNpbmVzcy1zdGFuZGFyZC5jb20vYW1wL3dvcmxkLW5ld3Mvd2h5LWRpZC1kZW5tYXJrLWJhbi10aGVzZS1zcGljeS1ub29kbGVzLWZyb20tc291dGgta29yZWEtZXhwbGFpbmVkLTEyNDA3MTAwMDMwN18xLmh0bWw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Senior football official claims transparency, autonomy in hiring nat'l team coach</t>
+          <t>Why is Nato urging South Korea to tweak policy on weapons export?</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024-07-08 01:11:49.388711</t>
+          <t>2024-07-10 01:27:35.193457</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L3Nwb3J0cy8yMDI0LzA3LzYwMF8zNzgyMDYuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODIwNg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3LmZpcnN0cG9zdC5jb20vd29ybGQvd2h5LWlzLW5hdG8tdXJnaW5nLXNvdXRoLWtvcmVhLXRvLXR3ZWFrLXBvbGljeS1vbi13ZWFwb25zLWV4cG9ydC0xMzc5MTMyMC5odG1s0gFyaHR0cHM6Ly93d3cuZmlyc3Rwb3N0LmNvbS93b3JsZC93aHktaXMtbmF0by11cmdpbmctc291dGgta29yZWEtdG8tdHdlYWstcG9saWN5LW9uLXdlYXBvbnMtZXhwb3J0LTEzNzkxMzIwLmh0bWwvYW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>South Korea will withdraw plan to suspend licenses of striking doctors to resolve medical impasse</t>
+          <t>In push for “deep tech,” Israel and South korea join forces</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.448091</t>
+          <t>2024-07-10 01:27:35.193457</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMimgFodHRwczovL3d3dy5vcmlsbGlhbWF0dGVycy5jb20vbmF0aW9uYWwtYnVzaW5lc3Mvc291dGgta29yZWEtd2lsbC13aXRoZHJhdy1wbGFuLXRvLXN1c3BlbmQtbGljZW5zZXMtb2Ytc3RyaWtpbmctZG9jdG9ycy10by1yZXNvbHZlLW1lZGljYWwtaW1wYXNzZS05MTg4NDUx0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3LmlzcmFlbDIxYy5vcmcvaW4tcHVzaC1mb3ItZGVlcC10ZWNoLWlzcmFlbC1hbmQtc291dGgta29yZWEtam9pbi1mb3JjZXMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>South Korea says it’ll withdraw its plan to suspend licenses of striking doctors to resolve the long medical impasse</t>
+          <t>Four dead in record torrential rains in South Korea</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.448091</t>
+          <t>2024-07-10 01:27:35.193457</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZmh0dHBzOi8vYWJjbmV3cy5nby5jb20vVVMvd2lyZVN0b3J5L3NvdXRoLWtvcmVhLWl0bGwtd2l0aGRyYXctcGxhbi1zdXNwZW5kLWxpY2Vuc2VzLXN0cmlraW5nLTExMTczNjgxNtIBamh0dHBzOi8vYWJjbmV3cy5nby5jb20vYW1wL1VTL3dpcmVTdG9yeS9zb3V0aC1rb3JlYS1pdGxsLXdpdGhkcmF3LXBsYW4tc3VzcGVuZC1saWNlbnNlcy1zdHJpa2luZy0xMTE3MzY4MTY?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWWh0dHBzOi8vd3d3LmNoYW5uZWxuZXdzYXNpYS5jb20vZWFzdC1hc2lhL3NvdXRoLWtvcmVhLWhlYXZ5LXRvcnJlbnRpYWwtcmFpbnMtZGVhZC00NDY5MTE20gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>S.Korea to join offshore wind alliance to take on China</t>
+          <t>Samsung, SK Hynix lead value increase in Korea NPS' local shares in Q2</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.453339</t>
+          <t>2024-07-10 01:27:35.201557</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiOWh0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vZW5lcmd5L25ld3NWaWV3L2tlZDIwMjQwNzA4MDAwNdIBMWh0dHBzOi8vYW1wLmtlZGdsb2JhbC5jb20vbmV3c0FtcC9rZWQyMDI0MDcwODAwMDU?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vcGVuc2lvbi1mdW5kcy9uZXdzVmlldy9rZWQyMDI0MDcxMDAwMDbSATFodHRwczovL2FtcC5rZWRnbG9iYWwuY29tL25ld3NBbXAva2VkMjAyNDA3MTAwMDA2?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Indian archers look to cash in if South Korea slips</t>
+          <t>South Korean Markets Hold Steady Awaiting Key Central Bank Moves</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.453339</t>
+          <t>2024-07-10 01:27:35.201557</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYWh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3Nwb3J0cy9vbHltcGljcy9pbmRpYW4tYXJjaGVycy1sb29rLWNhc2gtaWYtc291dGgta29yZWEtc2xpcHMtMjAyNC0wNy0wOC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXWh0dHBzOi8vZmluaW1pemUuY29tL2NvbnRlbnQvc291dGgta29yZWFuLW1hcmtldHMtaG9sZC1zdGVhZHktYXdhaXRpbmcta2V5LWNlbnRyYWwtYmFuay1tb3Zlc9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Hikers wreak havoc on South Korea’s highest peak, with instant noodles</t>
+          <t>Rain batters Korea's southern regions, 'heaviest in 200 years'</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.453339</t>
+          <t>2024-07-10 01:27:35.217320</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiigFodHRwczovL3d3dy5zY21wLmNvbS9uZXdzL3Blb3BsZS1jdWx0dXJlL2FydGljbGUvMzI2ODg5MS9zcGljeS1pbnN0YW50LW5vb2RsZXMtdGhyZWF0ZW4tc291dGgta29yZWFzLWhpZ2hlc3QtcGVhay1saXR0ZXItYnVncy1zbmFjay1zdW1taXTSAYoBaHR0cHM6Ly9hbXAuc2NtcC5jb20vbmV3cy9wZW9wbGUtY3VsdHVyZS9hcnRpY2xlLzMyNjg4OTEvc3BpY3ktaW5zdGFudC1ub29kbGVzLXRocmVhdGVuLXNvdXRoLWtvcmVhcy1oaWdoZXN0LXBlYWstbGl0dGVyLWJ1Z3Mtc25hY2stc3VtbWl0?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiNmh0dHBzOi8vd3d3LmtvcmVhaGVyYWxkLmNvbS92aWV3LnBocD91ZD0yMDI0MDcxMDA1MDU5NtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>South Korea may buy drones from Poland to expand arms relationship, report says</t>
+          <t>Hana Financial supports Korean delegation for Paris Olympics</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.463268</t>
+          <t>2024-07-10 01:27:35.221322</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiggFodHRwczovL2VuZ2xpc2guYWxhcmFiaXlhLm5ldC9OZXdzL3dvcmxkLzIwMjQvMDcvMDgvc291dGgta29yZWEtbWF5LWJ1eS1kcm9uZXMtZnJvbS1wb2xhbmQtdG8tZXhwYW5kLWFybXMtcmVsYXRpb25zaGlwLXJlcG9ydC1zYXlz0gGGAWh0dHBzOi8vZW5nbGlzaC5hbGFyYWJpeWEubmV0L2FtcC9OZXdzL3dvcmxkLzIwMjQvMDcvMDgvc291dGgta29yZWEtbWF5LWJ1eS1kcm9uZXMtZnJvbS1wb2xhbmQtdG8tZXhwYW5kLWFybXMtcmVsYXRpb25zaGlwLXJlcG9ydC1zYXlz?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiPGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L2Jpei8yMDI0LzA3LzYwMl8zNzgzODUuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM4NQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Tesla hires battery engineer for S Korea</t>
+          <t>Doomscrolling</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.467848</t>
+          <t>2024-07-10 01:27:35.222331</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiRGh0dHBzOi8vd3d3LnRlc2xhcmF0aS5jb20vdGVzbGEtc2VuaW9yLWJhdHRlcnktZW5naW5lZXItc291dGgta29yZWEv0gFIaHR0cHM6Ly93d3cudGVzbGFyYXRpLmNvbS90ZXNsYS1zZW5pb3ItYmF0dGVyeS1lbmdpbmVlci1zb3V0aC1rb3JlYS9hbXAv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L29waW5pb24vMjAyNC8wNy8xMzdfMzc4MDYwLmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgwNjA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>S Korean prez to discuss Pyongyang's 'distinct threat' to Europe at Nato</t>
+          <t>[ED} Rethink North Korea-Russia relations</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.467848</t>
+          <t>2024-07-10 01:27:35.224324</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihwFodHRwczovL3d3dy5idXNpbmVzcy1zdGFuZGFyZC5jb20vd29ybGQtbmV3cy9zLWtvcmVhbi1wcmV6LXRvLWRpc2N1c3MtcHlvbmd5YW5nLXMtZGlzdGluY3QtdGhyZWF0LXRvLWV1cm9wZS1hdC1uYXRvLTEyNDA3MDgwMDIzNV8xLmh0bWzSAYsBaHR0cHM6Ly93d3cuYnVzaW5lc3Mtc3RhbmRhcmQuY29tL2FtcC93b3JsZC1uZXdzL3Mta29yZWFuLXByZXotdG8tZGlzY3Vzcy1weW9uZ3lhbmctcy1kaXN0aW5jdC10aHJlYXQtdG8tZXVyb3BlLWF0LW5hdG8tMTI0MDcwODAwMjM1XzEuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L29waW5pb24vMjAyNC8wNy8xMzdfMzc4Mjc4Lmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgyNzg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1 in 5 South Korean women threatened with sexual extortion: study</t>
+          <t>Korean government kicks off national food tourism brand</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.470024</t>
+          <t>2024-07-10 01:27:35.224779</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiWmh0dHBzOi8vYXNpYW5ld3MubmV0d29yay8xLWluLTUtc291dGgta29yZWFuLXdvbWVuLXRocmVhdGVuZWQtd2l0aC1zZXh1YWwtZXh0b3J0aW9uLXN0dWR5L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihwFodHRwczovL2tvcmVham9vbmdhbmdkYWlseS5qb2lucy5jb20vbmV3cy8yMDI0LTA3LTEwL2N1bHR1cmUvZm9vZFRyYXZlbC9Lb3JlYW4tZ292ZXJubWVudC1raWNrcy1vZmYtbmF0aW9uYWwtZm9vZC10b3VyaXNtLWJyYW5kLzIwODcxODLSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Hong Myung-bo announced as new Korea Republic coach</t>
+          <t>South Korea at crucial nuclear juncture</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.470024</t>
+          <t>2024-07-10 01:27:35.235772</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQ2h0dHBzOi8vd3d3LmZpZmEuY29tL2VuL2FydGljbGVzL2hvbmctbXl1bmctYm8ta29yZWEtcmVwdWJsaWMtY29hY2jSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L29waW5pb24vMjAyNC8wNy8xMzdfMzc4MzgyLmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgzODI?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>GM Korea supplier Erae cs eyes revival by unit sales</t>
+          <t>Samsung Electronics workers announce ‘indefinite’ strike</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.470024</t>
+          <t>2024-07-10 01:27:46.202827</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiPmh0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vYXV0b21vYmlsZXMvbmV3c1ZpZXcva2VkMjAyNDA3MDgwMDA20gExaHR0cHM6Ly9hbXAua2VkZ2xvYmFsLmNvbS9uZXdzQW1wL2tlZDIwMjQwNzA4MDAwNg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiV2h0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL3NhbXN1bmctZWxlY3Ryb25pY3Mtc3RyaWtlcy03NWZjMjBhYjI1ZTJmYmFkNWM1MmQ5M2I1NjMzNGE2NNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Samsung's largest-ever strike begins in South Korea</t>
+          <t>Striking Samsung Electronics workers extend walkout ‘indefinitely’</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.473274</t>
+          <t>2024-07-10 02:27:35.183897</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXWh0dHBzOi8vd3d3LmRlY2NhbmhlcmFsZC5jb20vd29ybGQvc2Ftc3VuZ3MtbGFyZ2VzdC1ldmVyLXN0cmlrZS1iZWdpbnMtaW4tc291dGgta29yZWEtMzA5NjQzMdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiaGh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2Evc3RyaWtpbmctc2Ftc3VuZy1lbGVjdHJvbmljcy13b3JrZXJzLWV4dGVuZC13YWxrb3V0LWluZGVmaW5pdGVseS0vNzY5MjA2Mi5odG1s0gFqaHR0cHM6Ly93d3cudm9hbmV3cy5jb20vYW1wL3N0cmlraW5nLXNhbXN1bmctZWxlY3Ryb25pY3Mtd29ya2Vycy1leHRlbmQtd2Fsa291dC1pbmRlZmluaXRlbHktLzc2OTIwNjIuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Why Russia's designs on North Korean rare-earth metals probably won't pan out | NK PRO</t>
+          <t>North Korea-China friendship shows signs of strain</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.473274</t>
+          <t>2024-07-10 02:27:35.193457</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3Lm5rbmV3cy5vcmcvcHJvL3doeS1ydXNzaWFzLWRlc2lnbnMtb24tbm9ydGgta29yZWFuLXJhcmUtZWFydGgtbWV0YWxzLXByb2JhYmx5LXdvbnQtcGFuLW91dC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzEwM18zNzgzODkuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM4OQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>AliExpress-Temu user numbers rise again; Korean professor warns of business shift to China</t>
+          <t>Choreographer shares insight into traditional court dance</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.483081</t>
+          <t>2024-07-10 02:27:35.193457</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiUWh0dHBzOi8vd3d3LmNob3N1bi5jb20vZW5nbGlzaC9pbmR1c3RyeS1lbi8yMDI0LzA3LzA4LzZHTktVRkJIM0ZHNlZBVlU3NUg1TEpKSUVNL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3LmtvcmVhLm5ldC9OZXdzRm9jdXMvSG9ub3JhcnlSZXBvcnRlcnMvdmlldz9hcnRpY2xlSWQ9MjUzNTc2JnBhZ2VJbmRleD0x0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Semiconductors Slash South Korea's Trade Deficit with China by Over Half</t>
+          <t>74th anniversary of Task Force Smith: Honoring courage and sacrifice</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.495260</t>
+          <t>2024-07-10 02:27:35.201557</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQmh0dHBzOi8vd3d3LmJ1c2luZXNza29yZWEuY28ua3IvbmV3cy9hcnRpY2xlVmlldy5odG1sP2lkeG5vPTIyMDc1NNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LmFybXkubWlsL2FydGljbGUvMjc3ODk1Lzc0dGhfYW5uaXZlcnNhcnlfb2ZfdGFza19mb3JjZV9zbWl0aF9ob25vcmluZ19jb3VyYWdlX2FuZF9zYWNyaWZpY2XSAWtodHRwczovL3d3dy5hcm15Lm1pbC9hcnRpY2xlLWFtcC8yNzc4OTUvNzR0aF9hbm5pdmVyc2FyeV9vZl90YXNrX2ZvcmNlX3NtaXRoX2hvbm9yaW5nX2NvdXJhZ2VfYW5kX3NhY3JpZmljZQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>South Korea to withdraw plan to suspend licenses of striking doctors to resolve medical impasse</t>
+          <t>South Korea inks $939 million weapons supply deal with Romania</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.495260</t>
+          <t>2024-07-10 02:27:35.201557</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiKmh0dHBzOi8vd3d3LmFyYWJuZXdzLnBrL25vZGUvMjU0NTUwMS93b3JsZNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiKGh0dHBzOi8vYXJtZW5wcmVzcy5hbS9lbi9hcnRpY2xlLzExOTU0MDPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Kim Yo-jong blames S. Korea's military drills on Yoon administration crisis</t>
+          <t>South Korea Daily Life</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.495260</t>
+          <t>2024-07-10 02:27:35.201557</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMie2h0dHBzOi8vd3d3Lm1zbi5jb20vZW4teGwvbmV3cy9vdGhlci9raW0teW8tam9uZy1ibGFtZXMtcy1rb3JlYS1zLW1pbGl0YXJ5LWRyaWxscy1vbi15b29uLWFkbWluaXN0cmF0aW9uLWNyaXNpcy9hci1CQjFwQWg3MtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LnJlZmxlY3Rvci5jb20vbmV3cy93b3JsZC9zb3V0aC1rb3JlYS1kYWlseS1saWZlL2ltYWdlXzYxMmEwZWIwLTBhYmItNWMyNC1iMjI5LTZiZGU1NzIzNDgwNS5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Kim Yo Jong Accuses South Korean President Of Heightening Tensions</t>
+          <t>EuroscreenFast and GW Vitek announce distribution partnership in Korea</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.502998</t>
+          <t>2024-07-10 02:27:35.201557</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXGh0dHBzOi8vd2VuZXdzZW5nbGlzaC5way9raW0teW8tam9uZy1hY2N1c2VzLXNvdXRoLWtvcmVhbi1wcmVzaWRlbnQtb2YtaGVpZ2h0ZW5pbmctdGVuc2lvbnMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiigFodHRwczovL2V1cm9wZWFuLWJpb3RlY2hub2xvZ3kuY29tL3VwLXRvLWRhdGUvbGF0ZXN0LW5ld3MvbmV3cy9ldXJvc2NyZWVuZmFzdC1hbmQtZ3ctdml0ZWstYW5ub3VuY2UtZGlzdHJpYnV0aW9uLXBhcnRuZXJzaGlwLWluLWtvcmVhLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Regulator set to take steps against Google over YouTube bundling allegations</t>
+          <t>Samsung faces uncharted territory in South Korea as union calls indefinite strike</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.502998</t>
+          <t>2024-07-10 02:27:35.218311</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgyMTAuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODIxMA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicmh0dHBzOi8vd3d3Lndpb25ld3MuY29tL2J1c2luZXNzLWVjb25vbXkvc2Ftc3VuZy1mYWNlcy11bmNoYXJ0ZWQtdGVycml0b3J5LWFzLXVuaW9uLWNhbGxzLWluZGVmaW5pdGUtc3RyaWtlLTczOTQ5MdIBdmh0dHBzOi8vd3d3Lndpb25ld3MuY29tL2J1c2luZXNzLWVjb25vbXkvc2Ftc3VuZy1mYWNlcy11bmNoYXJ0ZWQtdGVycml0b3J5LWFzLXVuaW9uLWNhbGxzLWluZGVmaW5pdGUtc3RyaWtlLTczOTQ5MS9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Eximbank provides $150 mil. for UAE solar power generation project</t>
+          <t>Grammy Museum to launch exhibit featuring HYBE's K-pop artists</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024-07-08 01:18:12.512788</t>
+          <t>2024-07-10 02:27:35.224779</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiPGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L2Jpei8yMDI0LzA3LzEyNl8zNzgyMDcuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODIwNw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>JobKorea launches KLik service to connect foreign jobseekers with local companies</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.453339</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMiO2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYXNwP25ld3NJZHg9Mzc4MjE00gE_aHR0cHM6Ly9tLmtvcmVhdGltZXMuY28ua3IvcGFnZXMvYXJ0aWNsZS5hbXAuYXNwP25ld3NJZHg9Mzc4MjE0?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Civil Servant Robot Commits Suicide in South Korea</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.463268</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMiNmh0dHBzOi8vdGVjaHJlcG9ydC5jb20vbmV3cy9yb2JvdC1zdWljaWRlLXNvdXRoLWtvcmVhL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Russian-North Korean military ties pose 'distinct threat,' South Korean president says</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.463268</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMiUmh0dHBzOi8va3lpdmluZGVwZW5kZW50LmNvbS9zb3V0aC1rb3JlYW4tcHJlc2lkZW50LXJ1c3NpYS1ub3J0aC1rb3JlYS10aWVzLXRocmVhdC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>HyunA, Yong Jun-hyung to marry in October</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.473274</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMiPGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L2FydC8yMDI0LzA3LzM5OF8zNzgyMTUuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODIxNQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>The End of North Korean Sanctions Enforcement…and What Comes Next - Australian Institute of International Affairs</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.473274</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMie2h0dHBzOi8vd3d3LmludGVybmF0aW9uYWxhZmZhaXJzLm9yZy5hdS9hdXN0cmFsaWFub3V0bG9vay90aGUtZW5kLW9mLW5vcnRoLWtvcmVhbi1zYW5jdGlvbnMtZW5mb3JjZW1lbnRhbmQtd2hhdC1jb21lcy1uZXh0L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Ex-strongman Park Chung-hee films to hit screens in S. Korea</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.483081</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMiVWh0dHBzOi8vd3d3LmNob3N1bi5jb20vZW5nbGlzaC9rcG9wLWN1bHR1cmUtZW4vMjAyNC8wNy8wOC8yU1U3V000NkpKSFQ1QjJMMldDSkNWTjUzWS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Yang Ming’s YM Together Bunkers B30 HSFO Biofuel in South Korea</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.483081</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMiaWh0dHBzOi8vY3lwcnVzc2hpcHBpbmduZXdzLmNvbS8yMDI0LzA3LzA4L3lhbmctbWluZ3MteW0tdG9nZXRoZXItYnVua2Vycy1iMzAtaHNmby1iaW9mdWVsLWluLXNvdXRoLWtvcmVhL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Reactions mixed as controversial Chinese envoy departs Korea</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.493057</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMijAFodHRwczovL2tvcmVham9vbmdhbmdkYWlseS5qb2lucy5jb20vbmV3cy8yMDI0LTA3LTA4L25hdGlvbmFsL2RpcGxvbWFjeS9PcGluaW9ucy1kaWZmZXItYXMtY29udHJvdmVyc2lhbC1DaGluZXNlLWVudm95LWRlcGFydHMtS29yZWEvMjA4NTI3MdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Korea-China-Japan should set up security hotline: ex-envoy to Japan</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.495260</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgyMTkuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODIxOQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Texas governor seeks more investment from Samsung, LG</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.502998</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMiPWh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L3RlY2gvMjAyNC8wNy8xMjlfMzc4MjE4Lmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgyMTg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Hyosung wins $238 mil. transformer order from Norway</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.502998</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMiOWh0dHBzOi8va29yZWF0aW1lcy5jby5rci93d3cvdGVjaC8yMDI0LzA3LzQxOV8zNzgyMTcuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODIxNw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>South Korea may buy drones from Poland to expand defence ties, report says</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.511170</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMicGh0dHBzOi8vd3d3LnN0cmFpdHN0aW1lcy5jb20vYXNpYS9zb3V0aC1rb3JlYS1tYXktYnV5LWRyb25lcy1mcm9tLXBvbGFuZC10by1leHBhbmQtYXJtcy1yZWxhdGlvbnNoaXAtcmVwb3J0LXNheXPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Exclusive-South Korea's Yoon to discuss Pyongyang's 'distinct threat' to Europe at NATO</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.512788</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMiowFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3Mvd29ybGQvZXhjbHVzaXZlLXNvdXRoLWtvcmVhLXMteW9vbi10by1kaXNjdXNzLXB5b25neWFuZy1zLWRpc3RpbmN0LXRocmVhdC10by1ldXJvcGUtYXQtbmF0by9hci1CQjFwQTZSTD9pdGVtPWZsaWdodHNwcmctdGlwc3Vic2MtdjFh0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Single and proud: S. Korean YouTuber's viral embrace of solo life</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2024-07-08 02:18:12.517866</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>news.google.com/articles/CBMibmh0dHBzOi8vZS52bmV4cHJlc3MubmV0L25ld3MvbmV3cy9zaW5nbGUtYW5kLXByb3VkLXMta29yZWFuLXlvdXR1YmVyLXMtdmlyYWwtZW1icmFjZS1vZi1zb2xvLWxpZmUtNDc2NzQ1Ny5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiPGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L2FydC8yMDI0LzA3LzM5OF8zNzgzODguaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM4OA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>

--- a/korea_articles.xlsx
+++ b/korea_articles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,323 +453,323 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>After boosting ties, Japan, South Korea, US try to keep them going</t>
+          <t>EDC and SK Group sign partnership to accelerate trade and investments between Canada and the Republic of Korea</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.171449</t>
+          <t>2024-07-03 15:27:46.219334</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2EvYWZ0ZXItYm9vc3RpbmctdGllcy1qYXBhbi1zLWtvcmVhLXVzLXRyeS10by1rZWVwLXRoZW0tZ29pbmcvNzY4MzY4Mi5odG1s0gFkaHR0cHM6Ly93d3cudm9hbmV3cy5jb20vYW1wL2FmdGVyLWJvb3N0aW5nLXRpZXMtamFwYW4tcy1rb3JlYS11cy10cnktdG8ta2VlcC10aGVtLWdvaW5nLzc2ODM2ODIuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTmh0dHBzOi8vY2EuZmluYW5jZS55YWhvby5jb20vbmV3cy9lZGMtc2stZ3JvdXAtc2lnbi1wYXJ0bmVyc2hpcC0xMDAwMDA1NTcuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>North Korea switches TV broadcasts from Chinese satellite to Russian</t>
+          <t>BTS’ Jin chosen as South Korea’s torchbearer at Paris Olympics 2024; ARMY reacts</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.171449</t>
+          <t>2024-07-03 15:27:46.235198</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiU2h0dHBzOi8vdGhlcmVjb3JkLm1lZGlhL25vcnRoLWtvcmVhbi1zdGF0ZS10ZWxldmlzaW9uLXNhdGVsbGl0ZS1zd2l0Y2gtcnVzc2lhLWNoaW5h0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMigAFodHRwczovL2luZGlhbmV4cHJlc3MuY29tL2FydGljbGUvdHJlbmRpbmcvdHJlbmRpbmctZ2xvYmFsbHkvYnRzLWppbi1jaG9zZW4tc291dGgta29yZWEtdG9yY2hiZWFyZXItcGFyaXMtb2x5bXBpY3MtMjAyNC05NDMwNjcxL9IBhQFodHRwczovL2luZGlhbmV4cHJlc3MuY29tL2FydGljbGUvdHJlbmRpbmcvdHJlbmRpbmctZ2xvYmFsbHkvYnRzLWppbi1jaG9zZW4tc291dGgta29yZWEtdG9yY2hiZWFyZXItcGFyaXMtb2x5bXBpY3MtMjAyNC05NDMwNjcxL2xpdGUv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Russian kid stayed at North Korean summer camp, had weird experiences</t>
+          <t>After boosting ties, Japan, South Korea, US try to keep them going</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.171449</t>
+          <t>2024-07-03 16:43:46.124500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcnVzc2lhbi1raWQtc3RheWVkLW5vcnRoLWtvcmVhLXN1bW1lci1jYW1wLXNvbmdkb3dvbi10cmllZC1icmFpbndhc2gtMjAyNC030gFvaHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ydXNzaWFuLWtpZC1zdGF5ZWQtbm9ydGgta29yZWEtc3VtbWVyLWNhbXAtc29uZ2Rvd29uLXRyaWVkLWJyYWlud2FzaC0yMDI0LTc_YW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2EvYWZ0ZXItYm9vc3RpbmctdGllcy1qYXBhbi1zLWtvcmVhLXVzLXRyeS10by1rZWVwLXRoZW0tZ29pbmcvNzY4MzY4Mi5odG1s0gFkaHR0cHM6Ly93d3cudm9hbmV3cy5jb20vYW1wL2FmdGVyLWJvb3N0aW5nLXRpZXMtamFwYW4tcy1rb3JlYS11cy10cnktdG8ta2VlcC10aGVtLWdvaW5nLzc2ODM2ODIuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BTS member Jin to participate as South Korea torchbearer in Paris 2024 Olympic torch relay</t>
+          <t>North Korea switches TV broadcasts from Chinese satellite to Russian</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.187815</t>
+          <t>2024-07-03 16:43:46.140123</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiW2h0dHBzOi8vd3d3LmNubi5jb20vMjAyNC8wNy8wMy9zcG9ydC9idHMtamluLXBhcmlzLW9seW1waWNzLXRvcmNoLXJlbGF5LXNwdC1pbnRsL2luZGV4Lmh0bWzSAVRodHRwczovL2FtcC5jbm4uY29tL2Nubi8yMDI0LzA3LzAzL3Nwb3J0L2J0cy1qaW4tcGFyaXMtb2x5bXBpY3MtdG9yY2gtcmVsYXktc3B0LWludGw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vdGhlcmVjb3JkLm1lZGlhL25vcnRoLWtvcmVhbi1zdGF0ZS10ZWxldmlzaW9uLXNhdGVsbGl0ZS1zd2l0Y2gtcnVzc2lhLWNoaW5h0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>K-Pop and trash: Inside Korea’s balloon war</t>
+          <t>Russian kid stayed at North Korean summer camp, had weird experiences</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.187815</t>
+          <t>2024-07-03 16:43:46.143464</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVWh0dHBzOi8vd3d3LmZyYW5jZTI0LmNvbS9lbi92aWRlby8yMDI0MDcwMy1rLXBvcC1hbmQtdHJhc2gtaW5zaWRlLWtvcmVhLXMtYmFsbG9vbi13YXLSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcnVzc2lhbi1raWQtc3RheWVkLW5vcnRoLWtvcmVhLXN1bW1lci1jYW1wLXNvbmdkb3dvbi10cmllZC1icmFpbndhc2gtMjAyNC030gFvaHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ydXNzaWFuLWtpZC1zdGF5ZWQtbm9ydGgta29yZWEtc3VtbWVyLWNhbXAtc29uZ2Rvd29uLXRyaWVkLWJyYWlud2FzaC0yMDI0LTc_YW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>North Korea and Russia to build road bridge over Tumen River</t>
+          <t>BTS member Jin to participate as South Korea torchbearer in Paris 2024 Olympic torch relay</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.202827</t>
+          <t>2024-07-03 16:43:46.152093</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LnJmYS5vcmcvZW5nbGlzaC9uZXdzL2tvcmVhL3J1c3NpYS1ub3J0aC1rb3JlYS1yb2FkLWJyaWRnZS10dW1lbi1yaXZlci0wNzAzMjAyNDE0NDU1Ni5odG1s0gFsaHR0cHM6Ly93d3cucmZhLm9yZy9lbmdsaXNoL25ld3Mva29yZWEvcnVzc2lhLW5vcnRoLWtvcmVhLXJvYWQtYnJpZGdlLXR1bWVuLXJpdmVyLTA3MDMyMDI0MTQ0NTU2Lmh0bWwvYW1wUkZB?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiW2h0dHBzOi8vd3d3LmNubi5jb20vMjAyNC8wNy8wMy9zcG9ydC9idHMtamluLXBhcmlzLW9seW1waWNzLXRvcmNoLXJlbGF5LXNwdC1pbnRsL2luZGV4Lmh0bWzSAVRodHRwczovL2FtcC5jbm4uY29tL2Nubi8yMDI0LzA3LzAzL3Nwb3J0L2J0cy1qaW4tcGFyaXMtb2x5bXBpY3MtdG9yY2gtcmVsYXktc3B0LWludGw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Russia-North Korea Treaty Marks a Return to Normalcy</t>
+          <t>South Korea fines Credit Suisse for illegal stock short selling</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.202827</t>
+          <t>2024-07-03 16:43:46.154294</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVWh0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvcnVzc2lhLW5vcnRoLWtvcmVhLXRyZWF0eS1tYXJrcy1hLXJldHVybi10by1ub3JtYWxjeS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3N1c3RhaW5hYmlsaXR5L3NvdXRoLWtvcmVhLWZpbmVzLWNyZWRpdC1zdWlzc2UtaWxsZWdhbC1zdG9jay1zaG9ydC1zZWxsaW5nLTIwMjQtMDctMDMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Korea slaps Credit Suisse with largest ever short-sale penalty</t>
+          <t>K-Pop and trash: Inside Korea’s balloon war</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.202827</t>
+          <t>2024-07-03 16:43:46.160230</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vc2hvcnQtc2VsbGluZy9uZXdzVmlldy9rZWQyMDI0MDcwMzAwMTfSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVWh0dHBzOi8vd3d3LmZyYW5jZTI0LmNvbS9lbi92aWRlby8yMDI0MDcwMy1rLXBvcC1hbmQtdHJhc2gtaW5zaWRlLWtvcmVhLXMtYmFsbG9vbi13YXLSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>South Korea Deals Credit Suisse a Record Short-Selling Fine</t>
+          <t>Russia-North Korea Treaty Marks a Return to Normalcy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.202827</t>
+          <t>2024-07-03 16:43:46.164731</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTAzL3NvdXRoLWtvcmVhLWRlYWxzLWNyZWRpdC1zdWlzc2UtYS1yZWNvcmQtc2hvcnQtc2VsbGluZy1maW5l0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVWh0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvcnVzc2lhLW5vcnRoLWtvcmVhLXRyZWF0eS1tYXJrcy1hLXJldHVybi10by1ub3JtYWxjeS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Denmark’s Filmmaking Enfant Terrible, Lars von Trier, Earns Career Retrospective in Korea</t>
+          <t>North Korea and Russia to build road bridge over Tumen River</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.219334</t>
+          <t>2024-07-03 16:43:46.164731</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiWGh0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC9maWxtL25ld3MvbGFycy12b24tdHJpZXItY2FyZWVyLXJldHJvc3BlY3RpdmUta29yZWEtMTIzNjA1OTg1Ny_SAVxodHRwczovL3ZhcmlldHkuY29tLzIwMjQvZmlsbS9uZXdzL2xhcnMtdm9uLXRyaWVyLWNhcmVlci1yZXRyb3NwZWN0aXZlLWtvcmVhLTEyMzYwNTk4NTcvYW1wLw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LnJmYS5vcmcvZW5nbGlzaC9uZXdzL2tvcmVhL3J1c3NpYS1ub3J0aC1rb3JlYS1yb2FkLWJyaWRnZS10dW1lbi1yaXZlci0wNzAzMjAyNDE0NDU1Ni5odG1s0gFsaHR0cHM6Ly93d3cucmZhLm9yZy9lbmdsaXNoL25ld3Mva29yZWEvcnVzc2lhLW5vcnRoLWtvcmVhLXJvYWQtYnJpZGdlLXR1bWVuLXJpdmVyLTA3MDMyMDI0MTQ0NTU2Lmh0bWwvYW1wUkZB?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EDC and SK Group sign partnership to accelerate trade and investments between Canada and the Republic of Korea</t>
+          <t>Denmark’s Filmmaking Enfant Terrible, Lars von Trier, Earns Career Retrospective in Korea</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.219334</t>
+          <t>2024-07-03 16:43:46.170957</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiTmh0dHBzOi8vY2EuZmluYW5jZS55YWhvby5jb20vbmV3cy9lZGMtc2stZ3JvdXAtc2lnbi1wYXJ0bmVyc2hpcC0xMDAwMDA1NTcuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWGh0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC9maWxtL25ld3MvbGFycy12b24tdHJpZXItY2FyZWVyLXJldHJvc3BlY3RpdmUta29yZWEtMTIzNjA1OTg1Ny_SAVxodHRwczovL3ZhcmlldHkuY29tLzIwMjQvZmlsbS9uZXdzL2xhcnMtdm9uLXRyaWVyLWNhcmVlci1yZXRyb3NwZWN0aXZlLWtvcmVhLTEyMzYwNTk4NTcvYW1wLw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Korean consul general in Utah: Bilateral ties with U.S. will remain strong post-election</t>
+          <t>Korea slaps Credit Suisse with largest ever short-sale penalty</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.219334</t>
+          <t>2024-07-03 16:43:46.170957</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiWGh0dHBzOi8vd3d3LmRlc2VyZXQuY29tL3V0YWgvMjAyNC8wNy8wMy9rb3JlYS11cy11dGFoLXJlbGF0aW9uc2hpcC1wcmVzaWRlbnRpYWwtZWxlY3Rvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vc2hvcnQtc2VsbGluZy9uZXdzVmlldy9rZWQyMDI0MDcwMzAwMTfSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Can South Korea Be a Knight for the U.S. on the Chessboard of Latin America?</t>
+          <t>South Korea Deals Credit Suisse a Record Short-Selling Fine</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.219334</t>
+          <t>2024-07-03 16:43:46.170957</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiY2h0dHBzOi8vZ2xvYmFsYW1lcmljYW5zLm9yZy9jYW4tc291dGgta29yZWEtYmUtYS1rbmlnaHQtZm9yLXRoZS11LXMtb24tY2hlc3Nib2FyZC1vZi1sYXRpbi1hbWVyaWNhL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTAzL3NvdXRoLWtvcmVhLWRlYWxzLWNyZWRpdC1zdWlzc2UtYS1yZWNvcmQtc2hvcnQtc2VsbGluZy1maW5l0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BTS’ Jin chosen as South Korea’s torchbearer at Paris Olympics 2024; ARMY reacts</t>
+          <t>Can South Korea Be a Knight for the U.S. on the Chessboard of Latin America?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-07-03 15:27:46.235198</t>
+          <t>2024-07-03 16:43:46.190836</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMigAFodHRwczovL2luZGlhbmV4cHJlc3MuY29tL2FydGljbGUvdHJlbmRpbmcvdHJlbmRpbmctZ2xvYmFsbHkvYnRzLWppbi1jaG9zZW4tc291dGgta29yZWEtdG9yY2hiZWFyZXItcGFyaXMtb2x5bXBpY3MtMjAyNC05NDMwNjcxL9IBhQFodHRwczovL2luZGlhbmV4cHJlc3MuY29tL2FydGljbGUvdHJlbmRpbmcvdHJlbmRpbmctZ2xvYmFsbHkvYnRzLWppbi1jaG9zZW4tc291dGgta29yZWEtdG9yY2hiZWFyZXItcGFyaXMtb2x5bXBpY3MtMjAyNC05NDMwNjcxL2xpdGUv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiY2h0dHBzOi8vZ2xvYmFsYW1lcmljYW5zLm9yZy9jYW4tc291dGgta29yZWEtYmUtYS1rbmlnaHQtZm9yLXRoZS11LXMtb24tY2hlc3Nib2FyZC1vZi1sYXRpbi1hbWVyaWNhL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Will South Korea Get the Bomb?</t>
+          <t>Korean consul general in Utah: Bilateral ties with U.S. will remain strong post-election</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-07-04 15:27:46.171449</t>
+          <t>2024-07-03 16:43:46.190836</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiOWh0dHBzOi8vd3d3LmNhdG8ub3JnL2NvbW1lbnRhcnkvd2lsbC1zb3V0aC1rb3JlYS1nZXQtYm9tYtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWGh0dHBzOi8vd3d3LmRlc2VyZXQuY29tL3V0YWgvMjAyNC8wNy8wMy9rb3JlYS11cy11dGFoLXJlbGF0aW9uc2hpcC1wcmVzaWRlbnRpYWwtZWxlY3Rvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>North Korea recalls overseas students for ‘political indoctrination’</t>
+          <t>South Korea Current Account Hits 32-Month High on Global AI Boom</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-07-04 15:27:46.202827</t>
+          <t>2024-07-04 15:27:46.235198</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3LnJmYS5vcmcvZW5nbGlzaC9uZXdzL2tvcmVhL3B5b25neWFuZy1zdHVkZW50LXJlY2FsbC0wNzA0MjAyNDAxMDgyOC5odG1s0gFaaHR0cHM6Ly93d3cucmZhLm9yZy9lbmdsaXNoL25ld3Mva29yZWEvcHlvbmd5YW5nLXN0dWRlbnQtcmVjYWxsLTA3MDQyMDI0MDEwODI4Lmh0bWwvYW1wUkZB?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTA1L3NvdXRoLWtvcmVhLWN1cnJlbnQtYWNjb3VudC1oaXRzLTMyLW1vbnRoLWhpZ2gtb24tZ2xvYmFsLWFpLWJvb23SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Exploring coexistence opportunities for offshore wind and fisheries in South Korea: Global overview and best practices for South Korea</t>
+          <t>Will South Korea Get the Bomb?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-07-04 15:27:46.202827</t>
+          <t>2024-07-04 16:43:46.140123</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMi1AFodHRwczovL3d3dy5jYXJib250cnVzdC5jb20vZW4tbGEvb3VyLXdvcmstYW5kLWltcGFjdC9ndWlkZXMtcmVwb3J0cy1hbmQtdG9vbHMvZXhwbG9yaW5nLWNvZXhpc3RlbmNlLW9wcG9ydHVuaXRpZXMtZm9yLW9mZnNob3JlLXdpbmQtYW5kLWZpc2hlcmllcy1pbi1zb3V0aC1rb3JlYS1nbG9iYWwtb3ZlcnZpZXctYW5kLWJlc3QtcHJhY3RpY2VzLWZvci1zb3V0aC1rb3JlYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiOWh0dHBzOi8vd3d3LmNhdG8ub3JnL2NvbW1lbnRhcnkvd2lsbC1zb3V0aC1rb3JlYS1nZXQtYm9tYtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Man who stabbed South Korea opposition leader jailed for 15 years</t>
+          <t>South Korea is suspending a military deal with North Korea after tensions over trash balloons</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-07-04 15:27:46.202827</t>
+          <t>2024-07-04 16:43:46.155653</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LmphcGFudGltZXMuY28uanAvbmV3cy8yMDI0LzA3LzA1L2FzaWEtcGFjaWZpYy9jcmltZS1sZWdhbC9tYW4tc3RhYmJlZC1zb3V0aC1rb3JlYS1qYWlsZWQv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTWh0dHBzOi8vY2EubmV3cy55YWhvby5jb20vc291dGgta29yZWEtc3VzcGVuZGluZy1taWxpdGFyeS1kZWFsLTAzMzA1NjkyNS5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Amid worsening healthcare in S.Korea, advocacy groups call on doctors to end strike</t>
+          <t>North Korea's trash balloons deepen tensions with the South. Here's what's happening between rivals</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-07-04 15:27:46.202827</t>
+          <t>2024-07-04 16:43:46.163373</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3LmFhLmNvbS50ci9lbi9hc2lhLXBhY2lmaWMvYW1pZC13b3JzZW5pbmctaGVhbHRoY2FyZS1pbi1za29yZWEtYWR2b2NhY3ktZ3JvdXBzLWNhbGwtb24tZG9jdG9ycy10by1lbmQtc3RyaWtlLzMyNjYwNjTSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiS2h0dHBzOi8vY2EubmV3cy55YWhvby5jb20vbm9ydGgta29yZWFzLXRyYXNoLWJhbGxvb25zLWRlZXBlbi0xMDM3NDU4NDEuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-07-04 15:27:46.202827</t>
+          <t>2024-07-04 16:43:46.163373</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -793,2499 +793,4148 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>South Korea Hunts for Fraudulent Crypto Trading as Rules Tighten</t>
+          <t>North Korea recalls overseas students for ‘political indoctrination’</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-07-04 15:27:46.202827</t>
+          <t>2024-07-04 16:43:46.164731</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTA0L3NvdXRoLWtvcmVhLWh1bnRzLWZvci1mcmF1ZHVsZW50LWNyeXB0by10cmFkaW5nLWFzLXJ1bGVzLXRpZ2h0ZW7SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3LnJmYS5vcmcvZW5nbGlzaC9uZXdzL2tvcmVhL3B5b25neWFuZy1zdHVkZW50LXJlY2FsbC0wNzA0MjAyNDAxMDgyOC5odG1s0gFaaHR0cHM6Ly93d3cucmZhLm9yZy9lbmdsaXNoL25ld3Mva29yZWEvcHlvbmd5YW5nLXN0dWRlbnQtcmVjYWxsLTA3MDQyMDI0MDEwODI4Lmh0bWwvYW1wUkZB?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Russia, North Korea have put South Korea in a predicament</t>
+          <t>South Korea Hunts for Fraudulent Crypto Trading as Rules Tighten</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-07-04 15:27:46.219334</t>
+          <t>2024-07-04 16:43:46.167782</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiX2h0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcnVzc2lhLW5vcnRoLWtvcmVhLWhhdmUtcHV0LXNvdXRoLWtvcmVhLWluLWEtcHJlZGljYW1lbnQtMjAyNC030gFjaHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ydXNzaWEtbm9ydGgta29yZWEtaGF2ZS1wdXQtc291dGgta29yZWEtaW4tYS1wcmVkaWNhbWVudC0yMDI0LTc_YW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTA0L3NvdXRoLWtvcmVhLWh1bnRzLWZvci1mcmF1ZHVsZW50LWNyeXB0by10cmFkaW5nLWFzLXJ1bGVzLXRpZ2h0ZW7SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>South Korea Current Account Hits 32-Month High on Global AI Boom</t>
+          <t>Amid worsening healthcare in S.Korea, advocacy groups call on doctors to end strike</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-07-04 15:27:46.235198</t>
+          <t>2024-07-04 16:43:46.170957</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTA1L3NvdXRoLWtvcmVhLWN1cnJlbnQtYWNjb3VudC1oaXRzLTMyLW1vbnRoLWhpZ2gtb24tZ2xvYmFsLWFpLWJvb23SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3LmFhLmNvbS50ci9lbi9hc2lhLXBhY2lmaWMvYW1pZC13b3JzZW5pbmctaGVhbHRoY2FyZS1pbi1za29yZWEtYWR2b2NhY3ktZ3JvdXBzLWNhbGwtb24tZG9jdG9ycy10by1lbmQtc3RyaWtlLzMyNjYwNjTSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Japan rally from 20-point deficit but fall to Korea</t>
+          <t>Exploring coexistence opportunities for offshore wind and fisheries in South Korea: Global overview and best practices for South Korea</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-07-05 15:27:46.171449</t>
+          <t>2024-07-04 16:43:46.170957</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMijAFodHRwczovL3d3dy5maWJhLmJhc2tldGJhbGwvZW4vZXZlbnRzL21lbnMtb2x5bXBpYy1iYXNrZXRiYWxsLXRvdXJuYW1lbnQtcGFyaXMtMjAyNC9uZXdzL2phcGFuLXJhbGx5LWZyb20tMjAtcG9pbnQtZGVmaWNpdC1idXQtZmFsbC10by1rb3JlYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMi1AFodHRwczovL3d3dy5jYXJib250cnVzdC5jb20vZW4tbGEvb3VyLXdvcmstYW5kLWltcGFjdC9ndWlkZXMtcmVwb3J0cy1hbmQtdG9vbHMvZXhwbG9yaW5nLWNvZXhpc3RlbmNlLW9wcG9ydHVuaXRpZXMtZm9yLW9mZnNob3JlLXdpbmQtYW5kLWZpc2hlcmllcy1pbi1zb3V0aC1rb3JlYS1nbG9iYWwtb3ZlcnZpZXctYW5kLWJlc3QtcHJhY3RpY2VzLWZvci1zb3V0aC1rb3JlYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Man who stabbed South Korea opposition leader gets 15 years in jail</t>
+          <t>Man who stabbed South Korea opposition leader jailed for 15 years</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-07-05 15:27:46.171449</t>
+          <t>2024-07-04 16:43:46.170957</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LmFsamF6ZWVyYS5jb20vbmV3cy8yMDI0LzcvNS9tYW4td2hvLXN0YWJiZWQtc291dGgta29yZWEtb3Bwb3NpdGlvbi1sZWFkZXItZ2V0cy0xNS15ZWFycy1pbi1qYWls0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LmphcGFudGltZXMuY28uanAvbmV3cy8yMDI0LzA3LzA1L2FzaWEtcGFjaWZpYy9jcmltZS1sZWdhbC9tYW4tc3RhYmJlZC1zb3V0aC1rb3JlYS1qYWlsZWQv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>US refutes Russia's denial of violating North Korea sanctions</t>
+          <t>Russia, North Korea have put South Korea in a predicament</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-07-05 15:27:46.187815</t>
+          <t>2024-07-04 16:43:46.190836</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2EvdXMtcmVmdXRlcy1ydXNzaWEtcy1kZW5pYWwtb2YtdmlvbGF0aW5nLW5vcnRoLWtvcmVhLXNhbmN0aW9ucy0vNzY4NzAxNC5odG1s0gFnaHR0cHM6Ly93d3cudm9hbmV3cy5jb20vYW1wL3VzLXJlZnV0ZXMtcnVzc2lhLXMtZGVuaWFsLW9mLXZpb2xhdGluZy1ub3J0aC1rb3JlYS1zYW5jdGlvbnMtLzc2ODcwMTQuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiX2h0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcnVzc2lhLW5vcnRoLWtvcmVhLWhhdmUtcHV0LXNvdXRoLWtvcmVhLWluLWEtcHJlZGljYW1lbnQtMjAyNC030gFjaHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ydXNzaWEtbm9ydGgta29yZWEtaGF2ZS1wdXQtc291dGgta29yZWEtaW4tYS1wcmVkaWNhbWVudC0yMDI0LTc_YW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Watch Ryan Reynolds and Hugh Jackman Get Soaked Onstage at Waterbomb Festival in South Korea</t>
+          <t>How long do the memories of a generation last?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-07-05 15:27:46.187815</t>
+          <t>2024-07-05 15:27:46.219334</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVGh0dHBzOi8vcGVvcGxlLmNvbS9yeWFuLXJleW5vbGRzLWh1Z2gtamFja21hbi13YXRlcmJvbWItZmVzdGl2YWwtc291dGgta29yZWEtODY3NDE0MdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYWh0dHBzOi8vd3d3LmphcGFudGltZXMuY28uanAvY29tbWVudGFyeS8yMDI0LzA3LzA1L2phcGFuL2phcGFuLXNvdXRoLWtvcmVhLXJlbGF0aW9ucy1nZW5lcmF0aW9ucy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>In a first, robot dies of suicide in South Korea. What really happened?</t>
+          <t>Man who stabbed South Korea opposition leader gets 15 years in jail</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-07-05 15:27:46.187815</t>
+          <t>2024-07-05 16:43:46.140123</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicmh0dHBzOi8vd3d3LmZpcnN0cG9zdC5jb20vZXhwbGFpbmVycy9maXJzdC1yb2JvdC1kaWVzLW9mLXN1aWNpZGUtaW4tc291dGgta29yZWEtd2hhdC1yZWFsbHktaGFwcGVuZWQtMTM3ODk2MjUuaHRtbNIBdmh0dHBzOi8vd3d3LmZpcnN0cG9zdC5jb20vZXhwbGFpbmVycy9maXJzdC1yb2JvdC1kaWVzLW9mLXN1aWNpZGUtaW4tc291dGgta29yZWEtd2hhdC1yZWFsbHktaGFwcGVuZWQtMTM3ODk2MjUuaHRtbC9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LmFsamF6ZWVyYS5jb20vbmV3cy8yMDI0LzcvNS9tYW4td2hvLXN0YWJiZWQtc291dGgta29yZWEtb3Bwb3NpdGlvbi1sZWFkZXItZ2V0cy0xNS15ZWFycy1pbi1qYWls0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Did A Robot Really Die By 'Suicide' In South Korea? Experts Probe</t>
+          <t>Japan rally from 20-point deficit but fall to Korea</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-07-05 15:27:46.202827</t>
+          <t>2024-07-05 16:43:46.140123</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiY2h0dHBzOi8vd3d3Lm5kdHYuY29tL3dvcmxkLW5ld3Mvcm9ib3RzLWJhZmZsaW5nLXN1aWNpZGUtaW4tc291dGgta29yZWEtc3BhcmtzLWludmVzdGlnYXRpb24tNjA0MTA4OdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMijAFodHRwczovL3d3dy5maWJhLmJhc2tldGJhbGwvZW4vZXZlbnRzL21lbnMtb2x5bXBpYy1iYXNrZXRiYWxsLXRvdXJuYW1lbnQtcGFyaXMtMjAyNC9uZXdzL2phcGFuLXJhbGx5LWZyb20tMjAtcG9pbnQtZGVmaWNpdC1idXQtZmFsbC10by1rb3JlYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>South Korea will withdraw plan to suspend licenses of striking doctors to resolve medical impasse</t>
+          <t>In a first, robot dies of suicide in South Korea. What really happened?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-07-05 15:27:46.202827</t>
+          <t>2024-07-05 16:43:46.153162</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMib2h0dHBzOi8vYWJjbmV3cy5nby5jb20vQnVzaW5lc3Mvd2lyZVN0b3J5L3NvdXRoLWtvcmVhLXdpdGhkcmF3LXBsYW4tc3VzcGVuZC1saWNlbnNlcy1zdHJpa2luZy1kb2N0b3JzLTExMTczNjgyMtIBc2h0dHBzOi8vYWJjbmV3cy5nby5jb20vYW1wL0J1c2luZXNzL3dpcmVTdG9yeS9zb3V0aC1rb3JlYS13aXRoZHJhdy1wbGFuLXN1c3BlbmQtbGljZW5zZXMtc3RyaWtpbmctZG9jdG9ycy0xMTE3MzY4MjI?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicmh0dHBzOi8vd3d3LmZpcnN0cG9zdC5jb20vZXhwbGFpbmVycy9maXJzdC1yb2JvdC1kaWVzLW9mLXN1aWNpZGUtaW4tc291dGgta29yZWEtd2hhdC1yZWFsbHktaGFwcGVuZWQtMTM3ODk2MjUuaHRtbNIBdmh0dHBzOi8vd3d3LmZpcnN0cG9zdC5jb20vZXhwbGFpbmVycy9maXJzdC1yb2JvdC1kaWVzLW9mLXN1aWNpZGUtaW4tc291dGgta29yZWEtd2hhdC1yZWFsbHktaGFwcGVuZWQtMTM3ODk2MjUuaHRtbC9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hydrogen fuel consumption rises almost 50% in South Korea amid H2 bus boom</t>
+          <t>South Korea says North Korea is installing its own loudspeakers along the border</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-07-05 15:27:46.219334</t>
+          <t>2024-07-05 16:43:46.154294</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3Lmh5ZHJvZ2VuaW5zaWdodC5jb20vdHJhbnNwb3J0L2h5ZHJvZ2VuLWZ1ZWwtY29uc3VtcHRpb24tcmlzZXMtYWxtb3N0LTUwLWluLXNvdXRoLWtvcmVhLWFtaWQtaDItYnVzLWJvb20vMi0xLTE2NzM0MDjSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiRWh0dHBzOi8vY2EubmV3cy55YWhvby5jb20vc291dGgta29yZWEtc2F5cy1ub3J0aC1rb3JlYS0wODMxMTEzODYuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>How long do the memories of a generation last?</t>
+          <t>Watch Ryan Reynolds and Hugh Jackman Get Soaked Onstage at Waterbomb Festival in South Korea</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-07-05 15:27:46.219334</t>
+          <t>2024-07-05 16:43:46.156716</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYWh0dHBzOi8vd3d3LmphcGFudGltZXMuY28uanAvY29tbWVudGFyeS8yMDI0LzA3LzA1L2phcGFuL2phcGFuLXNvdXRoLWtvcmVhLXJlbGF0aW9ucy1nZW5lcmF0aW9ucy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVGh0dHBzOi8vcGVvcGxlLmNvbS9yeWFuLXJleW5vbGRzLWh1Z2gtamFja21hbi13YXRlcmJvbWItZmVzdGl2YWwtc291dGgta29yZWEtODY3NDE0MdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Geely Plans to Introduce Zeekr EV Brand in Korea by Early 2026</t>
+          <t>US refutes Russia's denial of violating North Korea sanctions</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-07-05 15:27:46.219334</t>
+          <t>2024-07-05 16:43:46.157723</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTA1L2dlZWx5LXBsYW5zLXRvLWludHJvZHVjZS16ZWVrci1ldi1icmFuZC1pbi1rb3JlYS1ieS1lYXJseS0yMDI20gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2EvdXMtcmVmdXRlcy1ydXNzaWEtcy1kZW5pYWwtb2YtdmlvbGF0aW5nLW5vcnRoLWtvcmVhLXNhbmN0aW9ucy0vNzY4NzAxNC5odG1s0gFnaHR0cHM6Ly93d3cudm9hbmV3cy5jb20vYW1wL3VzLXJlZnV0ZXMtcnVzc2lhLXMtZGVuaWFsLW9mLXZpb2xhdGluZy1ub3J0aC1rb3JlYS1zYW5jdGlvbnMtLzc2ODcwMTQuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>South Korea designates targets involved in DPRK-Russia arms &amp; petroleum trade</t>
+          <t>Did A Robot Really Die By 'Suicide' In South Korea? Experts Probe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-07-05 15:27:46.219334</t>
+          <t>2024-07-05 16:43:46.164731</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicmh0dHBzOi8vZ2xvYmFsc2FuY3Rpb25zLmNvLnVrLzIwMjQvMDcvc291dGgta29yZWEtZGVzaWduYXRlcy10YXJnZXRzLWludm9sdmVkLWluLWRwcmstcnVzc2lhLWFybXMtcGV0cm9sZXVtLXRyYWRlL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiY2h0dHBzOi8vd3d3Lm5kdHYuY29tL3dvcmxkLW5ld3Mvcm9ib3RzLWJhZmZsaW5nLXN1aWNpZGUtaW4tc291dGgta29yZWEtc3BhcmtzLWludmVzdGlnYXRpb24tNjA0MTA4OdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Robot suicide? Troubled android throws itself down the stairs in South Korea; here’s what happened</t>
+          <t>Geely Plans to Introduce Zeekr EV Brand in Korea by Early 2026</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-07-05 15:27:46.219334</t>
+          <t>2024-07-05 16:43:46.170957</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMimwFodHRwczovL3d3dy5idXNpbmVzc3RvZGF5LmluL3RlY2hub2xvZ3kvbmV3cy9zdG9yeS9yb2JvdC1zdWljaWRlLWFuZHJvaWQtdGhyb3dzLWl0c2VsZi1kb3duLXRoZS1zdGFpcnMtaW4tc291dGgta29yZWEtaGVyZXMtd2hhdC1oYXBwZW5lZC00MzYwNjctMjAyNC0wNy0wNdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTA1L2dlZWx5LXBsYW5zLXRvLWludHJvZHVjZS16ZWVrci1ldi1icmFuZC1pbi1rb3JlYS1ieS1lYXJseS0yMDI20gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Man who stabbed South Korea’s opposition leader sentenced to 15 years in prison</t>
+          <t>South Korea will withdraw plan to suspend licenses of striking doctors to resolve medical impasse</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-07-05 15:27:46.219334</t>
+          <t>2024-07-05 16:43:46.170957</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMib2h0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL3NvdXRoLWtvcmVhLW9wcG9zaXRpb24tbGVhZGVyLWF0dGFjay1rbmlmZS1zZW50ZW5jZS02MzEwNWIwMTRjNmQ0ZTcxZDg3YTExNDNlN2NhYzFjNtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMib2h0dHBzOi8vYWJjbmV3cy5nby5jb20vQnVzaW5lc3Mvd2lyZVN0b3J5L3NvdXRoLWtvcmVhLXdpdGhkcmF3LXBsYW4tc3VzcGVuZC1saWNlbnNlcy1zdHJpa2luZy1kb2N0b3JzLTExMTczNjgyMtIBc2h0dHBzOi8vYWJjbmV3cy5nby5jb20vYW1wL0J1c2luZXNzL3dpcmVTdG9yeS9zb3V0aC1rb3JlYS13aXRoZHJhdy1wbGFuLXN1c3BlbmQtbGljZW5zZXMtc3RyaWtpbmctZG9jdG9ycy0xMTE3MzY4MjI?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>South Korea: Kimchi blamed for mass norovirus sickness</t>
+          <t>Man who stabbed South Korea’s opposition leader sentenced to 15 years in prison</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-07-06 15:27:46.171449</t>
+          <t>2024-07-05 16:43:46.170957</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiLmh0dHBzOi8vd3d3LmJiYy5jb20vbmV3cy9hcnRpY2xlcy9jZTU4bTIybGpycm_SATJodHRwczovL3d3dy5iYmMuY29tL25ld3MvYXJ0aWNsZXMvY2U1OG0yMmxqcnJvLmFtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMib2h0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL3NvdXRoLWtvcmVhLW9wcG9zaXRpb24tbGVhZGVyLWF0dGFjay1rbmlmZS1zZW50ZW5jZS02MzEwNWIwMTRjNmQ0ZTcxZDg3YTExNDNlN2NhYzFjNtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>With South Korean Rockets, Ukraine Could Wipe Out Russian Warplanes At Their Bases</t>
+          <t>South Korea designates targets involved in DPRK-Russia arms &amp; petroleum trade</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-07-06 15:27:46.171449</t>
+          <t>2024-07-05 16:43:46.170957</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiggFodHRwczovL3d3dy5mb3JiZXMuY29tL3NpdGVzL2RhdmlkYXhlLzIwMjQvMDcvMDYvd2l0aC1zb3V0aC1rb3JlYS1yb2NrZXRzLXVrcmFpbmUtY291bGQtd2lwZS1vdXQtcnVzc2lhbi13YXJwbGFuZXMtYXQtdGhlaXItYmFzZXMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicmh0dHBzOi8vZ2xvYmFsc2FuY3Rpb25zLmNvLnVrLzIwMjQvMDcvc291dGgta29yZWEtZGVzaWduYXRlcy10YXJnZXRzLWludm9sdmVkLWluLWRwcmstcnVzc2lhLWFybXMtcGV0cm9sZXVtLXRyYWRlL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Photos: Inside North Korea summer camp where Russian kids are heading</t>
+          <t>Officials say a factory fire in South Korea has killed one person and more than 20 others are missing</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-07-06 15:27:46.202827</t>
+          <t>2024-07-05 16:43:46.187301</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiaWh0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcGhvdG9zLWluc2lkZS1ub3J0aC1rb3JlYS1zdW1tZXItY2FtcC1zb25nZG93b24tcnVzc2lhLXNjaG9vbC1raWRzLTIwMjQtN9IBbWh0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcGhvdG9zLWluc2lkZS1ub3J0aC1rb3JlYS1zdW1tZXItY2FtcC1zb25nZG93b24tcnVzc2lhLXNjaG9vbC1raWRzLTIwMjQtNz9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYWh0dHBzOi8vYWJjbmV3cy5nby5jb20vVVMvd2lyZVN0b3J5L29mZmljaWFscy1mYWN0b3J5LWZpcmUtc291dGgta29yZWEta2lsbGVkLXBlcnNvbi0yMC0xMTEzNTk0NjLSAWVodHRwczovL2FiY25ld3MuZ28uY29tL2FtcC9VUy93aXJlU3Rvcnkvb2ZmaWNpYWxzLWZhY3RvcnktZmlyZS1zb3V0aC1rb3JlYS1raWxsZWQtcGVyc29uLTIwLTExMTM1OTQ2Mg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NATO to discuss Russia-North Korea military cooperation</t>
+          <t>Robot suicide? Troubled android throws itself down the stairs in South Korea; here’s what happened</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-07-07 15:27:46.171449</t>
+          <t>2024-07-05 16:43:46.188404</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2EvbmF0by10by1kaXNjdXNzLXJ1c3NpYS1ub3J0aC1rb3JlYS1taWxpdGFyeS1jb29wZXJhdGlvbi83Njg1NjE2Lmh0bWzSAWBodHRwczovL3d3dy52b2FuZXdzLmNvbS9hbXAvbmF0by10by1kaXNjdXNzLXJ1c3NpYS1ub3J0aC1rb3JlYS1taWxpdGFyeS1jb29wZXJhdGlvbi83Njg1NjE2Lmh0bWw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMimwFodHRwczovL3d3dy5idXNpbmVzc3RvZGF5LmluL3RlY2hub2xvZ3kvbmV3cy9zdG9yeS9yb2JvdC1zdWljaWRlLWFuZHJvaWQtdGhyb3dzLWl0c2VsZi1kb3duLXRoZS1zdGFpcnMtaW4tc291dGgta29yZWEtaGVyZXMtd2hhdC1oYXBwZW5lZC00MzYwNjctMjAyNC0wNy0wNdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>North Korea's Kim Yo Jong accuses S.Korean leader of using tensions as political distraction</t>
+          <t>Hydrogen fuel consumption rises almost 50% in South Korea amid H2 bus boom</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-07-07 15:27:46.171449</t>
+          <t>2024-07-05 16:43:46.190836</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9ub3J0aC1rb3JlYXMta2ltLXlvLWpvbmctY2FsbHMtc291dGgta29yZWFuLWRyaWxscy1wcm92b2NhdGlvbi1rY25hLXNheXMtMjAyNC0wNy0wNy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3Lmh5ZHJvZ2VuaW5zaWdodC5jb20vdHJhbnNwb3J0L2h5ZHJvZ2VuLWZ1ZWwtY29uc3VtcHRpb24tcmlzZXMtYWxtb3N0LTUwLWluLXNvdXRoLWtvcmVhLWFtaWQtaDItYnVzLWJvb20vMi0xLTE2NzM0MDjSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Samsung workers' union in South Korea kicks off three-day strike</t>
+          <t>South Korea: Kimchi blamed for mass norovirus sickness</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-07-07 15:27:46.187135</t>
+          <t>2024-07-06 16:43:46.124500</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2Evc2Ftc3VuZy13b3JrZXJzLXVuaW9uLWluLXNvdXRoLWtvcmVhLWtpY2tzLW9mZi10aHJlZS1kYXktc3RyaWtlLS83Njg4OTMyLmh0bWzSAWlodHRwczovL3d3dy52b2FuZXdzLmNvbS9hbXAvc2Ftc3VuZy13b3JrZXJzLXVuaW9uLWluLXNvdXRoLWtvcmVhLWtpY2tzLW9mZi10aHJlZS1kYXktc3RyaWtlLS83Njg4OTMyLmh0bWw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiLmh0dHBzOi8vd3d3LmJiYy5jb20vbmV3cy9hcnRpY2xlcy9jZTU4bTIybGpycm_SATJodHRwczovL3d3dy5iYmMuY29tL25ld3MvYXJ0aWNsZXMvY2U1OG0yMmxqcnJvLmFtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>'Suicidal Hysteria': Kim Jong Un's sister hits out at South Korea's live-fire drills</t>
+          <t>With South Korean Rockets, Ukraine Could Wipe Out Russian Warplanes At Their Bases</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-07-07 15:27:46.187815</t>
+          <t>2024-07-06 16:43:46.142641</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYGh0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL25vcnRoLWtvcmVhLWtpbS1zaXN0ZXItZmlyaW5nLWRyaWxscy1mN2EzMGMzNGY4MTIyOWQ0MTI2MTkwMDIzZDYyMjYwYtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiggFodHRwczovL3d3dy5mb3JiZXMuY29tL3NpdGVzL2RhdmlkYXhlLzIwMjQvMDcvMDYvd2l0aC1zb3V0aC1rb3JlYS1yb2NrZXRzLXVrcmFpbmUtY291bGQtd2lwZS1vdXQtcnVzc2lhbi13YXJwbGFuZXMtYXQtdGhlaXItYmFzZXMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>‘Selfish’? South Korean YouTuber promotes single, childless life</t>
+          <t>South Korea summons Russian ambassador as tensions rise with North Korea</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-07-07 15:27:46.202827</t>
+          <t>2024-07-06 16:43:46.163373</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMimQFodHRwczovL3d3dy5zY21wLmNvbS9saWZlc3R5bGUvZmFtaWx5LXJlbGF0aW9uc2hpcHMvYXJ0aWNsZS8zMjY5MTM1L3NlbGZpc2gtc291dGgta29yZWFuLXdvbWFuLXdoby1wcm9tb3Rlcy11bm1hcnJpZWQtY2hpbGRsZXNzLWxpZmUtYmVjb21lcy15b3V0dWJlLXN0YXLSAZkBaHR0cHM6Ly9hbXAuc2NtcC5jb20vbGlmZXN0eWxlL2ZhbWlseS1yZWxhdGlvbnNoaXBzL2FydGljbGUvMzI2OTEzNS9zZWxmaXNoLXNvdXRoLWtvcmVhbi13b21hbi13aG8tcHJvbW90ZXMtdW5tYXJyaWVkLWNoaWxkbGVzcy1saWZlLWJlY29tZXMteW91dHViZS1zdGFy?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiSWh0dHBzOi8vY2EubmV3cy55YWhvby5jb20vc291dGgta29yZWFuLWFjdGl2aXN0cy1mbGV3LWFudGktMDIxMjQ5OTI0Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Korea Box Office: ‘Inside Out 2’ Reaches $48 Million After Strong Fourth Weekend</t>
+          <t>Photos: Inside North Korea summer camp where Russian kids are heading</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-07-07 15:27:46.202827</t>
+          <t>2024-07-06 16:43:46.170957</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYmh0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC9maWxtL25ld3Mva29yZWEtYm94LW9mZmljZS13ZWVrbmQtaW5zaWRlLW91dC0yLWZvdXJ0aC13ZWVrZW5kLTEyMzYwNjIwNTkv0gFmaHR0cHM6Ly92YXJpZXR5LmNvbS8yMDI0L2ZpbG0vbmV3cy9rb3JlYS1ib3gtb2ZmaWNlLXdlZWtuZC1pbnNpZGUtb3V0LTItZm91cnRoLXdlZWtlbmQtMTIzNjA2MjA1OS9hbXAv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiaWh0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcGhvdG9zLWluc2lkZS1ub3J0aC1rb3JlYS1zdW1tZXItY2FtcC1zb25nZG93b24tcnVzc2lhLXNjaG9vbC1raWRzLTIwMjQtN9IBbWh0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vcGhvdG9zLWluc2lkZS1ub3J0aC1rb3JlYS1zdW1tZXItY2FtcC1zb25nZG93b24tcnVzc2lhLXNjaG9vbC1raWRzLTIwMjQtNz9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>"Suicidal Hysteria": Kim Jong Un's Sister Hits Out At South Korea Military Drills</t>
+          <t>Samsung workers' union in South Korea kicks off three-day strike</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-07-07 15:27:46.202827</t>
+          <t>2024-07-07 15:27:46.187135</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMidWh0dHBzOi8vd3d3Lm5kdHYuY29tL3dvcmxkLW5ld3Mvc3VpY2lkYWwtaHlzdGVyaWEta2ltLWpvbmctdW5zLXNpc3Rlci1oaXRzLW91dC1hdC1zb3V0aC1rb3JlYS1taWxpdGFyeS1kcmlsbHMtNjA1NzA1M9IBe2h0dHBzOi8vd3d3Lm5kdHYuY29tL3dvcmxkLW5ld3Mvc3VpY2lkYWwtaHlzdGVyaWEta2ltLWpvbmctdW5zLXNpc3Rlci1oaXRzLW91dC1hdC1zb3V0aC1rb3JlYS1taWxpdGFyeS1kcmlsbHMtNjA1NzA1My9hbXAvMQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2Evc2Ftc3VuZy13b3JrZXJzLXVuaW9uLWluLXNvdXRoLWtvcmVhLWtpY2tzLW9mZi10aHJlZS1kYXktc3RyaWtlLS83Njg4OTMyLmh0bWzSAWlodHRwczovL3d3dy52b2FuZXdzLmNvbS9hbXAvc2Ftc3VuZy13b3JrZXJzLXVuaW9uLWluLXNvdXRoLWtvcmVhLWtpY2tzLW9mZi10aHJlZS1kYXktc3RyaWtlLS83Njg4OTMyLmh0bWw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>If North Korea troops sent to aid Russia in Ukraine, not due to skills: experts</t>
+          <t>China’s big mistake: underestimating North Korea’s nuclear ambitions</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-07-07 15:27:46.202827</t>
+          <t>2024-07-07 15:27:46.235198</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiamh0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vbm9ydGgta29yZWEtdHJvb3BzLXJ1c3NpYS11a3JhaW5lLW51bWJlcnMtbm90LWVmZmVjdGl2ZW5lc3MtZXhwZXJ0cy0yMDI0LTbSAW5odHRwczovL3d3dy5idXNpbmVzc2luc2lkZXIuY29tL25vcnRoLWtvcmVhLXRyb29wcy1ydXNzaWEtdWtyYWluZS1udW1iZXJzLW5vdC1lZmZlY3RpdmVuZXNzLWV4cGVydHMtMjAyNC02P2FtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LnNjbXAuY29tL29waW5pb24vYXNpYS1vcGluaW9uL2FydGljbGUvMzI2OTIxOS9ydXNzaWEtbm9ydGgta29yZWEtcGFjdC1wcmljZS1jaGluYXMtc3RyYXRlZ2ljLXBhdGllbmNl0gFxaHR0cHM6Ly9hbXAuc2NtcC5jb20vb3Bpbmlvbi9hc2lhLW9waW5pb24vYXJ0aWNsZS8zMjY5MjE5L3J1c3NpYS1ub3J0aC1rb3JlYS1wYWN0LXByaWNlLWNoaW5hcy1zdHJhdGVnaWMtcGF0aWVuY2U?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>South Korea appoints Hong Myung-bo as national soccer team's head coach for second time</t>
+          <t>North Korea's Kim Yo Jong accuses S.Korean leader of using tensions as political distraction</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-07-07 15:27:46.219334</t>
+          <t>2024-07-07 16:43:46.147720</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZGh0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL3NvdXRoLWtvcmVhLWNvYWNoLWhvbmctbXl1bmdiby1rbGluc21hbm4tYmI5MTI5ZjM2MTUzNzgwMmFmZDJjYThmN2MxZDc5YzXSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9ub3J0aC1rb3JlYXMta2ltLXlvLWpvbmctY2FsbHMtc291dGgta29yZWFuLWRyaWxscy1wcm92b2NhdGlvbi1rY25hLXNheXMtMjAyNC0wNy0wNy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Global powers clash at United Nations over North Korea</t>
+          <t>NATO to discuss Russia-North Korea military cooperation</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-07-07 15:27:46.219334</t>
+          <t>2024-07-07 16:43:46.147720</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQ2h0dHBzOi8vY2EubmV3cy55YWhvby5jb20vdXMtY29uZnJvbnQtcnVzc2lhLXVuLW92ZXItMDQxMjUxNjk3Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2EvbmF0by10by1kaXNjdXNzLXJ1c3NpYS1ub3J0aC1rb3JlYS1taWxpdGFyeS1jb29wZXJhdGlvbi83Njg1NjE2Lmh0bWzSAWBodHRwczovL3d3dy52b2FuZXdzLmNvbS9hbXAvbmF0by10by1kaXNjdXNzLXJ1c3NpYS1ub3J0aC1rb3JlYS1taWxpdGFyeS1jb29wZXJhdGlvbi83Njg1NjE2Lmh0bWw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>China’s big mistake: underestimating North Korea’s nuclear ambitions</t>
+          <t>'Suicidal Hysteria': Kim Jong Un's sister hits out at South Korea's live-fire drills</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-07-07 15:27:46.235198</t>
+          <t>2024-07-07 16:43:46.152093</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LnNjbXAuY29tL29waW5pb24vYXNpYS1vcGluaW9uL2FydGljbGUvMzI2OTIxOS9ydXNzaWEtbm9ydGgta29yZWEtcGFjdC1wcmljZS1jaGluYXMtc3RyYXRlZ2ljLXBhdGllbmNl0gFxaHR0cHM6Ly9hbXAuc2NtcC5jb20vb3Bpbmlvbi9hc2lhLW9waW5pb24vYXJ0aWNsZS8zMjY5MjE5L3J1c3NpYS1ub3J0aC1rb3JlYS1wYWN0LXByaWNlLWNoaW5hcy1zdHJhdGVnaWMtcGF0aWVuY2U?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYGh0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL25vcnRoLWtvcmVhLWtpbS1zaXN0ZXItZmlyaW5nLWRyaWxscy1mN2EzMGMzNGY4MTIyOWQ0MTI2MTkwMDIzZDYyMjYwYtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Samsung Electronics workers strike as union voice grows in South Korea</t>
+          <t>South Korea's loudspeakers face questions over reach into North</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.171449</t>
+          <t>2024-07-07 16:43:46.153162</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3RlY2hub2xvZ3kvc2Ftc3VuZy13b3JrZXJzLXVuaW9uLXNvdXRoLWtvcmVhLWtpY2tzLW9mZi10aHJlZS1kYXktc3RyaWtlLTIwMjQtMDctMDgv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiUWh0dHBzOi8vY2EubmV3cy55YWhvby5jb20vc291dGgta29yZWFzLWxvdWRzcGVha2Vycy1mYWNlLXF1ZXN0aW9ucy0wMTA0Mzk2MjkuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>North Korea Freedom Week</t>
+          <t>Korea Box Office: ‘Inside Out 2’ Reaches $48 Million After Strong Fourth Weekend</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.171449</t>
+          <t>2024-07-07 16:43:46.167782</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiL2h0dHBzOi8vd3d3LnN0YXRlLmdvdi9ub3J0aC1rb3JlYS1mcmVlZG9tLXdlZWsv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYmh0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC9maWxtL25ld3Mva29yZWEtYm94LW9mZmljZS13ZWVrbmQtaW5zaWRlLW91dC0yLWZvdXJ0aC13ZWVrZW5kLTEyMzYwNjIwNTkv0gFmaHR0cHM6Ly92YXJpZXR5LmNvbS8yMDI0L2ZpbG0vbmV3cy9rb3JlYS1ib3gtb2ZmaWNlLXdlZWtuZC1pbnNpZGUtb3V0LTItZm91cnRoLXdlZWtlbmQtMTIzNjA2MjA1OS9hbXAv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>What’s Behind South Korea’s New Defectors’ Day Holiday?</t>
+          <t>"Suicidal Hysteria": Kim Jong Un's Sister Hits Out At South Korea Military Drills</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.171449</t>
+          <t>2024-07-07 16:43:46.170957</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZWh0dHBzOi8vY2FybmVnaWVlbmRvd21lbnQub3JnL2VtaXNzYXJ5LzIwMjQvMDcvZGVmZWN0b3JzLWRheS1zb3V0aC1rb3JlYS1ob2xpZGF5LW5vcnRoLWtvcmVhLXJlZnVnZWVz0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMidWh0dHBzOi8vd3d3Lm5kdHYuY29tL3dvcmxkLW5ld3Mvc3VpY2lkYWwtaHlzdGVyaWEta2ltLWpvbmctdW5zLXNpc3Rlci1oaXRzLW91dC1hdC1zb3V0aC1rb3JlYS1taWxpdGFyeS1kcmlsbHMtNjA1NzA1M9IBe2h0dHBzOi8vd3d3Lm5kdHYuY29tL3dvcmxkLW5ld3Mvc3VpY2lkYWwtaHlzdGVyaWEta2ltLWpvbmctdW5zLXNpc3Rlci1oaXRzLW91dC1hdC1zb3V0aC1rb3JlYS1taWxpdGFyeS1kcmlsbHMtNjA1NzA1My9hbXAvMQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>The Fallout of Russia’s Veto and Putin’s North Korea Visit</t>
+          <t>South Korea appoints Hong Myung-bo as national soccer team's head coach for second time</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.187815</t>
+          <t>2024-07-07 16:43:46.170957</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiWWh0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvdGhlLWZhbGxvdXQtb2YtcnVzc2lhcy12ZXRvLWFuZC1wdXRpbnMtbm9ydGgta29yZWEtdmlzaXQv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZGh0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL3NvdXRoLWtvcmVhLWNvYWNoLWhvbmctbXl1bmdiby1rbGluc21hbm4tYmI5MTI5ZjM2MTUzNzgwMmFmZDJjYThmN2MxZDc5YzXSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Triangular Tensions: US, China, and the Emerging Russia-North Korea Alliance</t>
+          <t>‘Selfish’? South Korean YouTuber promotes single, childless life</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.187815</t>
+          <t>2024-07-07 16:43:46.170957</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiaGh0dHBzOi8vYXJtc2NvbnRyb2xjZW50ZXIub3JnL3RyaWFuZ3VsYXItdGVuc2lvbnMtdXMtY2hpbmEtYW5kLXRoZS1lbWVyZ2luZy1ydXNzaWEtbm9ydGgta29yZWEtYWxsaWFuY2Uv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMimQFodHRwczovL3d3dy5zY21wLmNvbS9saWZlc3R5bGUvZmFtaWx5LXJlbGF0aW9uc2hpcHMvYXJ0aWNsZS8zMjY5MTM1L3NlbGZpc2gtc291dGgta29yZWFuLXdvbWFuLXdoby1wcm9tb3Rlcy11bm1hcnJpZWQtY2hpbGRsZXNzLWxpZmUtYmVjb21lcy15b3V0dWJlLXN0YXLSAZkBaHR0cHM6Ly9hbXAuc2NtcC5jb20vbGlmZXN0eWxlL2ZhbWlseS1yZWxhdGlvbnNoaXBzL2FydGljbGUvMzI2OTEzNS9zZWxmaXNoLXNvdXRoLWtvcmVhbi13b21hbi13aG8tcHJvbW90ZXMtdW5tYXJyaWVkLWNoaWxkbGVzcy1saWZlLWJlY29tZXMteW91dHViZS1zdGFy?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Hyundai Motor, South Korea union reach tentative wage deal, says union</t>
+          <t>If North Korea troops sent to aid Russia in Ukraine, not due to skills: experts</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.187815</t>
+          <t>2024-07-07 16:43:46.170957</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihgFodHRwczovL3d3dy5yZXV0ZXJzLmNvbS9idXNpbmVzcy9hdXRvcy10cmFuc3BvcnRhdGlvbi9oeXVuZGFpLW1vdG9yLXNvdXRoLWtvcmVhLXVuaW9uLXJlYWNoLXRlbnRhdGl2ZS13YWdlLWRlYWwtc2F5cy11bmlvbi0yMDI0LTA3LTA4L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiamh0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vbm9ydGgta29yZWEtdHJvb3BzLXJ1c3NpYS11a3JhaW5lLW51bWJlcnMtbm90LWVmZmVjdGl2ZW5lc3MtZXhwZXJ0cy0yMDI0LTbSAW5odHRwczovL3d3dy5idXNpbmVzc2luc2lkZXIuY29tL25vcnRoLWtvcmVhLXRyb29wcy1ydXNzaWEtdWtyYWluZS1udW1iZXJzLW5vdC1lZmZlY3RpdmVuZXNzLWV4cGVydHMtMjAyNC02P2FtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>South Korea says it’ll withdraw its plan to suspend licenses of striking doctors to resolve the long medical impasse</t>
+          <t>Global powers clash at United Nations over North Korea</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.187815</t>
+          <t>2024-07-07 16:43:46.170957</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZmh0dHBzOi8vYWJjbmV3cy5nby5jb20vVVMvd2lyZVN0b3J5L3NvdXRoLWtvcmVhLWl0bGwtd2l0aGRyYXctcGxhbi1zdXNwZW5kLWxpY2Vuc2VzLXN0cmlraW5nLTExMTczNjgxNtIBamh0dHBzOi8vYWJjbmV3cy5nby5jb20vYW1wL1VTL3dpcmVTdG9yeS9zb3V0aC1rb3JlYS1pdGxsLXdpdGhkcmF3LXBsYW4tc3VzcGVuZC1saWNlbnNlcy1zdHJpa2luZy0xMTE3MzY4MTY?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQ2h0dHBzOi8vY2EubmV3cy55YWhvby5jb20vdXMtY29uZnJvbnQtcnVzc2lhLXVuLW92ZXItMDQxMjUxNjk3Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>North Korea: Kim Jong Un's sister condemns South's drills</t>
+          <t>South Korea's Yoon again vetoes probe bill into marine's death</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.187815</t>
+          <t>2024-07-08 15:27:46.235198</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiaGh0dHBzOi8vd3d3LmR3LmNvbS9lbi9ub3J0aC1rb3JlYS1raW1zLXNpc3Rlci1jYWxscy1zb3V0aHMtbGl2ZS1maXJlLWRyaWxscy1zdWljaWRhbC1oeXN0ZXJpYS9hLTY5NTkwMTg20gFoaHR0cHM6Ly9hbXAuZHcuY29tL2VuL25vcnRoLWtvcmVhLWtpbXMtc2lzdGVyLWNhbGxzLXNvdXRocy1saXZlLWZpcmUtZHJpbGxzLXN1aWNpZGFsLWh5c3RlcmlhL2EtNjk1OTAxODY?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9zb3V0aC1rb3JlYXMteW9vbi1hZ2Fpbi12ZXRvZXMtcHJvYmUtYmlsbC1pbnRvLW1hcmluZXMtZGVhdGgtMjAyNC0wNy0wOS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Why Korean sunscreens are better than American sunscreens</t>
+          <t>Samsung Electronics workers strike as union voice grows in South Korea</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.187815</t>
+          <t>2024-07-08 16:43:46.124500</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQ2h0dHBzOi8vd3d3Lm1hcmtldHBsYWNlLm9yZy8yMDI0LzA3LzA4L2tvcmVhbi1zdW5zY3JlZW4tcG9wdWxhcml0eS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3RlY2hub2xvZ3kvc2Ftc3VuZy13b3JrZXJzLXVuaW9uLXNvdXRoLWtvcmVhLWtpY2tzLW9mZi10aHJlZS1kYXktc3RyaWtlLTIwMjQtMDctMDgv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Why North Korea matters for the 2024 US election</t>
+          <t>What’s Behind South Korea’s New Defectors’ Day Holiday?</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.187815</t>
+          <t>2024-07-08 16:43:46.124500</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVGh0dHBzOi8vd3d3LmJyb29raW5ncy5lZHUvYXJ0aWNsZXMvd2h5LW5vcnRoLWtvcmVhLW1hdHRlcnMtZm9yLXRoZS0yMDI0LXVzLWVsZWN0aW9uL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vY2FybmVnaWVlbmRvd21lbnQub3JnL2VtaXNzYXJ5LzIwMjQvMDcvZGVmZWN0b3JzLWRheS1zb3V0aC1rb3JlYS1ob2xpZGF5LW5vcnRoLWtvcmVhLXJlZnVnZWVz0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>KRW/USD: Korean Won Liquidity Drops for Late Trades as Korea Debuts New Regime</t>
+          <t>North Korea Freedom Week</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.202827</t>
+          <t>2024-07-08 16:43:46.140123</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTA4L3dvbi1saXF1aWRpdHktZHJvcHMtZm9yLWxhdGUtdHJhZGVzLWFzLWtvcmVhLWRlYnV0cy1uZXctcmVnaW1l0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiL2h0dHBzOi8vd3d3LnN0YXRlLmdvdi9ub3J0aC1rb3JlYS1mcmVlZG9tLXdlZWsv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CDMO Lotte breaks ground on $3.3B production plant in Korea, touts growth goals</t>
+          <t>Triangular Tensions: US, China, and the Emerging Russia-North Korea Alliance</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.202827</t>
+          <t>2024-07-08 16:43:46.150013</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3LmZpZXJjZXBoYXJtYS5jb20vcGhhcm1hL2NkbW8tbG90dGUtc2tldGNoZXMtb3V0LWRldGFpbHMtaXQtYnJlYWtzLWdyb3VuZC0zM2ItcHJvZHVjdGlvbi1wbGFudC1rb3JlYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiaGh0dHBzOi8vYXJtc2NvbnRyb2xjZW50ZXIub3JnL3RyaWFuZ3VsYXItdGVuc2lvbnMtdXMtY2hpbmEtYW5kLXRoZS1lbWVyZ2luZy1ydXNzaWEtbm9ydGgta29yZWEtYWxsaWFuY2Uv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>South Koreans say Chinese word for food threatens their ‘cultural identity’</t>
+          <t>Why North Korea matters for the 2024 US election</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.202827</t>
+          <t>2024-07-08 16:43:46.151026</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMinAFodHRwczovL3d3dy5zY21wLmNvbS9uZXdzL3Blb3BsZS1jdWx0dXJlL3RyZW5kaW5nLWNoaW5hL2FydGljbGUvMzI2OTY3Ny9raW1jaGktZ2F0ZS1jaGluYS1zb3V0aC1rb3JlYS1jdWxpbmFyeS1yb3ctYnJlYWtzLW91dC1vdmVyLXdoYXQtY2FsbC1zcGljeS1zaWRlLWRpc2jSAZwBaHR0cHM6Ly9hbXAuc2NtcC5jb20vbmV3cy9wZW9wbGUtY3VsdHVyZS90cmVuZGluZy1jaGluYS9hcnRpY2xlLzMyNjk2Nzcva2ltY2hpLWdhdGUtY2hpbmEtc291dGgta29yZWEtY3VsaW5hcnktcm93LWJyZWFrcy1vdXQtb3Zlci13aGF0LWNhbGwtc3BpY3ktc2lkZS1kaXNo?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVGh0dHBzOi8vd3d3LmJyb29raW5ncy5lZHUvYXJ0aWNsZXMvd2h5LW5vcnRoLWtvcmVhLW1hdHRlcnMtZm9yLXRoZS0yMDI0LXVzLWVsZWN0aW9uL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ye &amp; Ty Dolla $ign Are Bringing the ‘Vultures’ Listening Experience to Korea</t>
+          <t>The Fallout of Russia’s Veto and Putin’s North Korea Visit</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.218515</t>
+          <t>2024-07-08 16:43:46.151026</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3LmJpbGxib2FyZC5jb20vbXVzaWMvcmItaGlwLWhvcC9rYW55ZS13ZXN0LXR5LWRvbGxhLXNpZ24tdnVsdHVyZXMtbGlzdGVuaW5nLWV2ZW50LWtvcmVhLTEyMzU3MjYyMzQv0gFyaHR0cHM6Ly93d3cuYmlsbGJvYXJkLmNvbS9tdXNpYy9yYi1oaXAtaG9wL2thbnllLXdlc3QtdHktZG9sbGEtc2lnbi12dWx0dXJlcy1saXN0ZW5pbmctZXZlbnQta29yZWEtMTIzNTcyNjIzNC9hbXAv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWWh0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvdGhlLWZhbGxvdXQtb2YtcnVzc2lhcy12ZXRvLWFuZC1wdXRpbnMtbm9ydGgta29yZWEtdmlzaXQv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>The Republic of Korea and UNICEF work together for the education and protection of Ukrainian children living in Romania</t>
+          <t>Hyundai Motor, South Korea union reach tentative wage deal, says union</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.219334</t>
+          <t>2024-07-08 16:43:46.157723</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMigQFodHRwczovL3d3dy51bmljZWYub3JnL3JvbWFuaWEvcHJlc3MtcmVsZWFzZXMvcmVwdWJsaWMta29yZWEtYW5kLXVuaWNlZi13b3JrLXRvZ2V0aGVyLWVkdWNhdGlvbi1hbmQtcHJvdGVjdGlvbi11a3JhaW5pYW4tY2hpbGRyZW7SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihgFodHRwczovL3d3dy5yZXV0ZXJzLmNvbS9idXNpbmVzcy9hdXRvcy10cmFuc3BvcnRhdGlvbi9oeXVuZGFpLW1vdG9yLXNvdXRoLWtvcmVhLXVuaW9uLXJlYWNoLXRlbnRhdGl2ZS13YWdlLWRlYWwtc2F5cy11bmlvbi0yMDI0LTA3LTA4L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>North Korea Neighbor Calls for Nuclear Weapons</t>
+          <t>North Korea: Kim Jong Un's sister condemns South's drills</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.219334</t>
+          <t>2024-07-08 16:43:46.161243</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiTmh0dHBzOi8vd3d3Lm5ld3N3ZWVrLmNvbS9zb3V0aC1rb3JlYW4tcG9saXRpY2lhbi1jYWxscy1udWNsZWFyLXdlYXBvbnMtMTkyMjIwNNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiaGh0dHBzOi8vd3d3LmR3LmNvbS9lbi9ub3J0aC1rb3JlYS1raW1zLXNpc3Rlci1jYWxscy1zb3V0aHMtbGl2ZS1maXJlLWRyaWxscy1zdWljaWRhbC1oeXN0ZXJpYS9hLTY5NTkwMTg20gFoaHR0cHM6Ly9hbXAuZHcuY29tL2VuL25vcnRoLWtvcmVhLWtpbXMtc2lzdGVyLWNhbGxzLXNvdXRocy1saXZlLWZpcmUtZHJpbGxzLXN1aWNpZGFsLWh5c3RlcmlhL2EtNjk1OTAxODY?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Russia-North Korea sign a new treaty</t>
+          <t>Why Korean sunscreens are better than American sunscreens</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.219334</t>
+          <t>2024-07-08 16:43:46.162311</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiS2h0dHBzOi8vd3d3Lm9yZm9ubGluZS5vcmcvZXhwZXJ0LXNwZWFrL3J1c3NpYS1ub3J0aC1rb3JlYS1zaWduLWEtbmV3LXRyZWF0edIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQ2h0dHBzOi8vd3d3Lm1hcmtldHBsYWNlLm9yZy8yMDI0LzA3LzA4L2tvcmVhbi1zdW5zY3JlZW4tcG9wdWxhcml0eS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>North Korea’s shifting satellite allegiance signals China’s waning influence</t>
+          <t>KRW/USD: Korean Won Liquidity Drops for Late Trades as Korea Debuts New Regime</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.219334</t>
+          <t>2024-07-08 16:43:46.167782</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiigFodHRwczovL3d3dy5zY21wLmNvbS9uZXdzL2NoaW5hL21pbGl0YXJ5L2FydGljbGUvMzI2OTU4NS9ub3J0aC1rb3JlYXMtc2hpZnRpbmctc2F0ZWxsaXRlLWFsbGVnaWFuY2UtcnVzc2lhLXNpZ25hbHMtY2hpbmFzLXdhbmluZy1pbmZsdWVuY2XSAYoBaHR0cHM6Ly9hbXAuc2NtcC5jb20vbmV3cy9jaGluYS9taWxpdGFyeS9hcnRpY2xlLzMyNjk1ODUvbm9ydGgta29yZWFzLXNoaWZ0aW5nLXNhdGVsbGl0ZS1hbGxlZ2lhbmNlLXJ1c3NpYS1zaWduYWxzLWNoaW5hcy13YW5pbmctaW5mbHVlbmNl?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTA4L3dvbi1saXF1aWRpdHktZHJvcHMtZm9yLWxhdGUtdHJhZGVzLWFzLWtvcmVhLWRlYnV0cy1uZXctcmVnaW1l0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Greg Abbott’s South Korea trade talks veer into Trump, security, visas</t>
+          <t>CDMO Lotte breaks ground on $3.3B production plant in Korea, touts growth goals</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.219334</t>
+          <t>2024-07-08 16:43:46.170425</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMijQFodHRwczovL3d3dy5kYWxsYXNuZXdzLmNvbS9idXNpbmVzcy9lY29ub215LzIwMjQvMDcvMDgvZ292LWdyZWctYWJib3R0cy1zb3V0aC1rb3JlYS10cmFkZS1kaXNjdXNzaW9uLXZlZXJzLWludG8tdGFsay1vZi10cnVtcC1zZWN1cml0eS12aXNhcy_SAZwBaHR0cHM6Ly93d3cuZGFsbGFzbmV3cy5jb20vYnVzaW5lc3MvZWNvbm9teS8yMDI0LzA3LzA4L2dvdi1ncmVnLWFiYm90dHMtc291dGgta29yZWEtdHJhZGUtZGlzY3Vzc2lvbi12ZWVycy1pbnRvLXRhbGstb2YtdHJ1bXAtc2VjdXJpdHktdmlzYXMvP291dHB1dFR5cGU9YW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3LmZpZXJjZXBoYXJtYS5jb20vcGhhcm1hL2NkbW8tbG90dGUtc2tldGNoZXMtb3V0LWRldGFpbHMtaXQtYnJlYWtzLWdyb3VuZC0zM2ItcHJvZHVjdGlvbi1wbGFudC1rb3JlYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>South Korea's Yoon again vetoes probe bill into marine's death</t>
+          <t>The Republic of Korea and UNICEF work together for the education and protection of Ukrainian children living in Romania</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024-07-08 15:27:46.235198</t>
+          <t>2024-07-08 16:43:46.170957</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9zb3V0aC1rb3JlYXMteW9vbi1hZ2Fpbi12ZXRvZXMtcHJvYmUtYmlsbC1pbnRvLW1hcmluZXMtZGVhdGgtMjAyNC0wNy0wOS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMigQFodHRwczovL3d3dy51bmljZWYub3JnL3JvbWFuaWEvcHJlc3MtcmVsZWFzZXMvcmVwdWJsaWMta29yZWEtYW5kLXVuaWNlZi13b3JrLXRvZ2V0aGVyLWVkdWNhdGlvbi1hbmQtcHJvdGVjdGlvbi11a3JhaW5pYW4tY2hpbGRyZW7SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BTS member Jin expected to take part in Paris Olympics as a torchbearer from South Korea</t>
+          <t>Ye &amp; Ty Dolla $ign Are Bringing the ‘Vultures’ Listening Experience to Korea</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.184889</t>
+          <t>2024-07-08 16:43:46.170957</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicGh0dHBzOi8vYWJjbmV3cy5nby5jb20vRW50ZXJ0YWlubWVudC93aXJlU3RvcnkvYnRzLW1lbWJlci1qaW4tZXhwZWN0ZWQtcGFydC1wYXJpcy1vbHltcGljcy10b3JjaGJlYXJlci0xMTE2Mjk1NTDSAXRodHRwczovL2FiY25ld3MuZ28uY29tL2FtcC9FbnRlcnRhaW5tZW50L3dpcmVTdG9yeS9idHMtbWVtYmVyLWppbi1leHBlY3RlZC1wYXJ0LXBhcmlzLW9seW1waWNzLXRvcmNoYmVhcmVyLTExMTYyOTU1MA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3LmJpbGxib2FyZC5jb20vbXVzaWMvcmItaGlwLWhvcC9rYW55ZS13ZXN0LXR5LWRvbGxhLXNpZ24tdnVsdHVyZXMtbGlzdGVuaW5nLWV2ZW50LWtvcmVhLTEyMzU3MjYyMzQv0gFyaHR0cHM6Ly93d3cuYmlsbGJvYXJkLmNvbS9tdXNpYy9yYi1oaXAtaG9wL2thbnllLXdlc3QtdHktZG9sbGEtc2lnbi12dWx0dXJlcy1saXN0ZW5pbmctZXZlbnQta29yZWEtMTIzNTcyNjIzNC9hbXAv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Video: South Korea to warn NATO of Moscow-Pyongyang threat</t>
+          <t>South Koreans say Chinese word for food threatens their ‘cultural identity’</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.199419</t>
+          <t>2024-07-08 16:43:46.170957</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYGh0dHBzOi8vd3d3LnRoZWdsb2JlYW5kbWFpbC5jb20vd29ybGQvdmlkZW8tc291dGgta29yZWEtdG8td2Fybi1uYXRvLW9mLW1vc2Nvdy1weW9uZ3lhbmctdGhyZWF0L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMinAFodHRwczovL3d3dy5zY21wLmNvbS9uZXdzL3Blb3BsZS1jdWx0dXJlL3RyZW5kaW5nLWNoaW5hL2FydGljbGUvMzI2OTY3Ny9raW1jaGktZ2F0ZS1jaGluYS1zb3V0aC1rb3JlYS1jdWxpbmFyeS1yb3ctYnJlYWtzLW91dC1vdmVyLXdoYXQtY2FsbC1zcGljeS1zaWRlLWRpc2jSAZwBaHR0cHM6Ly9hbXAuc2NtcC5jb20vbmV3cy9wZW9wbGUtY3VsdHVyZS90cmVuZGluZy1jaGluYS9hcnRpY2xlLzMyNjk2Nzcva2ltY2hpLWdhdGUtY2hpbmEtc291dGgta29yZWEtY3VsaW5hcnktcm93LWJyZWFrcy1vdXQtb3Zlci13aGF0LWNhbGwtc3BpY3ktc2lkZS1kaXNo?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SMR ship research institute opened in South Korea</t>
+          <t>North Korea Neighbor Calls for Nuclear Weapons</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.201557</t>
+          <t>2024-07-08 16:43:46.170957</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3Lm5laW1hZ2F6aW5lLmNvbS9uZXdzL3Ntci1zaGlwLXJlc2VhcmNoLWluc3RpdHV0ZS1vcGVuZWQtaW4tc291dGgta29yZWEv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTmh0dHBzOi8vd3d3Lm5ld3N3ZWVrLmNvbS9zb3V0aC1rb3JlYW4tcG9saXRpY2lhbi1jYWxscy1udWNsZWFyLXdlYXBvbnMtMTkyMjIwNNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>22nd Century to Re-Launch and Expand VLN(R) Presence in South Korea</t>
+          <t>Russia-North Korea sign a new treaty</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.217320</t>
+          <t>2024-07-08 16:43:46.187812</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiTGh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vbmV3cy8yMm5kLWNlbnR1cnktbGF1bmNoLWV4cGFuZC12bG4tMTIzMDAwOTI2Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiS2h0dHBzOi8vd3d3Lm9yZm9ubGluZS5vcmcvZXhwZXJ0LXNwZWFrL3J1c3NpYS1ub3J0aC1rb3JlYS1zaWduLWEtbmV3LXRyZWF0edIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>To counter China, NATO and its Asian partners are moving closer under US leadership</t>
+          <t>Greg Abbott’s South Korea trade talks veer into Trump, security, visas</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.218311</t>
+          <t>2024-07-08 16:43:46.187812</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiaGh0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL25hdG8tamFwYW4tc291dGgta29yZWEtYXVzdHJhbGlhLW5ldy16ZWFsYW5kLTZjM2Q5YWE2ZmNjYzEyNTNjYTk5ZWUxNDAwNzNmOTVj0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMijQFodHRwczovL3d3dy5kYWxsYXNuZXdzLmNvbS9idXNpbmVzcy9lY29ub215LzIwMjQvMDcvMDgvZ292LWdyZWctYWJib3R0cy1zb3V0aC1rb3JlYS10cmFkZS1kaXNjdXNzaW9uLXZlZXJzLWludG8tdGFsay1vZi10cnVtcC1zZWN1cml0eS12aXNhcy_SAZwBaHR0cHM6Ly93d3cuZGFsbGFzbmV3cy5jb20vYnVzaW5lc3MvZWNvbm9teS8yMDI0LzA3LzA4L2dvdi1ncmVnLWFiYm90dHMtc291dGgta29yZWEtdHJhZGUtZGlzY3Vzc2lvbi12ZWVycy1pbnRvLXRhbGstb2YtdHJ1bXAtc2VjdXJpdHktdmlzYXMvP291dHB1dFR5cGU9YW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Na Joins South Korea’s Presidential Committee on Mental Health Policy Innovation</t>
+          <t>North Korea’s shifting satellite allegiance signals China’s waning influence</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.222331</t>
+          <t>2024-07-08 16:43:46.189046</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihQFodHRwczovL21lZGljaW5lLnlhbGUuZWR1L2xhYi9nZWxlcm50ZXIvbmV3cy1hcnRpY2xlL25hLWpvaW5zLXNvdXRoLWtvcmVhcy1wcmVzaWRlbnRpYWwtY29tbWl0dGVlLW9uLW1lbnRhbC1oZWFsdGgtcG9saWN5LWlubm92YXRpb24v0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiigFodHRwczovL3d3dy5zY21wLmNvbS9uZXdzL2NoaW5hL21pbGl0YXJ5L2FydGljbGUvMzI2OTU4NS9ub3J0aC1rb3JlYXMtc2hpZnRpbmctc2F0ZWxsaXRlLWFsbGVnaWFuY2UtcnVzc2lhLXNpZ25hbHMtY2hpbmFzLXdhbmluZy1pbmZsdWVuY2XSAYoBaHR0cHM6Ly9hbXAuc2NtcC5jb20vbmV3cy9jaGluYS9taWxpdGFyeS9hcnRpY2xlLzMyNjk1ODUvbm9ydGgta29yZWFzLXNoaWZ0aW5nLXNhdGVsbGl0ZS1hbGxlZ2lhbmNlLXJ1c3NpYS1zaWduYWxzLWNoaW5hcy13YW5pbmctaW5mbHVlbmNl?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>South Korea, Thailand launch first round of talks for trade deal</t>
+          <t>Seoul Warns of Threat From Russia and North Korea</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.223335</t>
+          <t>2024-07-09 15:32:13.502382</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiOGh0dHBzOi8vd3d3Lm5hdGlvbnRoYWlsYW5kLmNvbS9ibG9ncy9uZXdzL3dvcmxkLzQwMDM5NTQx0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiRmh0dHBzOi8vd3d3Lm5ld3N3ZWVrLmNvbS9zZW91bC13YXJucy10aHJlYXQtcnVzc2lhLW5vcnRoLWtvcmVhLTE5MjI4NDnSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>South Korea sends athletes for joint training at North Korean ski resort</t>
+          <t>Video: South Korea to warn NATO of Moscow-Pyongyang threat</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.224779</t>
+          <t>2024-07-09 16:43:08.727308</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vY2Euc3R5bGUueWFob28uY29tL3N0eWxlL3NvdXRoLWtvcmVhLXNheXMtYmVnaW4tam9pbnQtdHJhaW5pbmctbm9ydGgta29yZWFuLTAwMDk0MDA2MC0tb2x5Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYGh0dHBzOi8vd3d3LnRoZWdsb2JlYW5kbWFpbC5jb20vd29ybGQvdmlkZW8tc291dGgta29yZWEtdG8td2Fybi1uYXRvLW9mLW1vc2Nvdy1weW9uZ3lhbmctdGhyZWF0L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>High-profile sex offender Jung Joon-young spotted in France</t>
+          <t>BTS member Jin expected to take part in Paris Olympics as a torchbearer from South Korea</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.224779</t>
+          <t>2024-07-09 16:43:08.727308</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgzMjAuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODMyMA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicGh0dHBzOi8vYWJjbmV3cy5nby5jb20vRW50ZXJ0YWlubWVudC93aXJlU3RvcnkvYnRzLW1lbWJlci1qaW4tZXhwZWN0ZWQtcGFydC1wYXJpcy1vbHltcGljcy10b3JjaGJlYXJlci0xMTE2Mjk1NTDSAXRodHRwczovL2FiY25ld3MuZ28uY29tL2FtcC9FbnRlcnRhaW5tZW50L3dpcmVTdG9yeS9idHMtbWVtYmVyLWppbi1leHBlY3RlZC1wYXJ0LXBhcmlzLW9seW1waWNzLXRvcmNoYmVhcmVyLTExMTYyOTU1MA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Seoul Warns of Threat From Russia and North Korea</t>
+          <t>22nd Century to Re-Launch and Expand VLN(R) Presence in South Korea</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.224779</t>
+          <t>2024-07-09 16:43:08.741819</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiRmh0dHBzOi8vd3d3Lm5ld3N3ZWVrLmNvbS9zZW91bC13YXJucy10aHJlYXQtcnVzc2lhLW5vcnRoLWtvcmVhLTE5MjI4NDnSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTGh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vbmV3cy8yMm5kLWNlbnR1cnktbGF1bmNoLWV4cGFuZC12bG4tMTIzMDAwOTI2Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Becoming in Korea</t>
+          <t>Korea’s Byeong Hun An ready to put pedal to metal at Genesis Scottish Open</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.232763</t>
+          <t>2024-07-09 16:43:08.741819</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiNWh0dHBzOi8vb3Bpbmlvbi5pbnF1aXJlci5uZXQvMTc1MDU4L2JlY29taW5nLWluLWtvcmVh0gE5aHR0cHM6Ly9vcGluaW9uLmlucXVpcmVyLm5ldC8xNzUwNTgvYmVjb21pbmctaW4ta29yZWEvYW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihQFodHRwczovL3d3dy5wZ2F0b3VyLmNvbS9hcnRpY2xlL25ld3MvbGF0ZXN0LzIwMjQvMDcvMDkva29yZWEtcy1ieWVvbmctaHVuLWFuLXJlYWR5LXRvLXB1dC1wZWRhbC10by10aGUtbWV0YWwtYXQtZ2VuZXNpcy1zY290dGlzaC1vcGVu0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>North Korean Soldiers Head to Russia for Training</t>
+          <t>North Korea stokes rift with Seoul, emboldened by Russian support</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.233772</t>
+          <t>2024-07-09 16:43:08.741819</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiS2h0dHBzOi8vd3d3Lm5ld3N3ZWVrLmNvbS9ub3J0aC1rb3JlYW4tc29sZGllcnMtaGVhZC1ydXNzaWEtdHJhaW5pbmctMTkyMjg2ONIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMid2h0dHBzOi8vYXNpYS5uaWtrZWkuY29tL1Nwb3RsaWdodC9Ob3J0aC1Lb3JlYS10ZW5zaW9ucy9Ob3J0aC1Lb3JlYS1zdG9rZXMtcmlmdC13aXRoLVNlb3VsLWVtYm9sZGVuZWQtYnktUnVzc2lhbi1zdXBwb3J00gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>South Korea plagued by high rates of teacher suicide driven by pressure and a lack of support</t>
+          <t>SMR ship research institute opened in South Korea</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.234771</t>
+          <t>2024-07-09 16:43:08.741819</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3LmFiYy5uZXQuYXUvbmV3cy8yMDI0LTA3LTEwL3NvdXRoLWtvcmVhLXNlb3VsLXRlYWNoZXItc3VpY2lkZS1zY2hvb2wtcHJlc3N1cmUvMTA0MDQ3Mzg20gEoaHR0cHM6Ly9hbXAuYWJjLm5ldC5hdS9hcnRpY2xlLzEwNDA0NzM4Ng?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3Lm5laW1hZ2F6aW5lLmNvbS9uZXdzL3Ntci1zaGlwLXJlc2VhcmNoLWluc3RpdHV0ZS1vcGVuZWQtaW4tc291dGgta29yZWEv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Evalend pens orders for MR1 tankers in South Korea</t>
+          <t>To counter China, NATO and its Asian partners are moving closer under US leadership</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:35.235772</t>
+          <t>2024-07-09 16:43:08.741819</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiSWh0dHBzOi8vc3BsYXNoMjQ3LmNvbS9ldmFsZW5kLXBlbnMtb3JkZXJzLWZvci1tcjEtdGFua2Vycy1pbi1zb3V0aC1rb3JlYS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiaGh0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL25hdG8tamFwYW4tc291dGgta29yZWEtYXVzdHJhbGlhLW5ldy16ZWFsYW5kLTZjM2Q5YWE2ZmNjYzEyNTNjYTk5ZWUxNDAwNzNmOTVj0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>What South Korea Can Accomplish at NATO To Help End the War in Ukraine</t>
+          <t>High-profile sex offender Jung Joon-young spotted in France</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.171449</t>
+          <t>2024-07-09 16:43:08.757936</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvd2hhdC1zb3V0aC1rb3JlYS1jYW4tYWNjb21wbGlzaC1hdC1uYXRvLXRvLWhlbHAtZW5kLXRoZS13YXItaW4tdWtyYWluZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgzMjAuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODMyMA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Driver whose car struck pedestrians in South Korea will face accidental homicide investigation</t>
+          <t>South Korea plagued by high rates of teacher suicide driven by pressure and a lack of support</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.171449</t>
+          <t>2024-07-09 16:43:08.757936</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMia2h0dHBzOi8vYWJjbmV3cy5nby5jb20vSW50ZXJuYXRpb25hbC93aXJlU3RvcnkvZHJpdmVyLWludm9sdmVkLWJpZy1kZWFkbHktY2FyLWFjY2lkZW50LXNlb3VsLWZhY2UtMTExNjAwOTEw0gFvaHR0cHM6Ly9hYmNuZXdzLmdvLmNvbS9hbXAvSW50ZXJuYXRpb25hbC93aXJlU3RvcnkvZHJpdmVyLWludm9sdmVkLWJpZy1kZWFkbHktY2FyLWFjY2lkZW50LXNlb3VsLWZhY2UtMTExNjAwOTEw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3LmFiYy5uZXQuYXUvbmV3cy8yMDI0LTA3LTEwL3NvdXRoLWtvcmVhLXNlb3VsLXRlYWNoZXItc3VpY2lkZS1zY2hvb2wtcHJlc3N1cmUvMTA0MDQ3Mzg20gEoaHR0cHM6Ly9hbXAuYWJjLm5ldC5hdS9hcnRpY2xlLzEwNDA0NzM4Ng?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Suspected North Korean hypersonic missile exploded in flight, South Korea says</t>
+          <t>North Korea, Russia Strengthen Military Ties</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.171449</t>
+          <t>2024-07-09 16:43:08.757936</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibGh0dHBzOi8vYWJjbmV3cy5nby5jb20vSW50ZXJuYXRpb25hbC93aXJlU3Rvcnkvbm9ydGgta29yZWEtZmlyZXMtYmFsbGlzdGljLW1pc3NpbGUtc2VhLXNvdXRoLWtvcmVhLTExMTQyMTAxMtIBcGh0dHBzOi8vYWJjbmV3cy5nby5jb20vYW1wL0ludGVybmF0aW9uYWwvd2lyZVN0b3J5L25vcnRoLWtvcmVhLWZpcmVzLWJhbGxpc3RpYy1taXNzaWxlLXNlYS1zb3V0aC1rb3JlYS0xMTE0MjEwMTI?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWGh0dHBzOi8vd3d3LmFybXNjb250cm9sLm9yZy9hY3QvMjAyNC0wNy9uZXdzL25vcnRoLWtvcmVhLXJ1c3NpYS1zdHJlbmd0aGVuLW1pbGl0YXJ5LXRpZXPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>No rift over cost of U.S. troops in South Korea if Trump elected, says former Trump adviser</t>
+          <t>Na Joins South Korea’s Presidential Committee on Mental Health Policy Innovation</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.187815</t>
+          <t>2024-07-09 16:43:08.757936</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMidGh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL25vLXJpZnQtb3Zlci1jb3N0LXVzLXRyb29wcy1zb3V0aC1rb3JlYS1pZi10cnVtcC1lbGVjdGVkLXNheXMtZm9ybWVyLXRydW1wLTIwMjQtMDctMDkv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihQFodHRwczovL21lZGljaW5lLnlhbGUuZWR1L2xhYi9nZWxlcm50ZXIvbmV3cy1hcnRpY2xlL25hLWpvaW5zLXNvdXRoLWtvcmVhcy1wcmVzaWRlbnRpYWwtY29tbWl0dGVlLW9uLW1lbnRhbC1oZWFsdGgtcG9saWN5LWlubm92YXRpb24v0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>OECD Employment Outlook 2024 - Country Notes: Korea</t>
+          <t>South Korea, Thailand launch first round of talks for trade deal</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.187815</t>
+          <t>2024-07-09 16:43:08.757936</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicmh0dHBzOi8vd3d3Lm9lY2Qub3JnL2VuL3B1YmxpY2F0aW9ucy9vZWNkLWVtcGxveW1lbnQtb3V0bG9vay0yMDI0LWNvdW50cnktbm90ZXNfZDZjODQ0NzUtZW4va29yZWFfNjM2ZTRjN2EtZW4uaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiOGh0dHBzOi8vd3d3Lm5hdGlvbnRoYWlsYW5kLmNvbS9ibG9ncy9uZXdzL3dvcmxkLzQwMDM5NTQx0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Exclusive: South Korea's Yoon to discuss Pyongyang's 'distinct threat' to Europe at NATO</t>
+          <t>South Korea sends athletes for joint training at North Korean ski resort</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.187815</t>
+          <t>2024-07-09 16:43:08.757936</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMid2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9zb3V0aC1rb3JlYXMteW9vbi1kaXNjdXNzLXB5b25neWFuZ3MtZGlzdGluY3QtdGhyZWF0LWV1cm9wZS1uYXRvLTIwMjQtMDctMDgv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vY2Euc3R5bGUueWFob28uY29tL3N0eWxlL3NvdXRoLWtvcmVhLXNheXMtYmVnaW4tam9pbnQtdHJhaW5pbmctbm9ydGgta29yZWFuLTAwMDk0MDA2MC0tb2x5Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>South Korea abandons plan to suspend licenses of striking doctors to resolve medical impasse</t>
+          <t>Becoming in Korea</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.187815</t>
+          <t>2024-07-09 16:43:08.757936</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibWh0dHBzOi8vYWJjbmV3cy5nby5jb20vSGVhbHRoL3dpcmVTdG9yeS9zb3V0aC1rb3JlYS13aXRoZHJhdy1wbGFuLXN1c3BlbmQtbGljZW5zZXMtc3RyaWtpbmctZG9jdG9ycy0xMTE3MzY4MjHSAXFodHRwczovL2FiY25ld3MuZ28uY29tL2FtcC9IZWFsdGgvd2lyZVN0b3J5L3NvdXRoLWtvcmVhLXdpdGhkcmF3LXBsYW4tc3VzcGVuZC1saWNlbnNlcy1zdHJpa2luZy1kb2N0b3JzLTExMTczNjgyMQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiNWh0dHBzOi8vb3Bpbmlvbi5pbnF1aXJlci5uZXQvMTc1MDU4L2JlY29taW5nLWluLWtvcmVh0gE5aHR0cHM6Ly9vcGluaW9uLmlucXVpcmVyLm5ldC8xNzUwNTgvYmVjb21pbmctaW4ta29yZWEvYW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>When I Visited South Korea Last Year, My Blended Identity Complicated Everything</t>
+          <t>Evalend pens orders for MR1 tankers in South Korea</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.187815</t>
+          <t>2024-07-09 16:43:08.757936</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3Lmh1ZmZwb3N0LmNvbS9lbnRyeS92aXNpdC1zb3V0aC1rb3JlYS1hcy1rb3JlYW4tYW1lcmljYW5fbl82NjhjMzA2YWU0YjA5MDAzMjg5YjQ2MmbSAWJodHRwczovL3d3dy5odWZmcG9zdC5jb20vZW50cnkvdmlzaXQtc291dGgta29yZWEtYXMta29yZWFuLWFtZXJpY2FuX25fNjY4YzMwNmFlNGIwOTAwMzI4OWI0NjJmL2FtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiSWh0dHBzOi8vc3BsYXNoMjQ3LmNvbS9ldmFsZW5kLXBlbnMtb3JkZXJzLWZvci1tcjEtdGFua2Vycy1pbi1zb3V0aC1rb3JlYS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Gender is reshaping South Korea’s electoral landscape</t>
+          <t>North Korean Soldiers Head to Russia for Training</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.202827</t>
+          <t>2024-07-09 16:43:08.757936</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiWmh0dHBzOi8vZWFzdGFzaWFmb3J1bS5vcmcvMjAyNC8wNy8wOS9nZW5kZXItaXMtcmVzaGFwaW5nLXNvdXRoLWtvcmVhcy1lbGVjdG9yYWwtbGFuZHNjYXBlL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiS2h0dHBzOi8vd3d3Lm5ld3N3ZWVrLmNvbS9ub3J0aC1rb3JlYW4tc29sZGllcnMtaGVhZC1ydXNzaWEtdHJhaW5pbmctMTkyMjg2ONIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Historic Parallel: Why Russia Is Likely to Abandon Its Korean Equidistance Strategy</t>
+          <t>South Korea to probe Blackpink’s Jennie’s ‘vaping incident’ after online outrage</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.202827</t>
+          <t>2024-07-09 16:43:08.773673</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LjM4bm9ydGgub3JnLzIwMjQvMDcvaGlzdG9yaWMtcGFyYWxsZWwtd2h5LXJ1c3NpYS1pcy1saWtlbHktdG8tYWJhbmRvbi1pdHMta29yZWFuLWVxdWlkaXN0YW5jZS1zdHJhdGVneS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiigFodHRwczovL3d3dy5zY21wLmNvbS9uZXdzL2FzaWEvZWFzdC1hc2lhL2FydGljbGUvMzI2OTc4OC9ibGFja3BpbmtzLWplbm5pZXMtdmFwaW5nLWluY2lkZW50LXVuZGVyLWludmVzdGlnYXRpb24tc291dGgta29yZWEtYWZ0ZXItcGV0aXRpb27SAYoBaHR0cHM6Ly9hbXAuc2NtcC5jb20vbmV3cy9hc2lhL2Vhc3QtYXNpYS9hcnRpY2xlLzMyNjk3ODgvYmxhY2twaW5rcy1qZW5uaWVzLXZhcGluZy1pbmNpZGVudC11bmRlci1pbnZlc3RpZ2F0aW9uLXNvdXRoLWtvcmVhLWFmdGVyLXBldGl0aW9u?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>South Korea sees its first 'robot suicide': Here's what caused it</t>
+          <t>South Korea politician blames women for rising male suicides</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.219334</t>
+          <t>2024-07-09 16:43:08.773673</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMijwFodHRwczovL3RpbWVzb2ZpbmRpYS5pbmRpYXRpbWVzLmNvbS90ZWNobm9sb2d5L3RlY2gtbmV3cy9zb3V0aC1rb3JlYS1zZWVzLWl0cy1maXJzdC1yb2JvdC1zdWNpZGUtaGVyZXMtd2hhdC1jYXVzZWQtaXQvYXJ0aWNsZXNob3cvMTExNTE3MzkxLmNtc9IBkwFodHRwczovL3RpbWVzb2ZpbmRpYS5pbmRpYXRpbWVzLmNvbS90ZWNobm9sb2d5L3RlY2gtbmV3cy9zb3V0aC1rb3JlYS1zZWVzLWl0cy1maXJzdC1yb2JvdC1zdWNpZGUtaGVyZXMtd2hhdC1jYXVzZWQtaXQvYW1wX2FydGljbGVzaG93LzExMTUxNzM5MS5jbXM?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTGh0dHBzOi8vY2EubmV3cy55YWhvby5jb20vc291dGgta29yZWEtcG9saXRpY2lhbi1ibGFtZXMtd29tZW4tMjExMjI4MjI1Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>The Russia-North Korea Military Alliance: Reducing Its Negative Fallout</t>
+          <t>Kim Il Sung solved ‘succession problem,’ North Korea says 30 years after death</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.219334</t>
+          <t>2024-07-09 16:43:08.773673</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvdGhlLXJ1c3NpYS1ub3J0aC1rb3JlYS1taWxpdGFyeS1hbGxpYW5jZS1yZWR1Y2luZy1pdHMtbmVnYXRpdmUtZmFsbG91dC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3Lm5rbmV3cy5vcmcvMjAyNC8wNy9raW0taWwtc3VuZy1zb2x2ZWQtc3VjY2Vzc2lvbi1wcm9ibGVtLW5vcnRoLWtvcmVhLXNheXMtMzAteWVhcnMtYWZ0ZXItZGVhdGgv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Korea’s Byeong Hun An ready to put pedal to metal at Genesis Scottish Open</t>
+          <t>Driver whose car struck pedestrians in South Korea will face accidental homicide investigation</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.219334</t>
+          <t>2024-07-09 16:43:46.124500</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMijwFodHRwczovL3d3dy5wZ2F0b3VyLmNvbS9hcnRpY2xlL25ld3MvbGF0ZXN0LzIwMjQvMDcvMDkva29yZWEtcy1ieWVvbmctaHVuLWFuLXJlYWR5LXRvLXB1dC1wZWRhbC10by10aGUtbWV0YWwtYXQtZ2VuZXNpcy1zY290dGlzaC1vcGVuP3dlYnZpZXc9MdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vYWJjbmV3cy5nby5jb20vSW50ZXJuYXRpb25hbC93aXJlU3RvcnkvZHJpdmVyLWludm9sdmVkLWJpZy1kZWFkbHktY2FyLWFjY2lkZW50LXNlb3VsLWZhY2UtMTExNjAwOTEw0gFvaHR0cHM6Ly9hYmNuZXdzLmdvLmNvbS9hbXAvSW50ZXJuYXRpb25hbC93aXJlU3RvcnkvZHJpdmVyLWludm9sdmVkLWJpZy1kZWFkbHktY2FyLWFjY2lkZW50LXNlb3VsLWZhY2UtMTExNjAwOTEw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>North Korea stokes rift with Seoul, emboldened by Russian support</t>
+          <t>What South Korea Can Accomplish at NATO To Help End the War in Ukraine</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024-07-09 15:27:46.234345</t>
+          <t>2024-07-09 16:43:46.144563</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMid2h0dHBzOi8vYXNpYS5uaWtrZWkuY29tL1Nwb3RsaWdodC9Ob3J0aC1Lb3JlYS10ZW5zaW9ucy9Ob3J0aC1Lb3JlYS1zdG9rZXMtcmlmdC13aXRoLVNlb3VsLWVtYm9sZGVuZWQtYnktUnVzc2lhbi1zdXBwb3J00gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvd2hhdC1zb3V0aC1rb3JlYS1jYW4tYWNjb21wbGlzaC1hdC1uYXRvLXRvLWhlbHAtZW5kLXRoZS13YXItaW4tdWtyYWluZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>North Korea, Russia Strengthen Military Ties</t>
+          <t>When I Visited South Korea Last Year, My Blended Identity Complicated Everything</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024-07-09 16:27:35.216239</t>
+          <t>2024-07-09 16:43:46.145635</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiWGh0dHBzOi8vd3d3LmFybXNjb250cm9sLm9yZy9hY3QvMjAyNC0wNy9uZXdzL25vcnRoLWtvcmVhLXJ1c3NpYS1zdHJlbmd0aGVuLW1pbGl0YXJ5LXRpZXPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3Lmh1ZmZwb3N0LmNvbS9lbnRyeS92aXNpdC1zb3V0aC1rb3JlYS1hcy1rb3JlYW4tYW1lcmljYW5fbl82NjhjMzA2YWU0YjA5MDAzMjg5YjQ2MmbSAWJodHRwczovL3d3dy5odWZmcG9zdC5jb20vZW50cnkvdmlzaXQtc291dGgta29yZWEtYXMta29yZWFuLWFtZXJpY2FuX25fNjY4YzMwNmFlNGIwOTAwMzI4OWI0NjJmL2FtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>South Korea politician blames women for rising male suicides</t>
+          <t>Exclusive: South Korea's Yoon to discuss Pyongyang's 'distinct threat' to Europe at NATO</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024-07-09 16:27:35.224779</t>
+          <t>2024-07-09 16:43:46.148944</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiTGh0dHBzOi8vY2EubmV3cy55YWhvby5jb20vc291dGgta29yZWEtcG9saXRpY2lhbi1ibGFtZXMtd29tZW4tMjExMjI4MjI1Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMid2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9zb3V0aC1rb3JlYXMteW9vbi1kaXNjdXNzLXB5b25neWFuZ3MtZGlzdGluY3QtdGhyZWF0LWV1cm9wZS1uYXRvLTIwMjQtMDctMDgv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>VietJet expands routes to China, South Korea</t>
+          <t>No rift over cost of U.S. troops in South Korea if Trump elected, says former Trump adviser</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024-07-09 18:27:35.233772</t>
+          <t>2024-07-09 16:43:46.150013</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiRmh0dHBzOi8vYXNpYW5hdmlhdGlvbi5jb20vdmlldGpldC1leHBhbmRzLXJvdXRlcy10by1jaGluYS1zb3V0aC1rb3JlYS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMidGh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL25vLXJpZnQtb3Zlci1jb3N0LXVzLXRyb29wcy1zb3V0aC1rb3JlYS1pZi10cnVtcC1lbGVjdGVkLXNheXMtZm9ybWVyLXRydW1wLTIwMjQtMDctMDkv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ex-Morgan Stanley Banker’s Fund Raises $3.4 Billion, Beating Asia Rivals</t>
+          <t>OECD Employment Outlook 2024 - Country Notes: Korea</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024-07-09 19:27:35.200722</t>
+          <t>2024-07-09 16:43:46.157723</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihwFodHRwczovL3d3dy5ibG9vbWJlcmcuY29tL25ld3MvYXJ0aWNsZXMvMjAyNC0wNy0xMC9rb3JlYS1zLXRvcC1wZS1maXJtLXJhaXNlcy0zLTQtYmlsbGlvbi1iZWF0aW5nLWFzaWEtcml2YWxzP3NybmQ9aG9tZXBhZ2UtbWlkZGxlLWVhc3TSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicmh0dHBzOi8vd3d3Lm9lY2Qub3JnL2VuL3B1YmxpY2F0aW9ucy9vZWNkLWVtcGxveW1lbnQtb3V0bG9vay0yMDI0LWNvdW50cnktbm90ZXNfZDZjODQ0NzUtZW4va29yZWFfNjM2ZTRjN2EtZW4uaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Putin Is Meeting a Lot of World Leaders for a Global ‘Outcast’</t>
+          <t>Gender is reshaping South Korea’s electoral landscape</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024-07-09 19:27:35.201557</t>
+          <t>2024-07-09 16:43:46.167782</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTEwL3B1dGluLWlzLW1lZXRpbmctYS1sb3Qtb2Ytd29ybGQtbGVhZGVycy1mb3ItYS1nbG9iYWwtb3V0Y2FzdNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWmh0dHBzOi8vZWFzdGFzaWFmb3J1bS5vcmcvMjAyNC8wNy8wOS9nZW5kZXItaXMtcmVzaGFwaW5nLXNvdXRoLWtvcmVhcy1lbGVjdG9yYWwtbGFuZHNjYXBlL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Flying aboard the Ghostrider, a deadly aircraft carrying America’s biggest gun in the sky</t>
+          <t>South Korea sees its first 'robot suicide': Here's what caused it</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024-07-09 19:27:35.201557</t>
+          <t>2024-07-09 16:43:46.170957</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiX2h0dHBzOi8vYW1wLmNubi5jb20vY25uLzIwMjQvMDcvMDkvYXNpYS9rb3JlYS1hYzEzMGotZ2hvc3RyaWRlci1ndW5zaGlwLWJpZ2dlc3QtZ3VuLWludGwtaG5rLW1s0gFfaHR0cHM6Ly9hbXAuY25uLmNvbS9jbm4vMjAyNC8wNy8wOS9hc2lhL2tvcmVhLWFjMTMwai1naG9zdHJpZGVyLWd1bnNoaXAtYmlnZ2VzdC1ndW4taW50bC1obmstbWw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMijwFodHRwczovL3RpbWVzb2ZpbmRpYS5pbmRpYXRpbWVzLmNvbS90ZWNobm9sb2d5L3RlY2gtbmV3cy9zb3V0aC1rb3JlYS1zZWVzLWl0cy1maXJzdC1yb2JvdC1zdWNpZGUtaGVyZXMtd2hhdC1jYXVzZWQtaXQvYXJ0aWNsZXNob3cvMTExNTE3MzkxLmNtc9IBkwFodHRwczovL3RpbWVzb2ZpbmRpYS5pbmRpYXRpbWVzLmNvbS90ZWNobm9sb2d5L3RlY2gtbmV3cy9zb3V0aC1rb3JlYS1zZWVzLWl0cy1maXJzdC1yb2JvdC1zdWNpZGUtaGVyZXMtd2hhdC1jYXVzZWQtaXQvYW1wX2FydGljbGVzaG93LzExMTUxNzM5MS5jbXM?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>North Korea-Russia arms trade a global threat, says South Korea President Yoon</t>
+          <t>Historic Parallel: Why Russia Is Likely to Abandon Its Korean Equidistance Strategy</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024-07-09 19:27:46.202827</t>
+          <t>2024-07-09 16:43:46.170957</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMidWh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL25vcnRoLWtvcmVhLXJ1c3NpYS1hcm1zLXRyYWRlLWdsb2JhbC10aHJlYXQtc2F5cy1zb3V0aC1rb3JlYS1wcmVzaWRlbnQteW9vbi0yMDI0LTA3LTA5L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LjM4bm9ydGgub3JnLzIwMjQvMDcvaGlzdG9yaWMtcGFyYWxsZWwtd2h5LXJ1c3NpYS1pcy1saWtlbHktdG8tYWJhbmRvbi1pdHMta29yZWFuLWVxdWlkaXN0YW5jZS1zdHJhdGVneS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>South Korea Samsung Union Declares 'Indefinite General Strike'</t>
+          <t>The Russia-North Korea Military Alliance: Reducing Its Negative Fallout</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024-07-09 20:27:35.201557</t>
+          <t>2024-07-09 16:43:46.170957</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL25ld3Mvc291dGgta29yZWEtc2Ftc3VuZy11bmlvbi1kZWNsYXJlcy1pbmRlZmluaXRlLWdlbmVyYWwtc3RyaWtlLTQxNGM3ZTk20gFmaHR0cHM6Ly93d3cuYmFycm9ucy5jb20vYW1wL25ld3Mvc291dGgta29yZWEtc2Ftc3VuZy11bmlvbi1kZWNsYXJlcy1pbmRlZmluaXRlLWdlbmVyYWwtc3RyaWtlLTQxNGM3ZTk2?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvdGhlLXJ1c3NpYS1ub3J0aC1rb3JlYS1taWxpdGFyeS1hbGxpYW5jZS1yZWR1Y2luZy1pdHMtbmVnYXRpdmUtZmFsbG91dC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Korea’s CJ ENM Pumps $82 Million Into Alliance With KT’s Studio Genie</t>
+          <t>VietJet expands routes to China, South Korea</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024-07-09 20:27:35.201557</t>
+          <t>2024-07-09 18:43:08.773673</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiwwJodHRwczovL2NhLm1vdmllcy55YWhvby5jb20vbmV3cy9rb3JlYS1jai1lbm0tcHVtcHMtODItMTAzMzA3OTQ5Lmh0bWw_Z3VjY291bnRlcj0xJmd1Y2VfcmVmZXJyZXI9YUhSMGNITTZMeTkzZDNjdVoyOXZaMnhsTG1OdmJTOCZndWNlX3JlZmVycmVyX3NpZz1BUUFBQUl5MEl4NGxDVi13YTh2WjN5WThOODNwUURoQWVPWWNZdGlEZ0lJaHp0STE0WWxzVmF1QmVJU0IxYlh0MUw5bmFVczhYYW9tSExZTTFDUmtFZkwtc285U2NxSkdHN1dYaG9LbjJwdElOVnJ4Vld0LXpKd3Q4eTFOZG1uYnU5eVZSeUpuQXdoMlN2SG93Q0ZMZDVDdVVna2VhcVE2eFZLVzVyb1FJU2NTaDEwT9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiRmh0dHBzOi8vYXNpYW5hdmlhdGlvbi5jb20vdmlldGpldC1leHBhbmRzLXJvdXRlcy10by1jaGluYS1zb3V0aC1rb3JlYS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>N. Korea slams Japan's additional release of treated radioactive water from Fukushima power plant</t>
+          <t>Ex-Morgan Stanley Banker’s Fund Raises $3.4 Billion, Beating Asia Rivals</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024-07-09 20:27:35.224779</t>
+          <t>2024-07-09 19:43:08.741819</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzEwM18zNzgzNTIuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM1Mg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihwFodHRwczovL3d3dy5ibG9vbWJlcmcuY29tL25ld3MvYXJ0aWNsZXMvMjAyNC0wNy0xMC9rb3JlYS1zLXRvcC1wZS1maXJtLXJhaXNlcy0zLTQtYmlsbGlvbi1iZWF0aW5nLWFzaWEtcml2YWxzP3NybmQ9aG9tZXBhZ2UtbWlkZGxlLWVhc3TSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>South Korea's Hanwha Aerospace wins $1 bln order from Romania for self-propelled howitzers</t>
+          <t>Korea’s CJ ENM Pumps $82 Million Into Alliance With KT’s Studio Genie</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024-07-09 20:27:46.187815</t>
+          <t>2024-07-09 19:43:08.741819</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiggFodHRwczovL3d3dy5yZXV0ZXJzLmNvbS9idXNpbmVzcy9hZXJvc3BhY2UtZGVmZW5zZS9zb3V0aC1rb3JlYXMtaGFud2hhLWFlcm9zcGFjZS13aW5zLTEtYmxuLW9yZGVyLXJvbWFuaWEtazktaG93aXR6ZXJzLTIwMjQtMDctMDkv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiwwJodHRwczovL2NhLm1vdmllcy55YWhvby5jb20vbmV3cy9rb3JlYS1jai1lbm0tcHVtcHMtODItMTAzMzA3OTQ5Lmh0bWw_Z3VjY291bnRlcj0xJmd1Y2VfcmVmZXJyZXI9YUhSMGNITTZMeTkzZDNjdVoyOXZaMnhsTG1OdmJTOCZndWNlX3JlZmVycmVyX3NpZz1BUUFBQUl5MEl4NGxDVi13YTh2WjN5WThOODNwUURoQWVPWWNZdGlEZ0lJaHp0STE0WWxzVmF1QmVJU0IxYlh0MUw5bmFVczhYYW9tSExZTTFDUmtFZkwtc285U2NxSkdHN1dYaG9LbjJwdElOVnJ4Vld0LXpKd3Q4eTFOZG1uYnU5eVZSeUpuQXdoMlN2SG93Q0ZMZDVDdVVna2VhcVE2eFZLVzVyb1FJU2NTaDEwT9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Rains Pound South Korea Causing Landslides, Bullet Trains Slowed</t>
+          <t>Putin Is Meeting a Lot of World Leaders for a Global ‘Outcast’</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024-07-09 21:27:35.175855</t>
+          <t>2024-07-09 19:43:08.741819</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMidWh0dHBzOi8vd3d3LnVzbmV3cy5jb20vbmV3cy93b3JsZC9hcnRpY2xlcy8yMDI0LTA3LTA5L3JhaW5zLXBvdW5kLXNvdXRoLWtvcmVhLWNhdXNpbmctbGFuZHNsaWRlcy1idWxsZXQtdHJhaW5zLXNsb3dlZNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTEwL3B1dGluLWlzLW1lZXRpbmctYS1sb3Qtb2Ytd29ybGQtbGVhZGVycy1mb3ItYS1nbG9iYWwtb3V0Y2FzdNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>South Korea Samsung Union Declares 'Indefinite' Strike</t>
+          <t>North Korea-Russia arms trade a global threat, says South Korea President Yoon</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024-07-09 21:27:35.192206</t>
+          <t>2024-07-09 19:43:46.170957</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL2FtcC9uZXdzL3NvdXRoLWtvcmVhLXNhbXN1bmctdW5pb24tZGVjbGFyZXMtaW5kZWZpbml0ZS1zdHJpa2UtNmYyZjg5NWHSAV5odHRwczovL3d3dy5iYXJyb25zLmNvbS9hbXAvbmV3cy9zb3V0aC1rb3JlYS1zYW1zdW5nLXVuaW9uLWRlY2xhcmVzLWluZGVmaW5pdGUtc3RyaWtlLTZmMmY4OTVh?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMidWh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL25vcnRoLWtvcmVhLXJ1c3NpYS1hcm1zLXRyYWRlLWdsb2JhbC10aHJlYXQtc2F5cy1zb3V0aC1rb3JlYS1wcmVzaWRlbnQteW9vbi0yMDI0LTA3LTA5L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SBI Digital Markets accelerates Korea growth strategy with appointment of Jai Yung Byun</t>
+          <t>South Korea Samsung Union Declares 'Indefinite General Strike'</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024-07-09 21:27:35.193457</t>
+          <t>2024-07-09 20:43:08.741819</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihQFodHRwczovL25vcmJlcnRnZWhya2UubWVkaXVtLmNvbS9zYmktZGlnaXRhbC1tYXJrZXRzLWFjY2VsZXJhdGVzLWtvcmVhLWdyb3d0aC1zdHJhdGVneS13aXRoLWFwcG9pbnRtZW50LW9mLWphaS15dW5nLWJ5dW4tZGI2OGFhZDE0NDcx0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL25ld3Mvc291dGgta29yZWEtc2Ftc3VuZy11bmlvbi1kZWNsYXJlcy1pbmRlZmluaXRlLWdlbmVyYWwtc3RyaWtlLTQxNGM3ZTk20gFmaHR0cHM6Ly93d3cuYmFycm9ucy5jb20vYW1wL25ld3Mvc291dGgta29yZWEtc2Ftc3VuZy11bmlvbi1kZWNsYXJlcy1pbmRlZmluaXRlLWdlbmVyYWwtc3RyaWtlLTQxNGM3ZTk2?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Japan, South Korea top omega-3 index, while China, Australia lower than average – 2024 data</t>
+          <t>N. Korea slams Japan's additional release of treated radioactive water from Fukushima power plant</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024-07-09 21:27:35.216239</t>
+          <t>2024-07-09 20:43:08.773673</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihQFodHRwczovL3d3dy5udXRyYWluZ3JlZGllbnRzLWFzaWEuY29tL0FydGljbGUvMjAyNC8wNy8xMC9KYXBhbi1Tb3V0aC1Lb3JlYS10b3Atb21lZ2EtMy1pbmRleC13aGlsZS1DaGluYS1BdXN0cmFsaWEtbG93ZXItdGhhbi1hdmVyYWdl0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzEwM18zNzgzNTIuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM1Mg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Unionized workers at Samsung Electronics declare 'indefinite' strike</t>
+          <t>More than half of S. Korea’s public institutions suffer from CEO vacancies</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024-07-09 21:27:35.224779</t>
+          <t>2024-07-09 20:43:08.773673</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiPWh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L3RlY2gvMjAyNC8wNy8xMjlfMzc4MzU4Lmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgzNTg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiUWh0dHBzOi8vd3d3LmNob3N1bi5jb20vZW5nbGlzaC9pbmR1c3RyeS1lbi8yMDI0LzA3LzEwL04zU1pHNFZNUkpHN0xIQzJTSFRJSFFOSVRNL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>South Korea Samsung union declares 'indefinite' strike</t>
+          <t>South Korea's Hanwha Aerospace wins $1 bln order from Romania for self-propelled howitzers</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024-07-09 21:27:35.224779</t>
+          <t>2024-07-09 20:43:46.162311</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LmhpbmR1c3RhbnRpbWVzLmNvbS93b3JsZC1uZXdzL3NvdXRoLWtvcmVhLXNhbXN1bmctdW5pb24tZGVjbGFyZXMtaW5kZWZpbml0ZS1zdHJpa2UtMTAxNzIwNTc1ODE5ODc5Lmh0bWzSAXdodHRwczovL3d3dy5oaW5kdXN0YW50aW1lcy5jb20vd29ybGQtbmV3cy9zb3V0aC1rb3JlYS1zYW1zdW5nLXVuaW9uLWRlY2xhcmVzLWluZGVmaW5pdGUtc3RyaWtlLTEwMTcyMDU3NTgxOTg3OS1hbXAuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiggFodHRwczovL3d3dy5yZXV0ZXJzLmNvbS9idXNpbmVzcy9hZXJvc3BhY2UtZGVmZW5zZS9zb3V0aC1rb3JlYXMtaGFud2hhLWFlcm9zcGFjZS13aW5zLTEtYmxuLW9yZGVyLXJvbWFuaWEtazktaG93aXR6ZXJzLTIwMjQtMDctMDkv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>South Korea will not suspend licences for striking trainee doctors</t>
+          <t>Korea IT Times 20th Anniversary Message - 20 Years of Leading IT Korea Globally</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024-07-09 22:27:35.175855</t>
+          <t>2024-07-09 21:32:13.502382</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3Lmp1cmlzdC5vcmcvbmV3cy8yMDI0LzA3L3NvdXRoLWtvcmVhLXdpbGwtbm90LXN1c3BlbmQtbGljZW5jZXMtZm9yLXN0cmlraW5nLXRyYWluZWUtZG9jdG9ycy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhaXR0aW1lcy5jb20vbmV3cy9hcnRpY2xlVmlldy5odG1sP2lkeG5vPTEzMzA0ONIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>It may look like pink Jello but scientists hope this new invention could revolutionize meat</t>
+          <t>South Korea Samsung Union Declares 'Indefinite' Strike</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024-07-09 22:27:35.198323</t>
+          <t>2024-07-09 21:43:08.727308</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiUWh0dHBzOi8vd3d3LmNubi5jb20vMjAyNC8wNy8wOS9jbGltYXRlL2xhYi1ncm93bi1tZWF0LWhuay1jbGltYXRlLWludGwvaW5kZXguaHRtbNIBSmh0dHBzOi8vYW1wLmNubi5jb20vY25uLzIwMjQvMDcvMDkvY2xpbWF0ZS9sYWItZ3Jvd24tbWVhdC1obmstY2xpbWF0ZS1pbnRs?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL2FtcC9uZXdzL3NvdXRoLWtvcmVhLXNhbXN1bmctdW5pb24tZGVjbGFyZXMtaW5kZWZpbml0ZS1zdHJpa2UtNmYyZjg5NWHSAV5odHRwczovL3d3dy5iYXJyb25zLmNvbS9hbXAvbmV3cy9zb3V0aC1rb3JlYS1zYW1zdW5nLXVuaW9uLWRlY2xhcmVzLWluZGVmaW5pdGUtc3RyaWtlLTZmMmY4OTVh?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Koreans face growing challenges over disposal of dead pets</t>
+          <t>SBI Digital Markets accelerates Korea growth strategy with appointment of Jai Yung Byun</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024-07-09 22:27:35.201557</t>
+          <t>2024-07-09 21:43:08.727308</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgzNjAuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM2MA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihQFodHRwczovL25vcmJlcnRnZWhya2UubWVkaXVtLmNvbS9zYmktZGlnaXRhbC1tYXJrZXRzLWFjY2VsZXJhdGVzLWtvcmVhLWdyb3d0aC1zdHJhdGVneS13aXRoLWFwcG9pbnRtZW50LW9mLWphaS15dW5nLWJ5dW4tZGI2OGFhZDE0NDcx0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Five-term lawmaker named president of South Korea-China Parliamentarians' Union</t>
+          <t>Japan, South Korea top omega-3 index, while China, Australia lower than average – 2024 data</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024-07-09 22:27:35.219316</t>
+          <t>2024-07-09 21:43:08.757936</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgzNjQuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM2NA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihQFodHRwczovL3d3dy5udXRyYWluZ3JlZGllbnRzLWFzaWEuY29tL0FydGljbGUvMjAyNC8wNy8xMC9KYXBhbi1Tb3V0aC1Lb3JlYS10b3Atb21lZ2EtMy1pbmRleC13aGlsZS1DaGluYS1BdXN0cmFsaWEtbG93ZXItdGhhbi1hdmVyYWdl0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>"US troops will not leave South Korea even if Trump is re-elected," says Trump ally</t>
+          <t>Unionized workers at Samsung Electronics declare 'indefinite' strike</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024-07-09 22:27:35.234771</t>
+          <t>2024-07-09 21:43:08.757936</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiT2h0dHBzOi8vd3d3LmNob3N1bi5jb20vZW5nbGlzaC9wZW9wbGUtZW4vMjAyNC8wNy8xMC8zREdWWjVUVTVORUtIRFJZVVZPUUI2Tk9JRS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiPWh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L3RlY2gvMjAyNC8wNy8xMjlfMzc4MzU4Lmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgzNTg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Samsung Electronics' main South Korea union to go on indefinite strike</t>
+          <t>"US troops will not leave South Korea even if Trump is re-elected," says Trump ally</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024-07-09 22:27:46.187815</t>
+          <t>2024-07-09 21:43:08.773673</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibGh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3RlY2hub2xvZ3kvc2Ftc3VuZy1lbGVjdHJvbmljcy11bmlvbi1zb3V0aC1rb3JlYS1kZWNsYXJlcy1hbm90aGVyLXN0cmlrZS0yMDI0LTA3LTEwL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiT2h0dHBzOi8vd3d3LmNob3N1bi5jb20vZW5nbGlzaC9wZW9wbGUtZW4vMjAyNC8wNy8xMC8zREdWWjVUVTVORUtIRFJZVVZPUUI2Tk9JRS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>China's outgoing ambassador to South Korea leaves sour legacy</t>
+          <t>South Korea Samsung union declares 'indefinite' strike</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024-07-09 22:27:46.219334</t>
+          <t>2024-07-09 21:43:08.773673</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMidmh0dHBzOi8vYXNpYS5uaWtrZWkuY29tL1BvbGl0aWNzL0ludGVybmF0aW9uYWwtcmVsYXRpb25zL0NoaW5hLXMtb3V0Z29pbmctYW1iYXNzYWRvci10by1Tb3V0aC1Lb3JlYS1sZWF2ZXMtc291ci1sZWdhY3nSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LmhpbmR1c3RhbnRpbWVzLmNvbS93b3JsZC1uZXdzL3NvdXRoLWtvcmVhLXNhbXN1bmctdW5pb24tZGVjbGFyZXMtaW5kZWZpbml0ZS1zdHJpa2UtMTAxNzIwNTc1ODE5ODc5Lmh0bWzSAXdodHRwczovL3d3dy5oaW5kdXN0YW50aW1lcy5jb20vd29ybGQtbmV3cy9zb3V0aC1rb3JlYS1zYW1zdW5nLXVuaW9uLWRlY2xhcmVzLWluZGVmaW5pdGUtc3RyaWtlLTEwMTcyMDU3NTgxOTg3OS1hbXAuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>South Korea's Largest Companies</t>
+          <t>Rains Pound South Korea Causing Landslides, Bullet Trains Slowed</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024-07-09 23:27:35.182832</t>
+          <t>2024-07-09 21:43:46.170957</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiRWh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL25ld3Mvc291dGgta29yZWEtcy1sYXJnZXN0LWNvbXBhbmllcy0wMjNkMjZmMtIBSWh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL2FtcC9uZXdzL3NvdXRoLWtvcmVhLXMtbGFyZ2VzdC1jb21wYW5pZXMtMDIzZDI2ZjI?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMidWh0dHBzOi8vd3d3LnVzbmV3cy5jb20vbmV3cy93b3JsZC9hcnRpY2xlcy8yMDI0LTA3LTA5L3JhaW5zLXBvdW5kLXNvdXRoLWtvcmVhLWNhdXNpbmctbGFuZHNsaWRlcy1idWxsZXQtdHJhaW5zLXNsb3dlZNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Korea to boost affordability of EVs with new battery recycling scheme</t>
+          <t>It may look like pink Jello but scientists hope this new invention could revolutionize meat</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024-07-09 23:27:35.201557</t>
+          <t>2024-07-09 22:43:08.727308</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiNmh0dHBzOi8vd3d3LmtvcmVhaGVyYWxkLmNvbS92aWV3LnBocD91ZD0yMDI0MDcxMDA1MDUzN9IBOGh0dHBzOi8vbS5rb3JlYWhlcmFsZC5jb20vYW1wL3ZpZXcucGhwP3VkPTIwMjQwNzEwMDUwNTM3?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiUWh0dHBzOi8vd3d3LmNubi5jb20vMjAyNC8wNy8wOS9jbGltYXRlL2xhYi1ncm93bi1tZWF0LWhuay1jbGltYXRlLWludGwvaW5kZXguaHRtbNIBSmh0dHBzOi8vYW1wLmNubi5jb20vY25uLzIwMjQvMDcvMDkvY2xpbWF0ZS9sYWItZ3Jvd24tbWVhdC1obmstY2xpbWF0ZS1pbnRs?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Samsung union in South Korea says will strike indefinitely</t>
+          <t>South Korea will not suspend licences for striking trainee doctors</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024-07-09 23:27:35.201557</t>
+          <t>2024-07-09 22:43:08.727308</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMie2h0dHBzOi8vd3d3LnRoZWhpbmR1LmNvbS9zY2ktdGVjaC90ZWNobm9sb2d5L3NhbXN1bmctdW5pb24taW4tc291dGgta29yZWEtc2F5cy13aWxsLXN0cmlrZS1pbmRlZmluaXRlbHkvYXJ0aWNsZTY4Mzg3NzE1LmVjZdIBgAFodHRwczovL3d3dy50aGVoaW5kdS5jb20vc2NpLXRlY2gvdGVjaG5vbG9neS9zYW1zdW5nLXVuaW9uLWluLXNvdXRoLWtvcmVhLXNheXMtd2lsbC1zdHJpa2UtaW5kZWZpbml0ZWx5L2FydGljbGU2ODM4NzcxNS5lY2UvYW1wLw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3Lmp1cmlzdC5vcmcvbmV3cy8yMDI0LzA3L3NvdXRoLWtvcmVhLXdpbGwtbm90LXN1c3BlbmQtbGljZW5jZXMtZm9yLXN0cmlraW5nLXRyYWluZWUtZG9jdG9ycy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>'Don't get tired': Samsung Electronics workers extend strike indefinitely, say chip production disrupted</t>
+          <t>Korea to boost affordability of EVs with new battery recycling scheme</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024-07-09 23:27:46.187815</t>
+          <t>2024-07-09 22:43:08.741819</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjQvMDcvMTAvc2Ftc3VuZy1lbGVjdHJvbmljcy13b3JrZXJzLWRlY2xhcmUtYS1zZWNvbmQtc3RyaWtlLWluLXNvdXRoLWtvcmVhLmh0bWzSAWtodHRwczovL3d3dy5jbmJjLmNvbS9hbXAvMjAyNC8wNy8xMC9zYW1zdW5nLWVsZWN0cm9uaWNzLXdvcmtlcnMtZGVjbGFyZS1hLXNlY29uZC1zdHJpa2UtaW4tc291dGgta29yZWEuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiNmh0dHBzOi8vd3d3LmtvcmVhaGVyYWxkLmNvbS92aWV3LnBocD91ZD0yMDI0MDcxMDA1MDUzN9IBOGh0dHBzOi8vbS5rb3JlYWhlcmFsZC5jb20vYW1wL3ZpZXcucGhwP3VkPTIwMjQwNzEwMDUwNTM3?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Samsung union in South Korea declares indefinite strike</t>
+          <t>Koreans face growing challenges over disposal of dead pets</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024-07-09 23:27:46.219334</t>
+          <t>2024-07-09 22:43:08.741819</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiWGh0dHBzOi8vd3d3LmR3LmNvbS9lbi9zYW1zdW5nLXVuaW9uLWluLXNvdXRoLWtvcmVhLWRlY2xhcmVzLWluZGVmaW5pdGUtc3RyaWtlL2EtNjk2MTE3ODXSAVhodHRwczovL2FtcC5kdy5jb20vZW4vc2Ftc3VuZy11bmlvbi1pbi1zb3V0aC1rb3JlYS1kZWNsYXJlcy1pbmRlZmluaXRlLXN0cmlrZS9hLTY5NjExNzg1?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgzNjAuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM2MA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Korean Vengeance Miniseries ‘The Tyrant’ Launching on Disney+</t>
+          <t>Five-term lawmaker named president of South Korea-China Parliamentarians' Union</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.193457</t>
+          <t>2024-07-09 22:43:08.757936</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiS2h0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC90di9uZXdzL2tvcmVhLW1pbmlzZXJpZXMtdHlyYW50LWRpc25leS0xMjM2MDY0NTMwL9IBT2h0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC90di9uZXdzL2tvcmVhLW1pbmlzZXJpZXMtdHlyYW50LWRpc25leS0xMjM2MDY0NTMwL2FtcC8?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzgzNjQuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM2NA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>AI and Cybersecurity in Digital Warfare on the Korean Peninsula</t>
+          <t>Samsung Electronics' main South Korea union to go on indefinite strike</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.193457</t>
+          <t>2024-07-09 22:43:46.159163</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vZ2ppYS5nZW9yZ2V0b3duLmVkdS8yMDI0LzA3LzEwL2FpLWFuZC1jeWJlcnNlY3VyaXR5LWluLWRpZ2l0YWwtd2FyZmFyZS1vbi10aGUta29yZWFuLXBlbmluc3VsYS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibGh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3RlY2hub2xvZ3kvc2Ftc3VuZy1lbGVjdHJvbmljcy11bmlvbi1zb3V0aC1rb3JlYS1kZWNsYXJlcy1hbm90aGVyLXN0cmlrZS0yMDI0LTA3LTEwL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Four Dead In Record Torrential Rains In South Korea: Agency, Yonhap</t>
+          <t>'Don't get tired': Samsung Electronics workers extend strike indefinitely, say chip production disrupted</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.193457</t>
+          <t>2024-07-09 22:43:46.161243</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LmJhcnJvbnMuY29tL25ld3MvZm91ci1kZWFkLWluLXJlY29yZC10b3JyZW50aWFsLXJhaW5zLWluLXNvdXRoLWtvcmVhLWFnZW5jeS15b25oYXAtZDQ5ODdjNjDSAWtodHRwczovL3d3dy5iYXJyb25zLmNvbS9hbXAvbmV3cy9mb3VyLWRlYWQtaW4tcmVjb3JkLXRvcnJlbnRpYWwtcmFpbnMtaW4tc291dGgta29yZWEtYWdlbmN5LXlvbmhhcC1kNDk4N2M2MA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjQvMDcvMTAvc2Ftc3VuZy1lbGVjdHJvbmljcy13b3JrZXJzLWRlY2xhcmUtYS1zZWNvbmQtc3RyaWtlLWluLXNvdXRoLWtvcmVhLmh0bWzSAWtodHRwczovL3d3dy5jbmJjLmNvbS9hbXAvMjAyNC8wNy8xMC9zYW1zdW5nLWVsZWN0cm9uaWNzLXdvcmtlcnMtZGVjbGFyZS1hLXNlY29uZC1zdHJpa2UtaW4tc291dGgta29yZWEuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Don’t dwell on Korea discount; light up visibility on global stage</t>
+          <t>China's outgoing ambassador to South Korea leaves sour legacy</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.200141</t>
+          <t>2024-07-09 22:43:46.189046</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vdGhlLWtlZC12aWV3L25ld3NWaWV3L2tlZDIwMjQwNzEwMDAwNdIBMWh0dHBzOi8vYW1wLmtlZGdsb2JhbC5jb20vbmV3c0FtcC9rZWQyMDI0MDcxMDAwMDU?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMidmh0dHBzOi8vYXNpYS5uaWtrZWkuY29tL1BvbGl0aWNzL0ludGVybmF0aW9uYWwtcmVsYXRpb25zL0NoaW5hLXMtb3V0Z29pbmctYW1iYXNzYWRvci10by1Tb3V0aC1Lb3JlYS1sZWF2ZXMtc291ci1sZWdhY3nSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Four Dead In Record Torrential Rains In South Korea</t>
+          <t>Samsung union in South Korea says will strike indefinitely</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.200722</t>
+          <t>2024-07-09 23:43:08.741819</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXWh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL2FydGljbGVzL2ZvdXItZGVhZC1pbi1yZWNvcmQtdG9ycmVudGlhbC1yYWlucy1pbi1zb3V0aC1rb3JlYS1jOTAzMjZiOdIBXWh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL2FtcC9uZXdzL2ZvdXItZGVhZC1pbi1yZWNvcmQtdG9ycmVudGlhbC1yYWlucy1pbi1zb3V0aC1rb3JlYS1jOTAzMjZiOQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMie2h0dHBzOi8vd3d3LnRoZWhpbmR1LmNvbS9zY2ktdGVjaC90ZWNobm9sb2d5L3NhbXN1bmctdW5pb24taW4tc291dGgta29yZWEtc2F5cy13aWxsLXN0cmlrZS1pbmRlZmluaXRlbHkvYXJ0aWNsZTY4Mzg3NzE1LmVjZdIBgAFodHRwczovL3d3dy50aGVoaW5kdS5jb20vc2NpLXRlY2gvdGVjaG5vbG9neS9zYW1zdW5nLXVuaW9uLWluLXNvdXRoLWtvcmVhLXNheXMtd2lsbC1zdHJpa2UtaW5kZWZpbml0ZWx5L2FydGljbGU2ODM4NzcxNS5lY2UvYW1wLw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>South Korea Samsung union declares ‘indefinite general strike’</t>
+          <t>Korean Vengeance Miniseries ‘The Tyrant’ Launching on Disney+</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.201557</t>
+          <t>2024-07-09 23:43:08.741819</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LnBsYXRhZm9ybWFtZWRpYS5jb20vZW4vMjAyNC8wNy8xMC9zb3V0aC1rb3JlYS1zYW1zdW5nLXVuaW9uLWRlY2xhcmVzLWluZGVmaW5pdGUtZ2VuZXJhbC1zdHJpa2Uv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiS2h0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC90di9uZXdzL2tvcmVhLW1pbmlzZXJpZXMtdHlyYW50LWRpc25leS0xMjM2MDY0NTMwL9IBT2h0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC90di9uZXdzL2tvcmVhLW1pbmlzZXJpZXMtdHlyYW50LWRpc25leS0xMjM2MDY0NTMwL2FtcC8?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>`Female-dominant society behind male suicides`, says South Korean Councillor</t>
+          <t>SBI Digital Markets appoints former Bank of Korea official to expand in South Korea</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.201557</t>
+          <t>2024-07-09 23:43:08.757936</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihwFodHRwczovL3d3dy53aW9uZXdzLmNvbS93b3JsZC9mZW1hbGUtZG9taW5hbnQtc29jaWV0eS1iZWhpbmQtbWFsZS1zdWljaWRlcy1zb3V0aC1rb3JlYW4tY291bmNpbGxvci1ibGFtZXMtd29tZW4tZm9yLW1lbi1zdWljaWRlcy03Mzk0NjbSAYsBaHR0cHM6Ly93d3cud2lvbmV3cy5jb20vd29ybGQvZmVtYWxlLWRvbWluYW50LXNvY2lldHktYmVoaW5kLW1hbGUtc3VpY2lkZXMtc291dGgta29yZWFuLWNvdW5jaWxsb3ItYmxhbWVzLXdvbWVuLWZvci1tZW4tc3VpY2lkZXMtNzM5NDY2L2FtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMie2h0dHBzOi8vd3d3LnRoZWJsb2NrLmNvL2FtcC9wb3N0LzMwNDQwMy9zYmktZGlnaXRhbC1tYXJrZXRzLWFwcG9pbnRzLWZvcm1lci1iYW5rLW9mLWtvcmVhLW9mZmljaWFsLXRvLWV4cGFuZC1pbi1zb3V0aC1rb3JlYdIBe2h0dHBzOi8vd3d3LnRoZWJsb2NrLmNvL2FtcC9wb3N0LzMwNDQwMy9zYmktZGlnaXRhbC1tYXJrZXRzLWFwcG9pbnRzLWZvcm1lci1iYW5rLW9mLWtvcmVhLW9mZmljaWFsLXRvLWV4cGFuZC1pbi1zb3V0aC1rb3JlYQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Fed's Powell defends central bank independence as challenges loom</t>
+          <t>South Korea's Largest Companies</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.201557</t>
+          <t>2024-07-09 23:43:46.190836</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiPmh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L3dvcmxkLzIwMjQvMDcvNTAxXzM3ODM3NC5odG1s0gE_aHR0cHM6Ly9tLmtvcmVhdGltZXMuY28ua3IvcGFnZXMvYXJ0aWNsZS5hbXAuYXNwP25ld3NJZHg9Mzc4Mzc0?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiRWh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL25ld3Mvc291dGgta29yZWEtcy1sYXJnZXN0LWNvbXBhbmllcy0wMjNkMjZmMtIBSWh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL2FtcC9uZXdzL3NvdXRoLWtvcmVhLXMtbGFyZ2VzdC1jb21wYW5pZXMtMDIzZDI2ZjI?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>South Korean politician under fire for blaming women for rising male suicides</t>
+          <t>Four Dead In Record Torrential Rains In South Korea: Agency, Yonhap</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.201557</t>
+          <t>2024-07-10 00:43:08.727308</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LmluZGVwZW5kZW50LmNvLnVrL2FzaWEvZWFzdC1hc2lhL3NvdXRoLWtvcmVhLXBvbGl0aWNpYW4tbWFsZS1zdWljaWRlLXNleGlzbS1iMjU3NzA4OC5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LmJhcnJvbnMuY29tL25ld3MvZm91ci1kZWFkLWluLXJlY29yZC10b3JyZW50aWFsLXJhaW5zLWluLXNvdXRoLWtvcmVhLWFnZW5jeS15b25oYXAtZDQ5ODdjNjDSAWtodHRwczovL3d3dy5iYXJyb25zLmNvbS9hbXAvbmV3cy9mb3VyLWRlYWQtaW4tcmVjb3JkLXRvcnJlbnRpYWwtcmFpbnMtaW4tc291dGgta29yZWEtYWdlbmN5LXlvbmhhcC1kNDk4N2M2MA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SBI Digital Markets appoints former Bank of Korea official to expand in South Korea</t>
+          <t>AI and Cybersecurity in Digital Warfare on the Korean Peninsula</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.220322</t>
+          <t>2024-07-10 00:43:08.727308</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMie2h0dHBzOi8vd3d3LnRoZWJsb2NrLmNvL2FtcC9wb3N0LzMwNDQwMy9zYmktZGlnaXRhbC1tYXJrZXRzLWFwcG9pbnRzLWZvcm1lci1iYW5rLW9mLWtvcmVhLW9mZmljaWFsLXRvLWV4cGFuZC1pbi1zb3V0aC1rb3JlYdIBe2h0dHBzOi8vd3d3LnRoZWJsb2NrLmNvL2FtcC9wb3N0LzMwNDQwMy9zYmktZGlnaXRhbC1tYXJrZXRzLWFwcG9pbnRzLWZvcm1lci1iYW5rLW9mLWtvcmVhLW9mZmljaWFsLXRvLWV4cGFuZC1pbi1zb3V0aC1rb3JlYQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vZ2ppYS5nZW9yZ2V0b3duLmVkdS8yMDI0LzA3LzEwL2FpLWFuZC1jeWJlcnNlY3VyaXR5LWluLWRpZ2l0YWwtd2FyZmFyZS1vbi10aGUta29yZWFuLXBlbmluc3VsYS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MegazoneCloud confident in IPO after picking big name lead managers</t>
+          <t>Samsung, SK Hynix lead value increase in Korea NPS' local shares in Q2</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.220322</t>
+          <t>2024-07-10 00:43:08.741819</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiPWh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L3RlY2gvMjAyNC8wNy8xMjlfMzc4Mzc2Lmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgzNzY?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vcGVuc2lvbi1mdW5kcy9uZXdzVmlldy9rZWQyMDI0MDcxMDAwMDbSATFodHRwczovL2FtcC5rZWRnbG9iYWwuY29tL25ld3NBbXAva2VkMjAyNDA3MTAwMDA2?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Korea Approves New Disclosure Rule for Insider Transactions</t>
+          <t>Suspect in murder of Korean tourist found in plastic barrel extradited to Korea</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.224779</t>
+          <t>2024-07-10 00:43:08.741819</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiW2h0dHBzOi8vd3d3LnJlZ3VsYXRpb25hc2lhLmNvbS9rb3JlYS1hcHByb3Zlcy1uZXctZGlzY2xvc3VyZS1ydWxlLWZvci1pbnNpZGVyLXRyYW5zYWN0aW9ucy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiowFodHRwczovL2tvcmVham9vbmdhbmdkYWlseS5qb2lucy5jb20vbmV3cy8yMDI0LTA3LTEwL25hdGlvbmFsL3NvY2lhbEFmZmFpcnMvU3VzcGVjdC1pbi1tdXJkZXItb2YtS29yZWFuLXRvdXJpc3QtZm91bmQtaW4tcGxhc3RpYy1iYXJyZWwtZXh0cmFkaXRlZC10by1Lb3JlYS8yMDg3MTYx0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Suspect in murder of Korean tourist found in plastic barrel extradited to Korea</t>
+          <t>South Korean politician under fire for blaming women for rising male suicides</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.224779</t>
+          <t>2024-07-10 00:43:08.741819</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiowFodHRwczovL2tvcmVham9vbmdhbmdkYWlseS5qb2lucy5jb20vbmV3cy8yMDI0LTA3LTEwL25hdGlvbmFsL3NvY2lhbEFmZmFpcnMvU3VzcGVjdC1pbi1tdXJkZXItb2YtS29yZWFuLXRvdXJpc3QtZm91bmQtaW4tcGxhc3RpYy1iYXJyZWwtZXh0cmFkaXRlZC10by1Lb3JlYS8yMDg3MTYx0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LmluZGVwZW5kZW50LmNvLnVrL2FzaWEvZWFzdC1hc2lhL3NvdXRoLWtvcmVhLXBvbGl0aWNpYW4tbWFsZS1zdWljaWRlLXNleGlzbS1iMjU3NzA4OC5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>South Korea: Samsung union declares indefinite strike</t>
+          <t>South Korea Samsung union declares ‘indefinite general strike’</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:35.233772</t>
+          <t>2024-07-10 00:43:08.741819</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3Lm1zbi5jb20vZW4teGwvbmV3cy9vdGhlci9zb3V0aC1rb3JlYS1zYW1zdW5nLXVuaW9uLWRlY2xhcmVzLWluZGVmaW5pdGUtc3RyaWtlL2FyLUJCMXBJZ05v0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LnBsYXRhZm9ybWFtZWRpYS5jb20vZW4vMjAyNC8wNy8xMC9zb3V0aC1rb3JlYS1zYW1zdW5nLXVuaW9uLWRlY2xhcmVzLWluZGVmaW5pdGUtZ2VuZXJhbC1zdHJpa2Uv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>North Korea balloons, GPS interference raise safety risks for airlines</t>
+          <t>Four Dead In Record Torrential Rains In South Korea</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:46.171449</t>
+          <t>2024-07-10 00:43:08.741819</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMieGh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9ub3J0aC1rb3JlYS1iYWxsb29ucy1ncHMtaW50ZXJmZXJlbmNlLXJhaXNlLXNhZmV0eS1yaXNrcy1haXJsaW5lcy0yMDI0LTA3LTEwL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXWh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL2FydGljbGVzL2ZvdXItZGVhZC1pbi1yZWNvcmQtdG9ycmVudGlhbC1yYWlucy1pbi1zb3V0aC1rb3JlYS1jOTAzMjZiOdIBXWh0dHBzOi8vd3d3LmJhcnJvbnMuY29tL2FtcC9uZXdzL2ZvdXItZGVhZC1pbi1yZWNvcmQtdG9ycmVudGlhbC1yYWlucy1pbi1zb3V0aC1rb3JlYS1jOTAzMjZiOQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Samsung Electronics union goes on indefinite strike</t>
+          <t>In push for “deep tech,” Israel and South korea join forces</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:46.187815</t>
+          <t>2024-07-10 00:43:08.741819</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiLmh0dHBzOi8vd3d3LmJiYy5jb20vbmV3cy9hcnRpY2xlcy9jNTF5ZWx2NGU3Mm_SATJodHRwczovL3d3dy5iYmMuY29tL25ld3MvYXJ0aWNsZXMvYzUxeWVsdjRlNzJvLmFtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3LmlzcmFlbDIxYy5vcmcvaW4tcHVzaC1mb3ItZGVlcC10ZWNoLWlzcmFlbC1hbmQtc291dGgta29yZWEtam9pbi1mb3JjZXMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>South Korea’s Ability to Arm Ukraine Elevates Its Role at NATO Summit</t>
+          <t>Don’t dwell on Korea discount; light up visibility on global stage</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024-07-10 00:27:46.187815</t>
+          <t>2024-07-10 00:43:08.741819</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMieGh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTEwL3NvdXRoLWtvcmVhLXMtYWJpbGl0eS10by1hcm0tdWtyYWluZS1lbGV2YXRlcy1pdHMtcm9sZS1hdC1uYXRvLXN1bW1pdNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vdGhlLWtlZC12aWV3L25ld3NWaWV3L2tlZDIwMjQwNzEwMDAwNdIBMWh0dHBzOi8vYW1wLmtlZGdsb2JhbC5jb20vbmV3c0FtcC9rZWQyMDI0MDcxMDAwMDU?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Blackpink's Jennie 'regrets' vaping indoors</t>
+          <t>Korea Approves New Disclosure Rule for Insider Transactions</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:35.184889</t>
+          <t>2024-07-10 00:43:08.757936</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiLmh0dHBzOi8vd3d3LmJiYy5jb20vbmV3cy9hcnRpY2xlcy9jdjJndnpxd2d2cW_SATJodHRwczovL3d3dy5iYmMuY29tL25ld3MvYXJ0aWNsZXMvY3YyZ3Z6cXdndnFvLmFtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiW2h0dHBzOi8vd3d3LnJlZ3VsYXRpb25hc2lhLmNvbS9rb3JlYS1hcHByb3Zlcy1uZXctZGlzY2xvc3VyZS1ydWxlLWZvci1pbnNpZGVyLXRyYW5zYWN0aW9ucy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Why did Denmark ban these spicy noodles from South Korea? Explained</t>
+          <t>Fed's Powell defends central bank independence as challenges loom</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:35.191140</t>
+          <t>2024-07-10 00:43:08.757936</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMigwFodHRwczovL3d3dy5idXNpbmVzcy1zdGFuZGFyZC5jb20vd29ybGQtbmV3cy93aHktZGlkLWRlbm1hcmstYmFuLXRoZXNlLXNwaWN5LW5vb2RsZXMtZnJvbS1zb3V0aC1rb3JlYS1leHBsYWluZWQtMTI0MDcxMDAwMzA3XzEuaHRtbNIBhwFodHRwczovL3d3dy5idXNpbmVzcy1zdGFuZGFyZC5jb20vYW1wL3dvcmxkLW5ld3Mvd2h5LWRpZC1kZW5tYXJrLWJhbi10aGVzZS1zcGljeS1ub29kbGVzLWZyb20tc291dGgta29yZWEtZXhwbGFpbmVkLTEyNDA3MTAwMDMwN18xLmh0bWw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiPmh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L3dvcmxkLzIwMjQvMDcvNTAxXzM3ODM3NC5odG1s0gE_aHR0cHM6Ly9tLmtvcmVhdGltZXMuY28ua3IvcGFnZXMvYXJ0aWNsZS5hbXAuYXNwP25ld3NJZHg9Mzc4Mzc0?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Why is Nato urging South Korea to tweak policy on weapons export?</t>
+          <t>MegazoneCloud confident in IPO after picking big name lead managers</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:35.193457</t>
+          <t>2024-07-10 00:43:08.757936</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3LmZpcnN0cG9zdC5jb20vd29ybGQvd2h5LWlzLW5hdG8tdXJnaW5nLXNvdXRoLWtvcmVhLXRvLXR3ZWFrLXBvbGljeS1vbi13ZWFwb25zLWV4cG9ydC0xMzc5MTMyMC5odG1s0gFyaHR0cHM6Ly93d3cuZmlyc3Rwb3N0LmNvbS93b3JsZC93aHktaXMtbmF0by11cmdpbmctc291dGgta29yZWEtdG8tdHdlYWstcG9saWN5LW9uLXdlYXBvbnMtZXhwb3J0LTEzNzkxMzIwLmh0bWwvYW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiPWh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L3RlY2gvMjAyNC8wNy8xMjlfMzc4Mzc2Lmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgzNzY?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>In push for “deep tech,” Israel and South korea join forces</t>
+          <t>`Female-dominant society behind male suicides`, says South Korean Councillor</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:35.193457</t>
+          <t>2024-07-10 00:43:08.757936</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3LmlzcmFlbDIxYy5vcmcvaW4tcHVzaC1mb3ItZGVlcC10ZWNoLWlzcmFlbC1hbmQtc291dGgta29yZWEtam9pbi1mb3JjZXMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihwFodHRwczovL3d3dy53aW9uZXdzLmNvbS93b3JsZC9mZW1hbGUtZG9taW5hbnQtc29jaWV0eS1iZWhpbmQtbWFsZS1zdWljaWRlcy1zb3V0aC1rb3JlYW4tY291bmNpbGxvci1ibGFtZXMtd29tZW4tZm9yLW1lbi1zdWljaWRlcy03Mzk0NjbSAYsBaHR0cHM6Ly93d3cud2lvbmV3cy5jb20vd29ybGQvZmVtYWxlLWRvbWluYW50LXNvY2lldHktYmVoaW5kLW1hbGUtc3VpY2lkZXMtc291dGgta29yZWFuLWNvdW5jaWxsb3ItYmxhbWVzLXdvbWVuLWZvci1tZW4tc3VpY2lkZXMtNzM5NDY2L2FtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Four dead in record torrential rains in South Korea</t>
+          <t>South Korea: Samsung union declares indefinite strike</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:35.193457</t>
+          <t>2024-07-10 00:43:08.773673</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiWWh0dHBzOi8vd3d3LmNoYW5uZWxuZXdzYXNpYS5jb20vZWFzdC1hc2lhL3NvdXRoLWtvcmVhLWhlYXZ5LXRvcnJlbnRpYWwtcmFpbnMtZGVhZC00NDY5MTE20gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3Lm1zbi5jb20vZW4teGwvbmV3cy9vdGhlci9zb3V0aC1rb3JlYS1zYW1zdW5nLXVuaW9uLWRlY2xhcmVzLWluZGVmaW5pdGUtc3RyaWtlL2FyLUJCMXBJZ05v0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Samsung, SK Hynix lead value increase in Korea NPS' local shares in Q2</t>
+          <t>South Korea’s Ability to Arm Ukraine Elevates Its Role at NATO Summit</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:35.201557</t>
+          <t>2024-07-10 00:43:46.159163</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vcGVuc2lvbi1mdW5kcy9uZXdzVmlldy9rZWQyMDI0MDcxMDAwMDbSATFodHRwczovL2FtcC5rZWRnbG9iYWwuY29tL25ld3NBbXAva2VkMjAyNDA3MTAwMDA2?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMieGh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTEwL3NvdXRoLWtvcmVhLXMtYWJpbGl0eS10by1hcm0tdWtyYWluZS1lbGV2YXRlcy1pdHMtcm9sZS1hdC1uYXRvLXN1bW1pdNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>South Korean Markets Hold Steady Awaiting Key Central Bank Moves</t>
+          <t>South Korea at crucial nuclear juncture</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:35.201557</t>
+          <t>2024-07-10 01:32:13.502382</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXWh0dHBzOi8vZmluaW1pemUuY29tL2NvbnRlbnQvc291dGgta29yZWFuLW1hcmtldHMtaG9sZC1zdGVhZHktYXdhaXRpbmcta2V5LWNlbnRyYWwtYmFuay1tb3Zlc9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L29waW5pb24vMjAyNC8wNy8xMzdfMzc4MzgyLmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgzODI?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Rain batters Korea's southern regions, 'heaviest in 200 years'</t>
+          <t>Why is Nato urging South Korea to tweak policy on weapons export?</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:35.217320</t>
+          <t>2024-07-10 01:43:08.727308</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiNmh0dHBzOi8vd3d3LmtvcmVhaGVyYWxkLmNvbS92aWV3LnBocD91ZD0yMDI0MDcxMDA1MDU5NtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3LmZpcnN0cG9zdC5jb20vd29ybGQvd2h5LWlzLW5hdG8tdXJnaW5nLXNvdXRoLWtvcmVhLXRvLXR3ZWFrLXBvbGljeS1vbi13ZWFwb25zLWV4cG9ydC0xMzc5MTMyMC5odG1s0gFyaHR0cHM6Ly93d3cuZmlyc3Rwb3N0LmNvbS93b3JsZC93aHktaXMtbmF0by11cmdpbmctc291dGgta29yZWEtdG8tdHdlYWstcG9saWN5LW9uLXdlYXBvbnMtZXhwb3J0LTEzNzkxMzIwLmh0bWwvYW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Hana Financial supports Korean delegation for Paris Olympics</t>
+          <t>Why did Denmark ban these spicy noodles from South Korea? Explained</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:35.221322</t>
+          <t>2024-07-10 01:43:08.727308</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiPGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L2Jpei8yMDI0LzA3LzYwMl8zNzgzODUuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM4NQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMigwFodHRwczovL3d3dy5idXNpbmVzcy1zdGFuZGFyZC5jb20vd29ybGQtbmV3cy93aHktZGlkLWRlbm1hcmstYmFuLXRoZXNlLXNwaWN5LW5vb2RsZXMtZnJvbS1zb3V0aC1rb3JlYS1leHBsYWluZWQtMTI0MDcxMDAwMzA3XzEuaHRtbNIBhwFodHRwczovL3d3dy5idXNpbmVzcy1zdGFuZGFyZC5jb20vYW1wL3dvcmxkLW5ld3Mvd2h5LWRpZC1kZW5tYXJrLWJhbi10aGVzZS1zcGljeS1ub29kbGVzLWZyb20tc291dGgta29yZWEtZXhwbGFpbmVkLTEyNDA3MTAwMDMwN18xLmh0bWw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Doomscrolling</t>
+          <t>Choreographer shares insight into traditional court dance</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:35.222331</t>
+          <t>2024-07-10 01:43:08.727308</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L29waW5pb24vMjAyNC8wNy8xMzdfMzc4MDYwLmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgwNjA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3LmtvcmVhLm5ldC9OZXdzRm9jdXMvSG9ub3JhcnlSZXBvcnRlcnMvdmlldz9hcnRpY2xlSWQ9MjUzNTc2JnBhZ2VJbmRleD0x0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>[ED} Rethink North Korea-Russia relations</t>
+          <t>Four dead in record torrential rains in South Korea</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:35.224324</t>
+          <t>2024-07-10 01:43:08.727308</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L29waW5pb24vMjAyNC8wNy8xMzdfMzc4Mjc4Lmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgyNzg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWWh0dHBzOi8vd3d3LmNoYW5uZWxuZXdzYXNpYS5jb20vZWFzdC1hc2lhL3NvdXRoLWtvcmVhLWhlYXZ5LXRvcnJlbnRpYWwtcmFpbnMtZGVhZC00NDY5MTE20gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Korean government kicks off national food tourism brand</t>
+          <t>South Korea inks $939 million weapons supply deal with Romania</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:35.224779</t>
+          <t>2024-07-10 01:43:08.741819</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihwFodHRwczovL2tvcmVham9vbmdhbmdkYWlseS5qb2lucy5jb20vbmV3cy8yMDI0LTA3LTEwL2N1bHR1cmUvZm9vZFRyYXZlbC9Lb3JlYW4tZ292ZXJubWVudC1raWNrcy1vZmYtbmF0aW9uYWwtZm9vZC10b3VyaXNtLWJyYW5kLzIwODcxODLSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiKGh0dHBzOi8vYXJtZW5wcmVzcy5hbS9lbi9hcnRpY2xlLzExOTU0MDPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>South Korea at crucial nuclear juncture</t>
+          <t>South Korean Markets Hold Steady Awaiting Key Central Bank Moves</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:35.235772</t>
+          <t>2024-07-10 01:43:08.741819</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L29waW5pb24vMjAyNC8wNy8xMzdfMzc4MzgyLmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgzODI?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXWh0dHBzOi8vZmluaW1pemUuY29tL2NvbnRlbnQvc291dGgta29yZWFuLW1hcmtldHMtaG9sZC1zdGVhZHktYXdhaXRpbmcta2V5LWNlbnRyYWwtYmFuay1tb3Zlc9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Samsung Electronics workers announce ‘indefinite’ strike</t>
+          <t>EuroscreenFast and GW Vitek announce distribution partnership in Korea</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024-07-10 01:27:46.202827</t>
+          <t>2024-07-10 01:43:08.741819</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiV2h0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL3NhbXN1bmctZWxlY3Ryb25pY3Mtc3RyaWtlcy03NWZjMjBhYjI1ZTJmYmFkNWM1MmQ5M2I1NjMzNGE2NNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiigFodHRwczovL2V1cm9wZWFuLWJpb3RlY2hub2xvZ3kuY29tL3VwLXRvLWRhdGUvbGF0ZXN0LW5ld3MvbmV3cy9ldXJvc2NyZWVuZmFzdC1hbmQtZ3ctdml0ZWstYW5ub3VuY2UtZGlzdHJpYnV0aW9uLXBhcnRuZXJzaGlwLWluLWtvcmVhLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Striking Samsung Electronics workers extend walkout ‘indefinitely’</t>
+          <t>74th anniversary of Task Force Smith: Honoring courage and sacrifice</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2024-07-10 02:27:35.183897</t>
+          <t>2024-07-10 01:43:08.741819</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiaGh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2Evc3RyaWtpbmctc2Ftc3VuZy1lbGVjdHJvbmljcy13b3JrZXJzLWV4dGVuZC13YWxrb3V0LWluZGVmaW5pdGVseS0vNzY5MjA2Mi5odG1s0gFqaHR0cHM6Ly93d3cudm9hbmV3cy5jb20vYW1wL3N0cmlraW5nLXNhbXN1bmctZWxlY3Ryb25pY3Mtd29ya2Vycy1leHRlbmQtd2Fsa291dC1pbmRlZmluaXRlbHktLzc2OTIwNjIuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LmFybXkubWlsL2FydGljbGUvMjc3ODk1Lzc0dGhfYW5uaXZlcnNhcnlfb2ZfdGFza19mb3JjZV9zbWl0aF9ob25vcmluZ19jb3VyYWdlX2FuZF9zYWNyaWZpY2XSAWtodHRwczovL3d3dy5hcm15Lm1pbC9hcnRpY2xlLWFtcC8yNzc4OTUvNzR0aF9hbm5pdmVyc2FyeV9vZl90YXNrX2ZvcmNlX3NtaXRoX2hvbm9yaW5nX2NvdXJhZ2VfYW5kX3NhY3JpZmljZQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>North Korea-China friendship shows signs of strain</t>
+          <t>Korean government kicks off national food tourism brand</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024-07-10 02:27:35.193457</t>
+          <t>2024-07-10 01:43:08.757936</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzEwM18zNzgzODkuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM4OQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihwFodHRwczovL2tvcmVham9vbmdhbmdkYWlseS5qb2lucy5jb20vbmV3cy8yMDI0LTA3LTEwL2N1bHR1cmUvZm9vZFRyYXZlbC9Lb3JlYW4tZ292ZXJubWVudC1raWNrcy1vZmYtbmF0aW9uYWwtZm9vZC10b3VyaXNtLWJyYW5kLzIwODcxODLSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Choreographer shares insight into traditional court dance</t>
+          <t>[ED} Rethink North Korea-Russia relations</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024-07-10 02:27:35.193457</t>
+          <t>2024-07-10 01:43:08.757936</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3LmtvcmVhLm5ldC9OZXdzRm9jdXMvSG9ub3JhcnlSZXBvcnRlcnMvdmlldz9hcnRpY2xlSWQ9MjUzNTc2JnBhZ2VJbmRleD0x0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L29waW5pb24vMjAyNC8wNy8xMzdfMzc4Mjc4Lmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgyNzg?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>74th anniversary of Task Force Smith: Honoring courage and sacrifice</t>
+          <t>Grammy Museum to launch exhibit featuring HYBE's K-pop artists</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024-07-10 02:27:35.201557</t>
+          <t>2024-07-10 01:43:08.757936</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LmFybXkubWlsL2FydGljbGUvMjc3ODk1Lzc0dGhfYW5uaXZlcnNhcnlfb2ZfdGFza19mb3JjZV9zbWl0aF9ob25vcmluZ19jb3VyYWdlX2FuZF9zYWNyaWZpY2XSAWtodHRwczovL3d3dy5hcm15Lm1pbC9hcnRpY2xlLWFtcC8yNzc4OTUvNzR0aF9hbm5pdmVyc2FyeV9vZl90YXNrX2ZvcmNlX3NtaXRoX2hvbm9yaW5nX2NvdXJhZ2VfYW5kX3NhY3JpZmljZQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiPGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L2FydC8yMDI0LzA3LzM5OF8zNzgzODguaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM4OA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>South Korea inks $939 million weapons supply deal with Romania</t>
+          <t>South Korea Daily Life</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024-07-10 02:27:35.201557</t>
+          <t>2024-07-10 01:43:08.757936</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiKGh0dHBzOi8vYXJtZW5wcmVzcy5hbS9lbi9hcnRpY2xlLzExOTU0MDPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LnJlZmxlY3Rvci5jb20vbmV3cy93b3JsZC9zb3V0aC1rb3JlYS1kYWlseS1saWZlL2ltYWdlXzYxMmEwZWIwLTBhYmItNWMyNC1iMjI5LTZiZGU1NzIzNDgwNS5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>South Korea Daily Life</t>
+          <t>Doomscrolling</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024-07-10 02:27:35.201557</t>
+          <t>2024-07-10 01:43:08.757936</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LnJlZmxlY3Rvci5jb20vbmV3cy93b3JsZC9zb3V0aC1rb3JlYS1kYWlseS1saWZlL2ltYWdlXzYxMmEwZWIwLTBhYmItNWMyNC1iMjI5LTZiZGU1NzIzNDgwNS5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L29waW5pb24vMjAyNC8wNy8xMzdfMzc4MDYwLmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzgwNjA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>EuroscreenFast and GW Vitek announce distribution partnership in Korea</t>
+          <t>Samsung faces uncharted territory in South Korea as union calls indefinite strike</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024-07-10 02:27:35.201557</t>
+          <t>2024-07-10 01:43:08.757936</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiigFodHRwczovL2V1cm9wZWFuLWJpb3RlY2hub2xvZ3kuY29tL3VwLXRvLWRhdGUvbGF0ZXN0LW5ld3MvbmV3cy9ldXJvc2NyZWVuZmFzdC1hbmQtZ3ctdml0ZWstYW5ub3VuY2UtZGlzdHJpYnV0aW9uLXBhcnRuZXJzaGlwLWluLWtvcmVhLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicmh0dHBzOi8vd3d3Lndpb25ld3MuY29tL2J1c2luZXNzLWVjb25vbXkvc2Ftc3VuZy1mYWNlcy11bmNoYXJ0ZWQtdGVycml0b3J5LWFzLXVuaW9uLWNhbGxzLWluZGVmaW5pdGUtc3RyaWtlLTczOTQ5MdIBdmh0dHBzOi8vd3d3Lndpb25ld3MuY29tL2J1c2luZXNzLWVjb25vbXkvc2Ftc3VuZy1mYWNlcy11bmNoYXJ0ZWQtdGVycml0b3J5LWFzLXVuaW9uLWNhbGxzLWluZGVmaW5pdGUtc3RyaWtlLTczOTQ5MS9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Samsung faces uncharted territory in South Korea as union calls indefinite strike</t>
+          <t>Rain batters Korea's southern regions, 'heaviest in 200 years'</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024-07-10 02:27:35.218311</t>
+          <t>2024-07-10 01:43:08.757936</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicmh0dHBzOi8vd3d3Lndpb25ld3MuY29tL2J1c2luZXNzLWVjb25vbXkvc2Ftc3VuZy1mYWNlcy11bmNoYXJ0ZWQtdGVycml0b3J5LWFzLXVuaW9uLWNhbGxzLWluZGVmaW5pdGUtc3RyaWtlLTczOTQ5MdIBdmh0dHBzOi8vd3d3Lndpb25ld3MuY29tL2J1c2luZXNzLWVjb25vbXkvc2Ftc3VuZy1mYWNlcy11bmNoYXJ0ZWQtdGVycml0b3J5LWFzLXVuaW9uLWNhbGxzLWluZGVmaW5pdGUtc3RyaWtlLTczOTQ5MS9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiNmh0dHBzOi8vd3d3LmtvcmVhaGVyYWxkLmNvbS92aWV3LnBocD91ZD0yMDI0MDcxMDA1MDU5NtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Grammy Museum to launch exhibit featuring HYBE's K-pop artists</t>
+          <t>Hana Financial supports Korean delegation for Paris Olympics</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024-07-10 02:27:35.224779</t>
+          <t>2024-07-10 01:43:08.757936</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiPGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L2FydC8yMDI0LzA3LzM5OF8zNzgzODguaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM4OA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiPGh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L2Jpei8yMDI0LzA3LzYwMl8zNzgzODUuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM4NQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA BEGINS PRODUCTION OF KF-21 FIGHTER JET</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2024-07-10 01:43:08.773673</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiNGh0dHBzOi8vd3d3LmJlcm5hbWEuY29tL2VuL3dvcmxkL25ld3MucGhwP2lkPTIzMTU5OTDSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Samsung Electronics workers announce ‘indefinite’ strike</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2024-07-10 01:43:46.167782</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiV2h0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL3NhbXN1bmctZWxlY3Ryb25pY3Mtc3RyaWtlcy03NWZjMjBhYjI1ZTJmYmFkNWM1MmQ5M2I1NjMzNGE2NNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Striking Samsung Electronics workers extend walkout ‘indefinitely’</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2024-07-10 02:43:08.727308</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiaGh0dHBzOi8vd3d3LnZvYW5ld3MuY29tL2Evc3RyaWtpbmctc2Ftc3VuZy1lbGVjdHJvbmljcy13b3JrZXJzLWV4dGVuZC13YWxrb3V0LWluZGVmaW5pdGVseS0vNzY5MjA2Mi5odG1s0gFqaHR0cHM6Ly93d3cudm9hbmV3cy5jb20vYW1wL3N0cmlraW5nLXNhbXN1bmctZWxlY3Ryb25pY3Mtd29ya2Vycy1leHRlbmQtd2Fsa291dC1pbmRlZmluaXRlbHktLzc2OTIwNjIuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>North Korea-China friendship shows signs of strain</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2024-07-10 02:43:08.727308</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzEwM18zNzgzODkuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODM4OQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Suspected North Korean hypersonic missile exploded in flight, South Korea says</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.671430</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMibGh0dHBzOi8vYWJjbmV3cy5nby5jb20vSW50ZXJuYXRpb25hbC93aXJlU3Rvcnkvbm9ydGgta29yZWEtZmlyZXMtYmFsbGlzdGljLW1pc3NpbGUtc2VhLXNvdXRoLWtvcmVhLTExMTQyMTAxMtIBcGh0dHBzOi8vYWJjbmV3cy5nby5jb20vYW1wL0ludGVybmF0aW9uYWwvd2lyZVN0b3J5L25vcnRoLWtvcmVhLWZpcmVzLWJhbGxpc3RpYy1taXNzaWxlLXNlYS1zb3V0aC1rb3JlYS0xMTE0MjEwMTI?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>North Korea balloons, GPS interference raise safety risks for airlines</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.671430</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMieGh0dHBzOi8vd3d3LnJldXRlcnMuY29tL3dvcmxkL2FzaWEtcGFjaWZpYy9ub3J0aC1rb3JlYS1iYWxsb29ucy1ncHMtaW50ZXJmZXJlbmNlLXJhaXNlLXNhZmV0eS1yaXNrcy1haXJsaW5lcy0yMDI0LTA3LTEwL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>NASA Deputy Administrator Strengthens Ties in Japan, Republic of Korea</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.673064</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiaGh0dHBzOi8vd3d3Lm5hc2EuZ292L25ld3MtcmVsZWFzZS9uYXNhLWRlcHV0eS1hZG1pbmlzdHJhdG9yLXN0cmVuZ3RoZW5zLXRpZXMtaW4tamFwYW4tcmVwdWJsaWMtb2Yta29yZWEv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Samsung workers declare an indefinite strike to campaign for better pay and leave policies</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.677181</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiXWh0dHBzOi8vd3d3LmNubi5jb20vMjAyNC8wNy8xMC90ZWNoL3NvdXRoLWtvcmVhLXNhbXN1bmctaW5kZWZpbml0ZS1zdHJpa2UtaW50bC1obmsvaW5kZXguaHRtbNIBVmh0dHBzOi8vYW1wLmNubi5jb20vY25uLzIwMjQvMDcvMTAvdGVjaC9zb3V0aC1rb3JlYS1zYW1zdW5nLWluZGVmaW5pdGUtc3RyaWtlLWludGwtaG5r?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Samsung Electronics’ main union in South Korea to go on indefinite strike</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.679073</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMioAFodHRwczovL3d3dy50aGVnbG9iZWFuZG1haWwuY29tL2J1c2luZXNzL2ludGVybmF0aW9uYWwtYnVzaW5lc3MvYXNpYS1wYWNpZmljLWJ1c2luZXNzL2FydGljbGUtc2Ftc3VuZy1lbGVjdHJvbmljcy1tYWluLXVuaW9uLWluLXNvdXRoLWtvcmVhLXRvLWdvLW9uLWluZGVmaW5pdGUv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>South Korea abandons plan to suspend licenses of striking doctors to resolve medical impasse</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.680120</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMibWh0dHBzOi8vYWJjbmV3cy5nby5jb20vSGVhbHRoL3dpcmVTdG9yeS9zb3V0aC1rb3JlYS13aXRoZHJhdy1wbGFuLXN1c3BlbmQtbGljZW5zZXMtc3RyaWtpbmctZG9jdG9ycy0xMTE3MzY4MjHSAXFodHRwczovL2FiY25ld3MuZ28uY29tL2FtcC9IZWFsdGgvd2lyZVN0b3J5L3NvdXRoLWtvcmVhLXdpdGhkcmF3LXBsYW4tc3VzcGVuZC1saWNlbnNlcy1zdHJpa2luZy1kb2N0b3JzLTExMTczNjgyMQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Hong Sang-soo’s ‘By the Stream’ Picked Up by Korea’s Finecut Ahead of Locarno Premiere</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.689324</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiUmh0dHBzOi8vdmFyaWV0eS5jb20vMjAyNC9maWxtL25ld3MvaG9uZy1zYW5nLXNvby1sb2Nhcm5vLWJ5LXRoZS1zdHJlYW0tMTIzNjA2NDU0Ny_SAVZodHRwczovL3ZhcmlldHkuY29tLzIwMjQvZmlsbS9uZXdzL2hvbmctc2FuZy1zb28tbG9jYXJuby1ieS10aGUtc3RyZWFtLTEyMzYwNjQ1NDcvYW1wLw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Man who stabbed South Korea's opposition leader in the neck earlier this year has been sentenced to 15 years in prison</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.689782</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMicGh0dHBzOi8vYWJjbmV3cy5nby5jb20vSW50ZXJuYXRpb25hbC93aXJlU3RvcnkvbWFuLXN0YWJiZWQtc291dGgta29yZWFzLW9wcG9zaXRpb24tbGVhZGVyLW5lY2stZWFybGllci0xMTE2ODMzOTfSAXRodHRwczovL2FiY25ld3MuZ28uY29tL2FtcC9JbnRlcm5hdGlvbmFsL3dpcmVTdG9yeS9tYW4tc3RhYmJlZC1zb3V0aC1rb3JlYXMtb3Bwb3NpdGlvbi1sZWFkZXItbmVjay1lYXJsaWVyLTExMTY4MzM5Nw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>OECD Survey on Drivers of Trust in Public Institutions 2024 Results - Country Notes: Korea</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.689782</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMimQFodHRwczovL3d3dy5vZWNkLm9yZy9lbi9wdWJsaWNhdGlvbnMvb2VjZC1zdXJ2ZXktb24tZHJpdmVycy1vZi10cnVzdC1pbi1wdWJsaWMtaW5zdGl0dXRpb25zLTIwMjQtcmVzdWx0cy1jb3VudHJ5LW5vdGVzX2E4MDA0NzU5LWVuL2tvcmVhX2FiMWE5NWM3LWVuLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Beyond the Putin-Kim Alliance: How Can the International Community Engage China to Contain Nuclear Risks Over the Korean Peninsula?</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.697413</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiugFodHRwczovL2Nhcm5lZ2llZW5kb3dtZW50Lm9yZy9wb3N0cy8yMDI0LzA3L2JleW9uZC10aGUtcHV0aW4ta2ltLWFsbGlhbmNlLWhvdy1jYW4tdGhlLWludGVybmF0aW9uYWwtY29tbXVuaXR5LWVuZ2FnZS1jaGluYS10by1jb250YWluLW51Y2xlYXItcmlza3Mtb3Zlci10aGUta29yZWFuLXBlbmluc3VsYT9jZW50ZXI9Y2hpbmHSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Blame Trump for North Korea’s saber-rattling</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.697413</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3LmphcGFudGltZXMuY28uanAvY29tbWVudGFyeS8yMDI0LzA3LzEwL3dvcmxkL2RvbmFsZC10cnVtcC1raW0tam9uZy11bi1ub3J0aC1rb3JlYS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>EU slaps new sanctions on North Korea in response to its missile program and support for Russia</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.697413</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiR2h0dHBzOi8vY2EubmV3cy55YWhvby5jb20vZXUtc2xhcHMtc2FuY3Rpb25zLW5vcnRoLWtvcmVhLTEzMDA0OTEzOS5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>North Korea Issues New War Warning Against US and Ally</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiQ2h0dHBzOi8vd3d3Lm5ld3N3ZWVrLmNvbS9ub3J0aC1rb3JlYS13YXJuaW5nLXVzLXNvdXRoLWtvcmVhLTE5MjMxMzbSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Samsung union in South Korea declares indefinite strike</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiWGh0dHBzOi8vd3d3LmR3LmNvbS9lbi9zYW1zdW5nLXVuaW9uLWluLXNvdXRoLWtvcmVhLWRlY2xhcmVzLWluZGVmaW5pdGUtc3RyaWtlL2EtNjk2MTE3ODXSAVhodHRwczovL2FtcC5kdy5jb20vZW4vc2Ftc3VuZy11bmlvbi1pbi1zb3V0aC1rb3JlYS1kZWNsYXJlcy1pbmRlZmluaXRlLXN0cmlrZS9hLTY5NjExNzg1?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>EV Charging Index: Expert insight from South Korea</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LnJvbGFuZGJlcmdlci5jb20vZW4vSW5zaWdodHMvUHVibGljYXRpb25zL0VWLUNoYXJnaW5nLUluZGV4LUV4cGVydC1pbnNpZ2h0LWZyb20tU291dGgtS29yZWEtMjAyNC5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>N. Korean Soldiers Depart for Russia Amid Ukraine War: Report</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiR2h0dHBzOi8vd3d3LnRoZWRlZmVuc2Vwb3N0LmNvbS8yMDI0LzA3LzEwL25vcnRoLWtvcmVhbi1zb2xkaWVycy1ydXNzaWEv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Deutsche Bank Seeks Bigger Slice of South Korea M&amp;A</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiaWh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9uZXdzbGV0dGVycy8yMDI0LTA3LTEwL2RldXRzY2hlLWJhbmstc2Vla3MtYmlnZ2VyLXNsaWNlLW9mLXNvdXRoLWtvcmVhLW0tYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ASIA/SOUTH KOREA - Beatification process for Cardinal Kim begins</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:20:06.721240</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3LmZpZGVzLm9yZy9lbi9uZXdzLzc1MTk1LUFTSUFfU09VVEhfS09SRUFfQmVhdGlmaWNhdGlvbl9wcm9jZXNzX2Zvcl9DYXJkaW5hbF9LaW1fYmVnaW5z0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Rare images show what life is really like inside North Korea</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2024-07-10 14:20:06.697413</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiUGh0dHBzOi8vd3d3LnVuaWxhZC5jb20vbmV3cy93b3JsZC1uZXdzL2luc2lkZS1ub3J0aC1rb3JlYS1pbWFnZXMtNzYzODExLTIwMjQwMzI10gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>North Korea sends military delegation to Russia</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2024-07-10 14:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiYWh0dHBzOi8vd3d3LnJmYS5vcmcvZW5nbGlzaC9uZXdzL2tvcmVhL25vcnRoLWtvcmVhLXJ1c3NpYS1taWxpdGFyeS1kZWxlZ2F0aW9uLTA3MTAyMDI0MTUxODQ2Lmh0bWzSAWhodHRwczovL3d3dy5yZmEub3JnL2VuZ2xpc2gvbmV3cy9rb3JlYS9ub3J0aC1rb3JlYS1ydXNzaWEtbWlsaXRhcnktZGVsZWdhdGlvbi0wNzEwMjAyNDE1MTg0Ni5odG1sL2FtcFJGQQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>The Russia-North Korea Military Pact Is a Big Problem</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2024-07-10 14:20:06.724464</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZGh0dHBzOi8vd3d3Lmhlcml0YWdlLm9yZy9nbG9iYWwtcG9saXRpY3MvY29tbWVudGFyeS90aGUtcnVzc2lhLW5vcnRoLWtvcmVhLW1pbGl0YXJ5LXBhY3QtYmlnLXByb2JsZW3SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Samsung Electronics union goes on indefinite strike</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2024-07-10 15:20:06.669428</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiLmh0dHBzOi8vd3d3LmJiYy5jb20vbmV3cy9hcnRpY2xlcy9jNTF5ZWx2NGU3Mm_SATJodHRwczovL3d3dy5iYmMuY29tL25ld3MvYXJ0aWNsZXMvYzUxeWVsdjRlNzJvLmFtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Blackpink's Jennie 'regrets' vaping indoors</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2024-07-10 15:20:06.689782</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiLmh0dHBzOi8vd3d3LmJiYy5jb20vbmV3cy9hcnRpY2xlcy9jdjJndnpxd2d2cW_SATJodHRwczovL3d3dy5iYmMuY29tL25ld3MvYXJ0aWNsZXMvY3YyZ3Z6cXdndnFvLmFtcA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Samsung's main union in South Korea to go on strike indefinitely</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2024-07-10 15:20:06.689782</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiXWh0dHBzOi8vd3d3LmZveGJ1c2luZXNzLmNvbS90ZWNobm9sb2d5L3NhbXN1bmdzLW1haW4tdW5pb24tc291dGgta29yZWEtZ28tc3RyaWtlLWluZGVmaW5pdGVsedIBYWh0dHBzOi8vd3d3LmZveGJ1c2luZXNzLmNvbS90ZWNobm9sb2d5L3NhbXN1bmdzLW1haW4tdW5pb24tc291dGgta29yZWEtZ28tc3RyaWtlLWluZGVmaW5pdGVseS5hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Game Maker Shift Up Jumps in South Korea After $320 Million IPO</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2024-07-10 17:20:06.670567</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMicmh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTEwL2dhbWUtbWFrZXItc2hpZnQtdXAtZGVidXRzLWluLXNvdXRoLWtvcmVhLWFmdGVyLTMyMC1taWxsaW9uLWlwb9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Japan, S. Korea leaders meet to discuss N. Korea</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2024-07-10 17:20:06.697413</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiWGh0dHBzOi8vamFwYW50b2RheS5jb20vY2F0ZWdvcnkvcG9saXRpY3MvamFwYW4tcy4ta29yZWEtbGVhZGVycy1tZWV0LXRvLWRpc2N1c3Mtbi4ta29yZWHSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Flying aboard the Ghostrider, a deadly aircraft carrying America’s biggest gun in the sky</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2024-07-10 19:20:06.662315</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZmh0dHBzOi8vd3d3LmNubi5jb20vMjAyNC8wNy8wOS9hc2lhL2tvcmVhLWFjMTMwai1naG9zdHJpZGVyLWd1bnNoaXAtYmlnZ2VzdC1ndW4taW50bC1obmstbWwvaW5kZXguaHRtbNIBX2h0dHBzOi8vYW1wLmNubi5jb20vY25uLzIwMjQvMDcvMDkvYXNpYS9rb3JlYS1hYzEzMGotZ2hvc3RyaWRlci1ndW5zaGlwLWJpZ2dlc3QtZ3VuLWludGwtaG5rLW1s?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Why South Korea fears a Trump second term – even with his proxy’s assurances</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2024-07-10 19:20:06.674183</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiemh0dHBzOi8vd3d3LnNjbXAuY29tL3dlZWstYXNpYS9wb2xpdGljcy9hcnRpY2xlLzMyNjk5MDkvd2h5LXNvdXRoLWtvcmVhLWZlYXJzLXRydW1wLXNlY29uZC10ZXJtLWV2ZW4taGlzLXByb3h5cy1hc3N1cmFuY2Vz0gF6aHR0cHM6Ly9hbXAuc2NtcC5jb20vd2Vlay1hc2lhL3BvbGl0aWNzL2FydGljbGUvMzI2OTkwOS93aHktc291dGgta29yZWEtZmVhcnMtdHJ1bXAtc2Vjb25kLXRlcm0tZXZlbi1oaXMtcHJveHlzLWFzc3VyYW5jZXM?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Japan, South Korea leaders meet to discuss North Korea</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2024-07-10 19:20:06.697413</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiggFodHRwczovL2VuZ2xpc2gua3lvZG9uZXdzLm5ldC9uZXdzLzIwMjQvMDcvYzBmYjIxYjBhYTg2LXVwZGF0ZTEtamFwYW4tcy1rb3JlYS1sZWFkZXJzLW1lZXQtdG8tZGlzY3Vzcy1uLWtvcmVhLmh0bWw_cGhyYXNlPUcmd29yZHM90gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>The Great Korean Garbage War</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:20:06.665343</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiPWh0dHBzOi8vdGhlZGlwbG9tYXQuY29tLzIwMjQvMDcvdGhlLWdyZWF0LWtvcmVhbi1nYXJiYWdlLXdhci_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>South Korea's central bank holds rates, as expected</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:20:06.672421</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZmh0dHBzOi8vd3d3LnJldXRlcnMuY29tL21hcmtldHMvcmF0ZXMtYm9uZHMvc291dGgta29yZWFzLWNlbnRyYWwtYmFuay1ob2xkcy1yYXRlcy1leHBlY3RlZC0yMDI0LTA3LTExL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Bank of Korea Keeps Options Open for Timing of Interest Rate Cut</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:20:06.676184</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTExL2Jhbmstb2Yta29yZWEtc3RhbmRzLXBhdC13aXRoLWZvY3VzLW1vdmluZy10by1yYXRlLWN1dC1vdXRsb29r0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Politician Blames Male Suicides on South Korea’s ‘Dominant’ Women</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:20:06.682201</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiWWh0dHBzOi8vd3d3LnRoZWN1dC5jb20vYXJ0aWNsZS9wb2xpdGljaWFuLWJsYW1lcy1tYWxlLXN1aWNpZGVzLW9uLXNvdXRoLWtvcmVhcy13b21lbi5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Bank of Korea Holds Rate Steady for 12th Time</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:20:06.685351</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiiAFodHRwczovL3d3dy53c2ouY29tL2Vjb25vbXkvY2VudHJhbC1iYW5raW5nL2Jhbmstb2Yta29yZWEtaG9sZHMtcmF0ZS1zdGVhZHktZm9yLTEydGgtdGltZS04YTkyYjY0Nz9zdD16cW93bXpzdnoxYmxzMmwmbW9kPWdvb2dsZW5ld3NmZWVk0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Japan-ROK Summit Meeting</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:20:06.689782</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiMGh0dHBzOi8vd3d3Lm1vZmEuZ28uanAvcGFnZWl0ZV8wMDAwMDFfMDA0MzcuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Asia Morning Bites</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vdGhpbmsuaW5nLmNvbS9hcnRpY2xlcy9hc2lhLW1vcm5pbmctYml0ZXMtMTEtanVseS0yMDI0L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>U.S., Japan agree China should play larger role on North Korea</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3LnJldXRlcnMuY29tL2FydGljbGUvd29ybGQvdS1zLWphcGFuLWFncmVlLWNoaW5hLXNob3VsZC1wbGF5LWxhcmdlci1yb2xlLW9uLW5vcnRoLWtvcmVhLWlkVVNUOU4xR1UwMTcv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Brazil's lower house of Congress takes major step to enact tax reform By Reuters</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:20:06.721240</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LmludmVzdGluZy5jb20vbmV3cy9lY29ub215LW5ld3Mvc291dGgta29yZWFzLWNlbnRyYWwtYmFuay1ob2xkcy1yYXRlcy1hcy1leHBlY3RlZC0zNTE0ODE10gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>South Korea says it’ll withdraw its plan to suspend licenses of striking doctors to resolve the long medical impasse</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2024-07-10 21:20:06.664337</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZmh0dHBzOi8vYWJjbmV3cy5nby5jb20vVVMvd2lyZVN0b3J5L3NvdXRoLWtvcmVhLWl0bGwtd2l0aGRyYXctcGxhbi1zdXNwZW5kLWxpY2Vuc2VzLXN0cmlraW5nLTExMTczNjgxNtIBamh0dHBzOi8vYWJjbmV3cy5nby5jb20vYW1wL1VTL3dpcmVTdG9yeS9zb3V0aC1rb3JlYS1pdGxsLXdpdGhkcmF3LXBsYW4tc3VzcGVuZC1saWNlbnNlcy1zdHJpa2luZy0xMTE3MzY4MTY?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Russia and North Korea sign partnership deal that appears to be the strongest since the Cold War</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2024-07-10 21:20:06.668428</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiSWh0dHBzOi8vY2EubmV3cy55YWhvby5jb20va2ltLXB1dGluLW1lZXQtcHlvbmd5YW5nLXdvcnJpZXMtMDQxNjAyMTYxLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>NASA’s Pam Melroy to Visit Japan and Korea for Space Talks</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2024-07-10 21:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiVWh0dHBzOi8vc3BhY2VhbmRkZWZlbnNlLmlvL25hc2FzLXBhbS1tZWxyb3ktdG8tdmlzaXQtamFwYW4tYW5kLWtvcmVhLWZvci1zcGFjZS10YWxrcy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Korea files suit against int'l court order to compensate Mason Capital over Samsung merger</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2024-07-10 21:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiOWh0dHBzOi8va29yZWF0aW1lcy5jby5rci93d3cvdGVjaC8yMDI0LzA3LzQxOV8zNzg0MzkuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODQzOQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Kishida and Yoon vow cooperation over Russia-North Korea ties</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024-07-10 22:20:06.665343</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiW2h0dHBzOi8vd3d3LmphcGFudGltZXMuY28uanAvbmV3cy8yMDI0LzA3LzExL2phcGFuL3BvbGl0aWNzL2phcGFuLXNvdXRoLWtvcmVhLW1lZXQtYXQtbmF0by_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Korea Gets its First Domestically-Built Onboard Carbon Capture System</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2024-07-10 22:20:06.667430</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMibGh0dHBzOi8vbWFyaXRpbWUtZXhlY3V0aXZlLmNvbS9hcnRpY2xlL2tvcmVhLWdldHMtaXRzLWZpcnN0LWRvbWVzdGljYWxseS1idWlsdC1vbmJvYXJkLWNhcmJvbi1jYXB0dXJlLXN5c3RlbdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>PE-backed privatisations: Will Korea’s reform agenda deliver Japan-style deal flow?</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2024-07-10 22:20:06.677181</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMigAFodHRwczovL2lvbmFuYWx5dGljcy5jb20vaW5zaWdodHMvbWVyZ2VybWFya2V0L3BlLWJhY2tlZC1wcml2YXRpc2F0aW9ucy13aWxsLWtvcmVhcy1yZWZvcm0tYWdlbmRhLWRlbGl2ZXItamFwYW4tc3R5bGUtZGVhbC1mbG93L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Kishida, Yoon Vow Cooperation over Russia-N. Korea Ties</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2024-07-10 22:20:06.680120</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiMGh0dHBzOi8vd3d3Lm5pcHBvbi5jb20vZW4vbmV3cy95amoyMDI0MDcxMTAwMTMzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>South Korea to Deploy 'StarWars' Laser Weapons Targeting North Korean Drones</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2024-07-10 22:20:06.683544</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMijAFodHRwczovL2VuZ2xpc2guYWF3c2F0LmNvbS93b3JsZC81MDM5MDY5LXNvdXRoLWtvcmVhLWRlcGxveS1zdGFyd2Fycy1sYXNlci13ZWFwb25zLXRhcmdldGluZy1ub3J0aC1rb3JlYW4tZHJvbmVzP193cmFwcGVyX2Zvcm1hdD1odG1sJnBhZ2U9NtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>South Korea to deploy 'StarWars' laser weapons to counter North Korean drones</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2024-07-10 22:20:06.689782</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMirAFodHRwczovL3RpbWVzb2ZpbmRpYS5pbmRpYXRpbWVzLmNvbS93b3JsZC9yZXN0LW9mLXdvcmxkL2ZpcnN0LWluLXdvcmxkLXNvdXRoLWtvcmVhLXRvLWRlcGxveS1zdGFyd2Fycy1sYXNlci13ZWFwb25zLXRvLWNvdW50ZXItbm9ydGgta29yZWFuLWRyb25lcy9hcnRpY2xlc2hvdy8xMTE2NDgyNTkuY21z0gGwAWh0dHBzOi8vdGltZXNvZmluZGlhLmluZGlhdGltZXMuY29tL3dvcmxkL3Jlc3Qtb2Ytd29ybGQvZmlyc3QtaW4td29ybGQtc291dGgta29yZWEtdG8tZGVwbG95LXN0YXJ3YXJzLWxhc2VyLXdlYXBvbnMtdG8tY291bnRlci1ub3J0aC1rb3JlYW4tZHJvbmVzL2FtcF9hcnRpY2xlc2hvdy8xMTE2NDgyNTkuY21z?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Japan, South Korea leaders see North Korea-Russia ties as serious threat</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2024-07-10 22:20:06.689782</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMigwFodHRwczovL2VuZ2xpc2gua3lvZG9uZXdzLm5ldC9uZXdzLzIwMjQvMDcvYzBmYjIxYjBhYTg2LXVwZGF0ZTEtamFwYW4tcy1rb3JlYS1sZWFkZXJzLW1lZXQtdG8tZGlzY3Vzcy1uLWtvcmVhLmh0bWw_cGhyYXNlPTYwJndvcmRzPdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>For whom the bell tolls</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2024-07-10 22:20:06.697413</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiO2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYXNwP25ld3NJZHg9Mzc4NDIx0gE_aHR0cHM6Ly9tLmtvcmVhdGltZXMuY28ua3IvcGFnZXMvYXJ0aWNsZS5hbXAuYXNwP25ld3NJZHg9Mzc4NDIx?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>South Korea's Yoon, Japan's Kishida shared concerns over Russia-North Korea ties, Yoon's office says</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2024-07-10 22:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMimQFodHRwczovL3d3dy5zdHJlZXRpbnNpZGVyLmNvbS9SZXV0ZXJzL1NvdXRoK0tvcmVhcytZb29uJTJDK0phcGFucytLaXNoaWRhK3NoYXJlZCtjb25jZXJucytvdmVyK1J1c3NpYS1Ob3J0aCtLb3JlYSt0aWVzJTJDK1lvb25zK29mZmljZStzYXlzLzIzNDUyNTU4Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Bank of Korea weighs rate cut timing as it delivers dovish hold</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024-07-10 23:20:06.664337</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL21hcmtldHMvcmF0ZXMtYm9uZHMvYmFuay1rb3JlYS1ob2xkcy1yYXRlcy1zZWVuLXdlaWdoaW5nLXdoZW4tY3V0LXJhdGVzLTIwMjQtMDctMTEv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>World Cup updates: Team USA looks forward to 2026</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2024-07-10 23:20:06.673064</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiV2h0dHBzOi8vYWJjbmV3cy5nby5jb20vU3BvcnRzL2xpdmUtdXBkYXRlcy93b3JsZC1jdXAtcWF0YXI_aWQ9OTM3OTE2NTcmZW50cnlJZD05NDM1NDg3NNIBS2h0dHBzOi8vYWJjbmV3cy5nby5jb20vYW1wL1Nwb3J0cy9saXZlLXVwZGF0ZXMvd29ybGQtY3VwLXFhdGFyLz9pZD05Mzc5MTY1Nw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>South Korea to hit North’s drones with cheap, invisible ‘StarWars’ laser weapons</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2024-07-10 23:20:06.676184</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMifWh0dHBzOi8vd3d3LnNjbXAuY29tL25ld3MvYXNpYS9lYXN0LWFzaWEvYXJ0aWNsZS8zMjcwMDA0L3NvdXRoLWtvcmVhLWhpdC1ub3J0aHMtZHJvbmVzLWNoZWFwLWludmlzaWJsZS1zdGFyd2Fycy1sYXNlci13ZWFwb25z0gF9aHR0cHM6Ly9hbXAuc2NtcC5jb20vbmV3cy9hc2lhL2Vhc3QtYXNpYS9hcnRpY2xlLzMyNzAwMDQvc291dGgta29yZWEtaGl0LW5vcnRocy1kcm9uZXMtY2hlYXAtaW52aXNpYmxlLXN0YXJ3YXJzLWxhc2VyLXdlYXBvbnM?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Hedge funds turn to South Korea for next wave in AI By Reuters</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2024-07-10 23:20:06.684347</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMibGh0dHBzOi8vd3d3LmludmVzdGluZy5jb20vbmV3cy9zdG9jay1tYXJrZXQtbmV3cy9oZWRnZS1mdW5kcy10dXJuLXRvLXNvdXRoLWtvcmVhLWZvci1uZXh0LXdhdmUtaW4tYWktMzUxNDgzM9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>NATO leaders condemn North Korea’s arms exports to Russia</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2024-07-10 23:20:06.685351</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3LnJmYS5vcmcvZW5nbGlzaC9uZXdzL2tvcmVhL25hdG8tcnVzc2lhLXVrcmFpbmUtYXJtcy0wNzEwMjAyNDIzNDE1Ny5odG1s0gFaaHR0cHM6Ly93d3cucmZhLm9yZy9lbmdsaXNoL25ld3Mva29yZWEvbmF0by1ydXNzaWEtdWtyYWluZS1hcm1zLTA3MTAyMDI0MjM0MTU3Lmh0bWwvYW1wUkZB?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Bank of Korea leaves rates unchanged but leaves the door open for a rate cut</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2024-07-10 23:20:06.686377</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiW2h0dHBzOi8vdGhpbmsuaW5nLmNvbS9zbmFwcy9iYW5rLW9mLWtvcmVhLXN0YW5kLXBhdC10b2RheS1sZWF2aW5nLWRvb3Itb3Blbi1mb3ItYS1yYXRlLWN1dC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>NASA to strengthen ties with Japan, South Korea during week of meetings</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2024-07-10 23:20:06.687351</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZmh0dHBzOi8vd3d3LnVwaS5jb20vU2NpZW5jZV9OZXdzLzIwMjQvMDcvMTAvbmFzYS1qYXBhbi1yZXB1YmxpYy1rb3JlYS1zcGFjZS1jb29wZXJhdGlvbi81MjkxNzIwNjY4NjYwL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>S Korea’s Daewoo eyes $381 mln urban residency project in northern Vietnam</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2024-07-10 23:20:06.689782</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vdGhlaW52ZXN0b3Iudm4vcy1rb3JlYXMtZGFld29vLWV5ZXMtMzgxLW1sbi11cmJhbi1yZXNpZGVuY3ktcHJvamVjdC1pbi1ub3J0aGVybi12aWV0bmFtLWQxMTE1NC5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>[Interview] Boxer's epic win lays groundwork for Korea-Panama ties</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2024-07-10 23:20:06.697413</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzg0MjAuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODQyMA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>What to make of reports that China plans to send back all North Korean workers</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024-07-10 23:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3Lm5rbmV3cy5vcmcvMjAyNC8wNy93aGF0LXRvLW1ha2Utb2YtcmVwb3J0cy10aGF0LWNoaW5hLXBsYW5zLXRvLXNlbmQtYmFjay1hbGwtbm9ydGgta29yZWFuLXdvcmtlcnMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>South Korea NewJeans</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2024-07-10 23:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMibGh0dHBzOi8vd3d3LmRhaWx5YWR2YW5jZS5jb20vbmV3cy93b3JsZC9zb3V0aC1rb3JlYS1uZXdqZWFucy9pbWFnZV9kNGQ3NWUzMy0xMWQyLTU3MzAtYjM1MS05MjRmNTVhNGU3MDIuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Pattaya murder suspect deported to South Korea</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2024-07-10 23:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiemh0dHBzOi8vd3d3LmJhbmdrb2twb3N0LmNvbS90aGFpbGFuZC9nZW5lcmFsLzI4MjczMDQvcGF0dGF5YS1tdXJkZXItc3VzcGVjdC1hcnJlc3RlZC1pbi1waG5vbS1wZWhuLWRlcG9ydGVkLXRvLXNvdXRoLWtvcmVh0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Hedge funds turn to South Korea for next wave in AI</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2024-07-10 23:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiaWh0dHBzOi8vd3d3Lm1vbmV5Y29udHJvbC5jb20vbmV3cy93b3JsZC9oZWRnZS1mdW5kcy10dXJuLXRvLXNvdXRoLWtvcmVhLWZvci1uZXh0LXdhdmUtaW4tYWktMTI3NjY1NzkuaHRtbNIBbWh0dHBzOi8vd3d3Lm1vbmV5Y29udHJvbC5jb20vbmV3cy93b3JsZC9oZWRnZS1mdW5kcy10dXJuLXRvLXNvdXRoLWtvcmVhLWZvci1uZXh0LXdhdmUtaW4tYWktMTI3NjY1NzkuaHRtbC9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Japan, South Korea leaders agree North Korea-Russia ties as serious threat</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2024-07-11 00:20:06.674183</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMicmh0dHBzOi8vZW5nbGlzaC5reW9kb25ld3MubmV0L25ld3MvMjAyNC8wNy9jMGZiMjFiMGFhODYtdXBkYXRlMS1qYXBhbi1zLWtvcmVhLWxlYWRlcnMtbWVldC10by1kaXNjdXNzLW4ta29yZWEuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>A Seoul neighborhood is so crowded with tourists that the government is taking over</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2024-07-11 00:20:06.674183</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LmNubi5jb20vMjAyNC8wNy8xMS90cmF2ZWwvc291dGgta29yZWEtb3ZlcnRvdXJpc20tYnVrY2hvbi1oYW5vay12aWxsYWdlLWludGwtaG5rL2luZGV4Lmh0bWzSAWBodHRwczovL2FtcC5jbm4uY29tL2Nubi8yMDI0LzA3LzExL3RyYXZlbC9zb3V0aC1rb3JlYS1vdmVydG91cmlzbS1idWtjaG9uLWhhbm9rLXZpbGxhZ2UtaW50bC1obms?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Ukraine urgently needs South Korean air defense systems, envoy says</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2024-07-11 00:20:06.689782</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMib2h0dHBzOi8vYXNpYS5uaWtrZWkuY29tL1BvbGl0aWNzL1VrcmFpbmUtd2FyL1VrcmFpbmUtdXJnZW50bHktbmVlZHMtU291dGgtS29yZWFuLWFpci1kZWZlbnNlLXN5c3RlbXMtZW52b3ktc2F5c9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Tip of the Day: Explore Korea and bring your pet, too</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2024-07-11 00:20:06.689782</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiS2h0dHBzOi8va29yZWEuc3RyaXBlcy5jb20vdHJhdmVsL2V4cGxvcmUta29yZWEtYW5kLWJyaW5nLXlvdXItcGV0LC10b28uaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>YouTuber Tzuyang opens up about 4 years of abuse by ex-boyfriend</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2024-07-11 00:20:06.697413</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzg0NTAuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODQ1MA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>No. of foreigners entering Korea for job hits 2nd largest ever in 2023</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2024-07-11 00:20:06.697413</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzg0NDguaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODQ0OA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>South Korea to have 1,000 hydrogen buses on the roads this month</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024-07-11 00:20:06.697413</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LmVsZWN0cml2ZS5jb20vMjAyNC8wNy8xMS9zb3V0aC1rb3JlYS10by1oYXZlLTEwMDAtaHlkcm9nZW4tYnVzZXMtb24tdGhlLXJvYWRzLXRoaXMtbW9udGgv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Sipping in style: Tumbler craze sweeps Korea with fashion, function, environmental impact</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2024-07-11 00:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiL2h0dHBzOi8vd3d3LmFqdXByZXNzLmNvbS92aWV3LzIwMjQwNzExMTEwMDAzNDEz0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>GIC taps its real estate expert Jasmine Loo as new Korea head</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2024-07-11 00:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiPmh0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vcmVhbC1lc3RhdGUvbmV3c1ZpZXcva2VkMjAyNDA3MTEwMDA10gExaHR0cHM6Ly9hbXAua2VkZ2xvYmFsLmNvbS9uZXdzQW1wL2tlZDIwMjQwNzExMDAwNQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Why South Korea fears a Trump second term</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2024-07-11 01:20:06.663346</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiV2h0dHBzOi8vd3d3LmZpcnN0cG9zdC5jb20vd29ybGQvd2h5LXNvdXRoLWtvcmVhLWZlYXJzLWEtdHJ1bXAtc2Vjb25kLXRlcm0tMTM3OTE3MzQuaHRtbNIBW2h0dHBzOi8vd3d3LmZpcnN0cG9zdC5jb20vd29ybGQvd2h5LXNvdXRoLWtvcmVhLWZlYXJzLWEtdHJ1bXAtc2Vjb25kLXRlcm0tMTM3OTE3MzQuaHRtbC9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>South Korea Seeks to Deploy Lasers Against Kim Jong Un’s Drones</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2024-07-11 01:20:06.663346</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDI0LTA3LTExL3NvdXRoLWtvcmVhLXRvLXNlZWtzLWRlcGxveS1sYXNlci13ZWFwb25zLWFnYWluc3Qtbm9ydGgtcy1kcm9uZXPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Bank of Korea’s Rhee Seeks to Curb Moves Based on Rate Cut Hopes</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2024-07-11 01:20:06.664337</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3LmJubmJsb29tYmVyZy5jYS9idXNpbmVzcy9pbnRlcm5hdGlvbmFsLzIwMjQvMDcvMTEvYmFuay1vZi1rb3JlYS1rZWVwcy1vcHRpb25zLW9wZW4tZm9yLXRpbWluZy1vZi1pbnRlcmVzdC1yYXRlLWN1dC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Tencent-Backed Shift Up Jumps in South Korean Debut After $314M IPO</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2024-07-11 01:20:06.668428</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMicWh0dHBzOi8vd3d3Lm1hcmtldHdhdGNoLmNvbS9hbXAvc3RvcnkvdGVuY2VudC1iYWNrZWQtc2hpZnQtdXAtanVtcHMtaW4tc291dGgta29yZWFuLWRlYnV0LWFmdGVyLTMxNG0taXBvLTk4OTEwMzM10gFxaHR0cHM6Ly93d3cubWFya2V0d2F0Y2guY29tL2FtcC9zdG9yeS90ZW5jZW50LWJhY2tlZC1zaGlmdC11cC1qdW1wcy1pbi1zb3V0aC1rb3JlYW4tZGVidXQtYWZ0ZXItMzE0bS1pcG8tOTg5MTAzMzU?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Four killed as heavy rains pound South Korea</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2024-07-11 01:20:06.675176</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMifmh0dHBzOi8vdGltZXNvZmluZGlhLmluZGlhdGltZXMuY29tL3dvcmxkL3Jlc3Qtb2Ytd29ybGQvZm91ci1raWxsZWQtYXMtaGVhdnktcmFpbnMtcG91bmQtc291dGgta29yZWEvYXJ0aWNsZXNob3cvMTExNjUxNjE4LmNtc9IBggFodHRwczovL3RpbWVzb2ZpbmRpYS5pbmRpYXRpbWVzLmNvbS93b3JsZC9yZXN0LW9mLXdvcmxkL2ZvdXIta2lsbGVkLWFzLWhlYXZ5LXJhaW5zLXBvdW5kLXNvdXRoLWtvcmVhL2FtcF9hcnRpY2xlc2hvdy8xMTE2NTE2MTguY21z?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Hedge Funds Eye South Korean AI Stocks For Growth</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2024-07-11 01:20:06.682201</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiTmh0dHBzOi8vZmluaW1pemUuY29tL2NvbnRlbnQvaGVkZ2UtZnVuZHMtZXllLXNvdXRoLWtvcmVhbi1haS1zdG9ja3MtZm9yLWdyb3d0aNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>South Korea Tightens Crypto Rules, Targeting Fraud, Stability</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2024-07-11 01:20:06.683544</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiYGh0dHBzOi8vd3d3LmJsb2NraGVhZC5jby8yMDI0LzA3LzExL3NvdXRoLWtvcmVhLXRpZ2h0ZW5zLWNyeXB0by1ydWxlcy10YXJnZXRpbmctZnJhdWQtc3RhYmlsaXR5L9IBZGh0dHBzOi8vd3d3LmJsb2NraGVhZC5jby8yMDI0LzA3LzExL3NvdXRoLWtvcmVhLXRpZ2h0ZW5zLWNyeXB0by1ydWxlcy10YXJnZXRpbmctZnJhdWQtc3RhYmlsaXR5L2FtcC8?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Korea’s Hanmi family feud to end as key shareholder mediates</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2024-07-11 01:20:06.689782</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiR2h0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vY29ycG9yYXRlLWdvdmVybmFuY2UvbmV3c1ZpZXcva2VkMjAyNDA3MTEwMDA40gExaHR0cHM6Ly9hbXAua2VkZ2xvYmFsLmNvbS9uZXdzQW1wL2tlZDIwMjQwNzExMDAwOA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>S. Korea appeals tribunal order to pay $32m to US hedge fund</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2024-07-11 01:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiNmh0dHBzOi8vd3d3LmtvcmVhaGVyYWxkLmNvbS92aWV3LnBocD91ZD0yMDI0MDcxMTA1MDYwN9IBOGh0dHBzOi8vbS5rb3JlYWhlcmFsZC5jb20vYW1wL3ZpZXcucGhwP3VkPTIwMjQwNzExMDUwNjA3?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>More than half of sudden unintended accelerations in South Korea involve under-60 group: Report</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2024-07-11 01:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMihQFodHRwczovL3d3dy5zdHJhaXRzdGltZXMuY29tL2FzaWEvZWFzdC1hc2lhL292ZXItaGFsZi1vZi1zdWRkZW4tdW5pbnRlbmRlZC1hY2NlbGVyYXRpb25zLWluLXNvdXRoLWtvcmVhLWludm9sdmUtdW5kZXItNjAtZ3JvdXAtcmVwb3J00gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>South Korea’s General Elections: Implications for Yoon’s Foreign Policy</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2024-07-11 02:20:06.675176</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZGh0dHBzOi8vd3d3LjM4bm9ydGgub3JnL2V2ZW50cy9zb3V0aC1rb3JlYXMtZ2VuZXJhbC1lbGVjdGlvbnMtaW1wbGljYXRpb25zLWZvci15b29ucy1mb3JlaWduLXBvbGljeS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Biden's North Korea strategy under scrutiny following top US nuclear envoy's resignation</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2024-07-11 02:20:06.681102</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiP2h0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L25hdGlvbi8yMDI0LzA3LzExM18zNzg0NjUuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>South Korean Shares Climb As Shift Up Soars On Debut</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2024-07-11 02:20:06.687351</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiUWh0dHBzOi8vZmluaW1pemUuY29tL2NvbnRlbnQvc291dGgta29yZWFuLXNoYXJlcy1jbGltYi1hcy1zaGlmdC11cC1zb2Fycy1vbi1kZWJ1dNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>1st Korea-US-Japan Global Leadership Youth Summit kicks off in Busan</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2024-07-11 02:20:06.697413</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiNmh0dHBzOi8vd3d3LmtvcmVhaGVyYWxkLmNvbS92aWV3LnBocD91ZD0yMDI0MDcxMTA1MDYxN9IBOGh0dHBzOi8vbS5rb3JlYWhlcmFsZC5jb20vYW1wL3ZpZXcucGhwP3VkPTIwMjQwNzExMDUwNjE3?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Korea to look into Japanese firm's alleged hoarding of seaweed</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2024-07-11 02:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiPWh0dHBzOi8vd3d3LmtvcmVhdGltZXMuY28ua3Ivd3d3L3RlY2gvMjAyNC8wNy8xMjlfMzc4NDYzLmh0bWzSAT9odHRwczovL20ua29yZWF0aW1lcy5jby5rci9wYWdlcy9hcnRpY2xlLmFtcC5hc3A_bmV3c0lkeD0zNzg0NjM?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Will protracted strike affect Samsung's chip productivity?</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2024-07-11 02:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiOWh0dHBzOi8va29yZWF0aW1lcy5jby5rci93d3cvdGVjaC8yMDI0LzA3LzEzM18zNzg0NTkuaHRtbNIBP2h0dHBzOi8vbS5rb3JlYXRpbWVzLmNvLmtyL3BhZ2VzL2FydGljbGUuYW1wLmFzcD9uZXdzSWR4PTM3ODQ1OQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Yoon, Kishida pledge closer cooperation in wake of North Korea-Russia pact at NATO summit</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2024-07-11 02:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMipQFodHRwczovL2tvcmVham9vbmdhbmdkYWlseS5qb2lucy5jb20vbmV3cy8yMDI0LTA3LTExL25hdGlvbmFsL2RlZmVuc2UvWW9vbi1LaXNoaWRhLXBsZWRnZS1jbG9zZXItY29vcGVyYXRpb24taW4td2FrZS1vZi1Ob3J0aC1Lb3JlYVJ1c3NpYS1wYWN0LWF0LU5BVE8tc3VtbWl0LzIwODgxOTbSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>S.Korea's 4by4 to supply AI solution to Cakap</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2024-07-11 02:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiSmh0dHBzOi8vd3d3LmtlZGdsb2JhbC5jb20vYXJ0aWZpY2lhbC1pbnRlbGxpZ2VuY2UvbmV3c1ZpZXcva2VkMjAyNDA3MTEwMDA50gExaHR0cHM6Ly9hbXAua2VkZ2xvYmFsLmNvbS9uZXdzQW1wL2tlZDIwMjQwNzExMDAwOQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Kishida, Yoon Meet on Sidelines of NATO Summit;Leaders Discuss Concern over Russia-North Korea Ties</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2024-07-11 02:20:06.705514</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiTWh0dHBzOi8vamFwYW5uZXdzLnlvbWl1cmkuY28uanAvcG9saXRpY3MvcG9saXRpY3MtZ292ZXJubWVudC8yMDI0MDcxMS0xOTgwNjAv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Kyrgyzstan and Korea to cooperate in climate change</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2024-07-11 02:20:06.723884</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiVWh0dHBzOi8vYWtpcHJlc3MuY29tL25ld3M6Nzg0NDA5Okt5cmd5enN0YW5fYW5kX0tvcmVhX3RvX2Nvb3BlcmF0ZV9pbl9jbGltYXRlX2NoYW5nZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
